--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -8161,12 +8161,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EWLL</t>
+          <t>TGHI</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Health Information Services</t>
+          <t>Software?Application</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -8176,71 +8176,71 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>eWellness Healthcare Corporation</t>
+          <t>Touchpoint Group Holdings, Inc.</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-94</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="J10" t="n">
-        <v>96</v>
+        <v>-129</v>
       </c>
       <c r="K10" t="n">
-        <v>-43262</v>
+        <v>101</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1808.36</v>
+        <v>-99.93000000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>1808.36</v>
+        <v>1065.93</v>
       </c>
       <c r="P10" t="n">
-        <v>-89.2</v>
+        <v>-99.64</v>
       </c>
       <c r="Q10" t="n">
-        <v>7233.43</v>
+        <v>2.35</v>
       </c>
       <c r="R10" t="n">
-        <v>7233.43</v>
+        <v>-3442.86</v>
       </c>
       <c r="S10" t="n">
-        <v>-90.45</v>
+        <v>-62.84</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>-4</v>
+        <v>107</v>
       </c>
       <c r="W10" t="n">
-        <v>1.29</v>
+        <v>0.99</v>
       </c>
       <c r="X10" t="n">
-        <v>1550020</v>
+        <v>225211</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1736328</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         </is>
       </c>
       <c r="AA10" t="n">
-        <v>9343</v>
+        <v>1613</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -8262,12 +8262,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>2021-08-02</t>
+          <t>2021-04-09</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2021-08-02 15:36:03</t>
+          <t>2021-04-09</t>
         </is>
       </c>
       <c r="AF10" t="n">
@@ -8279,76 +8279,76 @@
         </is>
       </c>
       <c r="AH10" t="n">
-        <v>266570</v>
+        <v>174000</v>
       </c>
       <c r="AI10" t="n">
-        <v>11224</v>
+        <v>555000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>255346</v>
+        <v>-381000</v>
       </c>
       <c r="AK10" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AL10" t="n">
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>699440</v>
+        <v>2319000</v>
       </c>
       <c r="AN10" t="n">
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>2606000</v>
       </c>
       <c r="AP10" t="n">
-        <v>2647662</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2647662</v>
+        <v>2606000</v>
       </c>
       <c r="AR10" t="n">
-        <v>2658886</v>
+        <v>3161000</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>954605</v>
+        <v>232000</v>
       </c>
       <c r="AU10" t="n">
-        <v>6869</v>
+        <v>555000</v>
       </c>
       <c r="AV10" t="n">
-        <v>-7810053</v>
+        <v>-2758000</v>
       </c>
       <c r="AW10" t="n">
-        <v>-29</v>
+        <v>-16</v>
       </c>
       <c r="AX10" t="n">
-        <v>-2392316</v>
+        <v>-2987000</v>
       </c>
       <c r="AY10" t="n">
-        <v>-9</v>
+        <v>-17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>6379211</v>
+        <v>558000</v>
       </c>
       <c r="BA10" t="n">
-        <v>-8771527</v>
+        <v>-3545000</v>
       </c>
       <c r="BB10" t="n">
-        <v>-33</v>
+        <v>-20</v>
       </c>
       <c r="BC10" t="n">
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>-8771527</v>
+        <v>-3545000</v>
       </c>
       <c r="BE10" t="n">
-        <v>-33</v>
+        <v>-20</v>
       </c>
       <c r="BF10" t="n">
         <v>-0</v>
@@ -8357,53 +8357,53 @@
         <v>-0</v>
       </c>
       <c r="BH10" t="n">
-        <v>9749989477</v>
+        <v>30307000</v>
       </c>
       <c r="BI10" t="n">
-        <v>9749989477</v>
+        <v>30307000</v>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>https://www.sec.gov/Archives/edgar/data/1550020/000149315221018285/0001493152-21-018285-index.htm</t>
+          <t>https://www.sec.gov/Archives/edgar/data/225211/000175392621000093/0001753926-21-000093-index.htm</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
         <is>
-          <t>https://www.sec.gov/Archives/edgar/data/1550020/000149315221018285/form10-k.htm</t>
+          <t>https://www.sec.gov/Archives/edgar/data/225211/000175392621000093/g082115_10k.htm</t>
         </is>
       </c>
       <c r="BL10" t="n">
-        <v>11972</v>
+        <v>118000</v>
       </c>
       <c r="BM10" t="n">
         <v>0</v>
       </c>
       <c r="BN10" t="n">
-        <v>11972</v>
+        <v>118000</v>
       </c>
       <c r="BO10" t="n">
-        <v>70483</v>
+        <v>190000</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>68237</v>
+        <v>711000</v>
       </c>
       <c r="BR10" t="n">
-        <v>150692</v>
+        <v>1019000</v>
       </c>
       <c r="BS10" t="n">
-        <v>3788</v>
+        <v>3000</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>419000</v>
       </c>
       <c r="BU10" t="n">
-        <v>7000</v>
+        <v>930000</v>
       </c>
       <c r="BV10" t="n">
-        <v>7000</v>
+        <v>1349000</v>
       </c>
       <c r="BW10" t="n">
         <v>0</v>
@@ -8412,34 +8412,34 @@
         <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>2160</v>
+        <v>372000</v>
       </c>
       <c r="BZ10" t="n">
-        <v>12948</v>
+        <v>1724000</v>
       </c>
       <c r="CA10" t="n">
         <v>0</v>
       </c>
       <c r="CB10" t="n">
-        <v>163640</v>
+        <v>2743000</v>
       </c>
       <c r="CC10" t="n">
-        <v>775516</v>
+        <v>314000</v>
       </c>
       <c r="CD10" t="n">
-        <v>1354882</v>
+        <v>1734000</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
       </c>
       <c r="CF10" t="n">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="CG10" t="n">
-        <v>-1354882</v>
+        <v>427000</v>
       </c>
       <c r="CH10" t="n">
-        <v>775516</v>
+        <v>2535000</v>
       </c>
       <c r="CI10" t="n">
         <v>0</v>
@@ -8463,70 +8463,70 @@
         <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>775516</v>
+        <v>2535000</v>
       </c>
       <c r="CQ10" t="n">
-        <v>697</v>
+        <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>16862482</v>
+        <v>618000</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>-64907000</v>
       </c>
       <c r="CT10" t="n">
-        <v>0</v>
+        <v>-24000</v>
       </c>
       <c r="CU10" t="n">
-        <v>-23519961</v>
+        <v>63551000</v>
       </c>
       <c r="CV10" t="n">
-        <v>-6656782</v>
+        <v>-762000</v>
       </c>
       <c r="CW10" t="n">
-        <v>6044906</v>
+        <v>970000</v>
       </c>
       <c r="CX10" t="n">
-        <v>-611876</v>
+        <v>208000</v>
       </c>
       <c r="CY10" t="n">
-        <v>-5881266</v>
+        <v>1773000</v>
       </c>
       <c r="CZ10" t="n">
-        <v>163640</v>
+        <v>2743000</v>
       </c>
       <c r="DA10" t="n">
         <v>0</v>
       </c>
       <c r="DB10" t="n">
-        <v>1354882</v>
+        <v>1734000</v>
       </c>
       <c r="DC10" t="n">
-        <v>1342910</v>
+        <v>1616000</v>
       </c>
       <c r="DD10" t="n">
         <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>460188</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>6313023</v>
+        <v>124000</v>
       </c>
       <c r="DG10" t="n">
-        <v>-66848</v>
+        <v>350000</v>
       </c>
       <c r="DH10" t="n">
-        <v>1080441</v>
+        <v>0</v>
       </c>
       <c r="DI10" t="n">
-        <v>-624824</v>
+        <v>-1516000</v>
       </c>
       <c r="DJ10" t="n">
-        <v>1706834</v>
+        <v>2099000</v>
       </c>
       <c r="DK10" t="n">
-        <v>-284613</v>
+        <v>-767000</v>
       </c>
       <c r="DL10" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="DP10" t="n">
-        <v>0</v>
+        <v>-18000</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0</v>
+        <v>-18000</v>
       </c>
       <c r="DR10" t="n">
-        <v>0</v>
+        <v>-190000</v>
       </c>
       <c r="DS10" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="DT10" t="n">
         <v>0</v>
@@ -8559,51 +8559,51 @@
         <v>0</v>
       </c>
       <c r="DV10" t="n">
-        <v>45000</v>
+        <v>815000</v>
       </c>
       <c r="DW10" t="n">
-        <v>45000</v>
+        <v>645000</v>
       </c>
       <c r="DX10" t="n">
         <v>0</v>
       </c>
       <c r="DY10" t="n">
-        <v>-239613</v>
+        <v>-140000</v>
       </c>
       <c r="DZ10" t="n">
-        <v>1109</v>
+        <v>118000</v>
       </c>
       <c r="EA10" t="n">
-        <v>240722</v>
+        <v>258000</v>
       </c>
       <c r="EB10" t="n">
-        <v>-284613</v>
+        <v>-767000</v>
       </c>
       <c r="EC10" t="n">
         <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>-284613</v>
+        <v>-767000</v>
       </c>
       <c r="EE10" t="n">
-        <v>54041</v>
+        <v>377800</v>
       </c>
       <c r="EF10" t="n">
-        <v>2245</v>
+        <v>866000</v>
       </c>
       <c r="EG10" t="n">
-        <v>9998</v>
+        <v>4200</v>
       </c>
       <c r="EH10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Touchpoint Group Holdings, Inc.</t>
         </is>
       </c>
       <c r="EI10" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EK10" t="n">
         <v>0</v>
@@ -8618,14 +8618,14 @@
         <v>0</v>
       </c>
       <c r="EO10" t="n">
-        <v>0</v>
+        <v>7079073</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>5789266</v>
       </c>
       <c r="EQ10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MUTUAL_FUND</t>
         </is>
       </c>
       <c r="ER10" t="n">
@@ -8638,148 +8638,148 @@
         <v>0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0</v>
+        <v>304618947</v>
       </c>
       <c r="EV10" t="n">
-        <v>0</v>
+        <v>1643555855</v>
       </c>
       <c r="EW10" t="n">
-        <v>3635</v>
+        <v>170000</v>
       </c>
       <c r="EX10" t="n">
-        <v>4304842</v>
+        <v>3322000</v>
       </c>
       <c r="EY10" t="n">
-        <v>240722</v>
+        <v>258000</v>
       </c>
       <c r="EZ10" t="n">
-        <v>401496</v>
+        <v>1215000</v>
       </c>
       <c r="FA10" t="n">
         <v>0</v>
       </c>
       <c r="FB10" t="n">
-        <v>7339343</v>
+        <v>2855000</v>
       </c>
       <c r="FC10" t="n">
-        <v>-6906037</v>
+        <v>970000</v>
       </c>
       <c r="FD10" t="n">
-        <v>1999686</v>
+        <v>1032000</v>
       </c>
       <c r="FE10" t="n">
-        <v>-2978814</v>
+        <v>-2064000</v>
       </c>
       <c r="FF10" t="n">
-        <v>0</v>
+        <v>787000</v>
       </c>
       <c r="FG10" t="n">
-        <v>3695069</v>
+        <v>7140000</v>
       </c>
       <c r="FH10" t="n">
-        <v>383335</v>
+        <v>313000</v>
       </c>
       <c r="FI10" t="n">
-        <v>478843</v>
+        <v>4022000</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0</v>
+        <v>177000</v>
       </c>
       <c r="FK10" t="n">
-        <v>4484924</v>
+        <v>2455000</v>
       </c>
       <c r="FL10" t="n">
-        <v>-3980989</v>
+        <v>6899000</v>
       </c>
       <c r="FM10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="FN10" t="n">
-        <v>1361985</v>
+        <v>490</v>
       </c>
       <c r="FO10" t="n">
-        <v>1620</v>
+        <v>26</v>
       </c>
       <c r="FP10" t="n">
-        <v>1620</v>
+        <v>749</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="FR10" t="n">
-        <v>6056250</v>
+        <v>3519</v>
       </c>
       <c r="FS10" t="n">
-        <v>-6051910</v>
+        <v>-3327</v>
       </c>
       <c r="FT10" t="n">
-        <v>1354882</v>
+        <v>0</v>
       </c>
       <c r="FU10" t="n">
-        <v>1353262</v>
+        <v>-26</v>
       </c>
       <c r="FV10" t="n">
-        <v>-27307</v>
+        <v>-1043</v>
       </c>
       <c r="FW10" t="n">
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="FX10" t="n">
-        <v>1214671</v>
+        <v>745000</v>
       </c>
       <c r="FY10" t="n">
-        <v>2290</v>
+        <v>114000</v>
       </c>
       <c r="FZ10" t="n">
-        <v>2290</v>
+        <v>1000000</v>
       </c>
       <c r="GA10" t="n">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="GB10" t="n">
-        <v>4175122</v>
+        <v>3392000</v>
       </c>
       <c r="GC10" t="n">
-        <v>-4169779</v>
+        <v>-2183000</v>
       </c>
       <c r="GD10" t="n">
-        <v>1354882</v>
+        <v>2180000</v>
       </c>
       <c r="GE10" t="n">
-        <v>1352592</v>
+        <v>2066000</v>
       </c>
       <c r="GF10" t="n">
-        <v>-252735</v>
+        <v>-291000</v>
       </c>
       <c r="GG10" t="n">
-        <v>0</v>
+        <v>32000</v>
       </c>
       <c r="GH10" t="n">
-        <v>36987</v>
+        <v>987000</v>
       </c>
       <c r="GI10" t="n">
-        <v>5000</v>
+        <v>1263000</v>
       </c>
       <c r="GJ10" t="n">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="GK10" t="n">
-        <v>4987954</v>
+        <v>3009000</v>
       </c>
       <c r="GL10" t="n">
-        <v>-4979569</v>
+        <v>-1269000</v>
       </c>
       <c r="GM10" t="n">
-        <v>1358369</v>
+        <v>1821000</v>
       </c>
       <c r="GN10" t="n">
-        <v>-1109</v>
+        <v>-490000</v>
       </c>
       <c r="GO10" t="n">
-        <v>3141</v>
+        <v>-49976</v>
       </c>
       <c r="GP10" t="n">
-        <v>-285736</v>
+        <v>-964043</v>
       </c>
       <c r="GQ10" t="n">
         <v>0</v>
@@ -8788,20 +8788,20 @@
         <v>0</v>
       </c>
       <c r="GS10" t="n">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="GT10" t="n">
-        <v>85838909</v>
+        <v>5196625</v>
       </c>
       <c r="GU10" t="n">
-        <v>5552310</v>
+        <v>2893880</v>
       </c>
       <c r="GV10" t="n">
         <v>0</v>
       </c>
       <c r="GW10" t="inlineStr">
         <is>
-          <t>2.0E-4-0.0054</t>
+          <t>0.0085-0.09</t>
         </is>
       </c>
       <c r="GX10" t="n">
@@ -8814,12 +8814,12 @@
       </c>
       <c r="GZ10" t="inlineStr">
         <is>
-          <t>US30051D2053</t>
+          <t>US89157E1038</t>
         </is>
       </c>
       <c r="HA10" t="inlineStr">
         <is>
-          <t>30051D205</t>
+          <t>8.9157e+107</t>
         </is>
       </c>
       <c r="HB10" t="inlineStr">
@@ -8829,40 +8829,40 @@
       </c>
       <c r="HC10" t="inlineStr">
         <is>
-          <t>http://www.ewellnesshealth.com</t>
+          <t>https://www.touchpointgh.com</t>
         </is>
       </c>
       <c r="HD10" t="inlineStr">
         <is>
-          <t>eWellness Healthcare Corporation, a physical therapy telehealth company, offers real-time distance monitored assessments and treatments. It operates PHZIO, a real-time remote monitored 1-to-many musculoskeletal treatment physical therapy platform for home use. The company was incorporated in 2011 and is based in Fort Lauderdale, Florida.</t>
+          <t>Touchpoint Group Holdings, Inc., through its subsidiaries, operates as a software development company in the United States, Hong Kong, China, and the United Kingdom. The company develops and supplies a fan engagement platform that enhances fan experience and drives commercial aspects of the sport and entertainment business. Its fan engagement platform also brings users closer to the action by enabling them to engage with clubs, favorite players, peers, and relevant brands through various features, including live streaming, access to limited edition merchandise, gamification, user rewards, third party branded offers, credit cards, and associated benefits. The company was formerly known as One Horizon Group, Inc. and changed its name to Touchpoint Group Holdings, Inc. in September 2019. Touchpoint Group Holdings, Inc. was incorporated in 1972 and is based in Miami, Florida.</t>
         </is>
       </c>
       <c r="HE10" t="inlineStr">
         <is>
-          <t>Mr. Douglas C. MacLellan</t>
+          <t>Mr. Mark Brian White</t>
         </is>
       </c>
       <c r="HF10" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="HG10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="HH10" t="inlineStr">
         <is>
-          <t>855 470 1700</t>
+          <t>305 420 6640</t>
         </is>
       </c>
       <c r="HI10" t="inlineStr">
         <is>
-          <t>333 Las Olas Way</t>
+          <t>4300 Biscayne Boulevard</t>
         </is>
       </c>
       <c r="HJ10" t="inlineStr">
         <is>
-          <t>Fort Lauderdale</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="HK10" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="HL10" t="inlineStr">
         <is>
-          <t>33316</t>
+          <t>33137</t>
         </is>
       </c>
       <c r="HM10" t="n">
@@ -8883,12 +8883,12 @@
       </c>
       <c r="HO10" t="inlineStr">
         <is>
-          <t>https://fmpcloud.io/image-stock/EWLL.png</t>
+          <t>https://fmpcloud.io/image-stock/TGHI.png</t>
         </is>
       </c>
       <c r="HP10" t="inlineStr">
         <is>
-          <t>2016-03-31</t>
+          <t>1989-01-04</t>
         </is>
       </c>
       <c r="HQ10" t="inlineStr">
@@ -8912,61 +8912,61 @@
         </is>
       </c>
       <c r="HU10" t="n">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="HV10" t="n">
-        <v>0</v>
+        <v>-177000</v>
       </c>
       <c r="HW10" t="n">
-        <v>266570</v>
+        <v>234000</v>
       </c>
       <c r="HX10" t="n">
-        <v>3635</v>
+        <v>-7000</v>
       </c>
       <c r="HY10" t="n">
-        <v>0</v>
+        <v>-69980</v>
       </c>
       <c r="HZ10" t="n">
-        <v>0</v>
+        <v>-40000</v>
       </c>
       <c r="IA10" t="n">
-        <v>0</v>
+        <v>-69956</v>
       </c>
       <c r="IB10" t="n">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="IC10" t="n">
-        <v>-263429</v>
+        <v>-223976</v>
       </c>
       <c r="ID10" t="n">
         <v>0</v>
       </c>
       <c r="IE10" t="n">
-        <v>-48736</v>
+        <v>-2490</v>
       </c>
       <c r="IF10" t="n">
-        <v>48736</v>
+        <v>2490</v>
       </c>
       <c r="IG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="IH10" t="n">
-        <v>-237000</v>
+        <v>-961553</v>
       </c>
       <c r="II10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="IJ10" t="n">
-        <v>-6054630</v>
+        <v>-2770</v>
       </c>
       <c r="IK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="IL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="IM10" t="n">
-        <v>0</v>
+        <v>1736302</v>
       </c>
     </row>
   </sheetData>

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -1719,22 +1719,22 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>74</v>
+        <v>-26</v>
       </c>
       <c r="O2" t="n">
-        <v>61.46</v>
+        <v>-38.54</v>
       </c>
       <c r="P2" t="n">
-        <v>33.05</v>
+        <v>-66.95</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.91</v>
+        <v>-89.09</v>
       </c>
       <c r="R2" t="n">
-        <v>31.7</v>
+        <v>-68.3</v>
       </c>
       <c r="S2" t="n">
-        <v>-115.22</v>
+        <v>-215.22</v>
       </c>
       <c r="T2" t="n">
         <v>0.71</v>
@@ -2530,22 +2530,22 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>385.78</v>
+        <v>285.78</v>
       </c>
       <c r="O3" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="P3" t="n">
-        <v>-24.98</v>
+        <v>-124.98</v>
       </c>
       <c r="Q3" t="n">
-        <v>100.65</v>
+        <v>0.65</v>
       </c>
       <c r="R3" t="n">
-        <v>52.12</v>
+        <v>-47.88</v>
       </c>
       <c r="S3" t="n">
-        <v>-12.78</v>
+        <v>-112.78</v>
       </c>
       <c r="T3" t="n">
         <v>0.68</v>
@@ -3341,13 +3341,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>190.13</v>
+        <v>90.13</v>
       </c>
       <c r="O4" t="n">
-        <v>102.9</v>
+        <v>2.9</v>
       </c>
       <c r="P4" t="n">
-        <v>-3847.8</v>
+        <v>-3947.8</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-98.03</v>
+        <v>-198.03</v>
       </c>
       <c r="T4" t="n">
         <v>0.73</v>
@@ -4152,22 +4152,22 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>31.45</v>
+        <v>-68.55</v>
       </c>
       <c r="O5" t="n">
-        <v>82.54000000000001</v>
+        <v>-17.46</v>
       </c>
       <c r="P5" t="n">
-        <v>-21.61</v>
+        <v>-121.61</v>
       </c>
       <c r="Q5" t="n">
-        <v>19.86</v>
+        <v>-80.14</v>
       </c>
       <c r="R5" t="n">
-        <v>19.86</v>
+        <v>-80.14</v>
       </c>
       <c r="S5" t="n">
-        <v>-3.49</v>
+        <v>-103.49</v>
       </c>
       <c r="T5" t="n">
         <v>1.35</v>
@@ -4963,22 +4963,22 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>130.95</v>
+        <v>30.95</v>
       </c>
       <c r="O6" t="n">
-        <v>121.76</v>
+        <v>21.76</v>
       </c>
       <c r="P6" t="n">
-        <v>-4.69</v>
+        <v>-104.69</v>
       </c>
       <c r="Q6" t="n">
-        <v>-11.64</v>
+        <v>-111.64</v>
       </c>
       <c r="R6" t="n">
-        <v>-6.54</v>
+        <v>-106.54</v>
       </c>
       <c r="S6" t="n">
-        <v>108.57</v>
+        <v>8.57</v>
       </c>
       <c r="T6" t="n">
         <v>1.92</v>
@@ -5774,22 +5774,22 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>69.11</v>
+        <v>-30.89</v>
       </c>
       <c r="O7" t="n">
-        <v>64.63</v>
+        <v>-35.37</v>
       </c>
       <c r="P7" t="n">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q7" t="n">
-        <v>587.25</v>
+        <v>487.25</v>
       </c>
       <c r="R7" t="n">
-        <v>617.49</v>
+        <v>517.49</v>
       </c>
       <c r="S7" t="n">
-        <v>75.70999999999999</v>
+        <v>-24.29</v>
       </c>
       <c r="T7" t="n">
         <v>2.32</v>
@@ -6585,22 +6585,22 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>44.86</v>
+        <v>-55.14</v>
       </c>
       <c r="O8" t="n">
-        <v>58.26</v>
+        <v>-41.74</v>
       </c>
       <c r="P8" t="n">
-        <v>-24.45</v>
+        <v>-124.45</v>
       </c>
       <c r="Q8" t="n">
-        <v>-25.99</v>
+        <v>-125.99</v>
       </c>
       <c r="R8" t="n">
-        <v>-25.99</v>
+        <v>-125.99</v>
       </c>
       <c r="S8" t="n">
-        <v>-20.08</v>
+        <v>-120.08</v>
       </c>
       <c r="T8" t="n">
         <v>1.37</v>
@@ -7396,22 +7396,22 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>24.24</v>
+        <v>-75.76000000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>94.51000000000001</v>
+        <v>-5.49</v>
       </c>
       <c r="P9" t="n">
-        <v>-14.93</v>
+        <v>-114.93</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.74</v>
+        <v>-94.26000000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>7.44</v>
+        <v>-92.56</v>
       </c>
       <c r="S9" t="n">
-        <v>78.47</v>
+        <v>-21.53</v>
       </c>
       <c r="T9" t="n">
         <v>0.89</v>
@@ -8207,22 +8207,22 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-99.93000000000001</v>
+        <v>-199.93</v>
       </c>
       <c r="O10" t="n">
-        <v>1065.93</v>
+        <v>965.9299999999999</v>
       </c>
       <c r="P10" t="n">
-        <v>-99.64</v>
+        <v>-199.64</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.35</v>
+        <v>-97.65000000000001</v>
       </c>
       <c r="R10" t="n">
-        <v>-3442.86</v>
+        <v>-3542.86</v>
       </c>
       <c r="S10" t="n">
-        <v>-62.84</v>
+        <v>-162.84</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -1765,7 +1765,7 @@
         <v>-38.54</v>
       </c>
       <c r="P2" t="n">
-        <v>-66.95</v>
+        <v>-133.05</v>
       </c>
       <c r="Q2" t="n">
         <v>-89.09</v>
@@ -1774,7 +1774,7 @@
         <v>-68.3</v>
       </c>
       <c r="S2" t="n">
-        <v>-215.22</v>
+        <v>15.22</v>
       </c>
       <c r="T2" t="n">
         <v>0.71</v>
@@ -2600,7 +2600,7 @@
         <v>350</v>
       </c>
       <c r="P3" t="n">
-        <v>-124.98</v>
+        <v>-75.02</v>
       </c>
       <c r="Q3" t="n">
         <v>0.65</v>
@@ -2609,7 +2609,7 @@
         <v>-47.88</v>
       </c>
       <c r="S3" t="n">
-        <v>-112.78</v>
+        <v>-87.22</v>
       </c>
       <c r="T3" t="n">
         <v>0.68</v>
@@ -3435,7 +3435,7 @@
         <v>2.9</v>
       </c>
       <c r="P4" t="n">
-        <v>-3947.8</v>
+        <v>3747.8</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-198.03</v>
+        <v>-1.97</v>
       </c>
       <c r="T4" t="n">
         <v>0.73</v>
@@ -4270,7 +4270,7 @@
         <v>-17.46</v>
       </c>
       <c r="P5" t="n">
-        <v>-121.61</v>
+        <v>-78.39</v>
       </c>
       <c r="Q5" t="n">
         <v>-80.14</v>
@@ -4279,7 +4279,7 @@
         <v>-80.14</v>
       </c>
       <c r="S5" t="n">
-        <v>-103.49</v>
+        <v>-96.51000000000001</v>
       </c>
       <c r="T5" t="n">
         <v>1.35</v>
@@ -5105,7 +5105,7 @@
         <v>21.76</v>
       </c>
       <c r="P6" t="n">
-        <v>-104.69</v>
+        <v>-95.31</v>
       </c>
       <c r="Q6" t="n">
         <v>-111.64</v>
@@ -5114,7 +5114,7 @@
         <v>-106.54</v>
       </c>
       <c r="S6" t="n">
-        <v>8.57</v>
+        <v>-208.57</v>
       </c>
       <c r="T6" t="n">
         <v>1.92</v>
@@ -5940,7 +5940,7 @@
         <v>-35.37</v>
       </c>
       <c r="P7" t="n">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>487.25</v>
@@ -5949,7 +5949,7 @@
         <v>517.49</v>
       </c>
       <c r="S7" t="n">
-        <v>-24.29</v>
+        <v>-175.71</v>
       </c>
       <c r="T7" t="n">
         <v>2.32</v>
@@ -6784,7 +6784,7 @@
         <v>-125.99</v>
       </c>
       <c r="S8" t="n">
-        <v>-120.08</v>
+        <v>-79.92</v>
       </c>
       <c r="T8" t="n">
         <v>1.37</v>
@@ -8442,19 +8442,19 @@
         <v>-199.93</v>
       </c>
       <c r="O10" t="n">
-        <v>965.9299999999999</v>
+        <v>-1165.93</v>
       </c>
       <c r="P10" t="n">
-        <v>-199.64</v>
+        <v>-0.36</v>
       </c>
       <c r="Q10" t="n">
         <v>-97.65000000000001</v>
       </c>
       <c r="R10" t="n">
-        <v>-3542.86</v>
+        <v>3342.86</v>
       </c>
       <c r="S10" t="n">
-        <v>-162.84</v>
+        <v>-37.16</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -1747,10 +1747,10 @@
         <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>35</v>
+        <v>-65</v>
       </c>
       <c r="K2" t="n">
-        <v>90</v>
+        <v>-10</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>2725010</v>
       </c>
       <c r="EW2" t="n">
-        <v>1643555815</v>
+        <v>1643616321</v>
       </c>
       <c r="EX2" t="n">
         <v>11768000</v>
@@ -2582,10 +2582,10 @@
         <v>9.75</v>
       </c>
       <c r="J3" t="n">
-        <v>40</v>
+        <v>-60</v>
       </c>
       <c r="K3" t="n">
-        <v>-106</v>
+        <v>-206</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>10498800</v>
       </c>
       <c r="EW3" t="n">
-        <v>1643555823</v>
+        <v>1643616326</v>
       </c>
       <c r="EX3" t="n">
         <v>402446</v>
@@ -3417,10 +3417,10 @@
         <v>19.88</v>
       </c>
       <c r="J4" t="n">
-        <v>21</v>
+        <v>-79</v>
       </c>
       <c r="K4" t="n">
-        <v>-26</v>
+        <v>-126</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>70672897</v>
       </c>
       <c r="EW4" t="n">
-        <v>1643555912</v>
+        <v>1643616381</v>
       </c>
       <c r="EX4" t="n">
         <v>0</v>
@@ -4252,10 +4252,10 @@
         <v>29.2</v>
       </c>
       <c r="J5" t="n">
-        <v>33</v>
+        <v>-67</v>
       </c>
       <c r="K5" t="n">
-        <v>79</v>
+        <v>-21</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -4701,7 +4701,7 @@
         <v>3510260</v>
       </c>
       <c r="EW5" t="n">
-        <v>1643555775</v>
+        <v>1643616296</v>
       </c>
       <c r="EX5" t="n">
         <v>55363906</v>
@@ -5087,10 +5087,10 @@
         <v>8.359999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>36</v>
+        <v>-64</v>
       </c>
       <c r="K6" t="n">
-        <v>75</v>
+        <v>-25</v>
       </c>
       <c r="L6" t="n">
         <v>-1</v>
@@ -5513,7 +5513,7 @@
         <v>3</v>
       </c>
       <c r="EP6" t="n">
-        <v>308451</v>
+        <v>311178</v>
       </c>
       <c r="EQ6" t="n">
         <v>1372369</v>
@@ -5536,7 +5536,7 @@
         <v>30045099</v>
       </c>
       <c r="EW6" t="n">
-        <v>1643555792</v>
+        <v>1643616306</v>
       </c>
       <c r="EX6" t="n">
         <v>34464032</v>
@@ -5922,10 +5922,10 @@
         <v>6.4</v>
       </c>
       <c r="J7" t="n">
-        <v>56</v>
+        <v>-44</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>-94</v>
       </c>
       <c r="L7" t="n">
         <v>-1</v>
@@ -6348,7 +6348,7 @@
         <v>2</v>
       </c>
       <c r="EP7" t="n">
-        <v>382859</v>
+        <v>382909</v>
       </c>
       <c r="EQ7" t="n">
         <v>1009880</v>
@@ -6371,7 +6371,7 @@
         <v>22184201</v>
       </c>
       <c r="EW7" t="n">
-        <v>1643555905</v>
+        <v>1643616377</v>
       </c>
       <c r="EX7" t="n">
         <v>1169000</v>
@@ -6757,10 +6757,10 @@
         <v>5.73</v>
       </c>
       <c r="J8" t="n">
-        <v>37</v>
+        <v>-63</v>
       </c>
       <c r="K8" t="n">
-        <v>87</v>
+        <v>-13</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>2</v>
       </c>
       <c r="EP8" t="n">
-        <v>164467</v>
+        <v>164953</v>
       </c>
       <c r="EQ8" t="n">
         <v>522135</v>
@@ -7206,7 +7206,7 @@
         <v>30263800</v>
       </c>
       <c r="EW8" t="n">
-        <v>1643555814</v>
+        <v>1643616321</v>
       </c>
       <c r="EX8" t="n">
         <v>30467000</v>
@@ -7592,10 +7592,10 @@
         <v>43.85</v>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>-50</v>
       </c>
       <c r="K9" t="n">
-        <v>87</v>
+        <v>-13</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8041,7 +8041,7 @@
         <v>49764701</v>
       </c>
       <c r="EW9" t="n">
-        <v>1643555953</v>
+        <v>1643616408</v>
       </c>
       <c r="EX9" t="n">
         <v>1052001000</v>
@@ -8427,10 +8427,10 @@
         <v>0.09</v>
       </c>
       <c r="J10" t="n">
-        <v>-129</v>
+        <v>-229</v>
       </c>
       <c r="K10" t="n">
-        <v>101</v>
+        <v>-201</v>
       </c>
       <c r="L10" t="n">
         <v>-1</v>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>7079073</v>
+        <v>8153061</v>
       </c>
       <c r="EQ10" t="n">
         <v>5789266</v>
@@ -8876,7 +8876,7 @@
         <v>304618947</v>
       </c>
       <c r="EW10" t="n">
-        <v>1643555855</v>
+        <v>1643616345</v>
       </c>
       <c r="EX10" t="n">
         <v>170000</v>

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -2173,7 +2173,7 @@
         <v>3</v>
       </c>
       <c r="EP2" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="EQ2" t="n">
         <v>3024</v>
@@ -2196,7 +2196,7 @@
         <v>2725010</v>
       </c>
       <c r="EW2" t="n">
-        <v>1643616321</v>
+        <v>1643652723</v>
       </c>
       <c r="EX2" t="n">
         <v>11768000</v>
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="F3" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G3" t="n">
         <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>-79</v>
+        <v>-78</v>
       </c>
       <c r="I3" t="n">
         <v>9.75</v>
@@ -2612,10 +2612,10 @@
         <v>-87.22</v>
       </c>
       <c r="T3" t="n">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="U3" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
@@ -2630,7 +2630,7 @@
         <v>788611</v>
       </c>
       <c r="Z3" t="n">
-        <v>21942492</v>
+        <v>22572422</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>3</v>
       </c>
       <c r="EP3" t="n">
-        <v>108791</v>
+        <v>44470</v>
       </c>
       <c r="EQ3" t="n">
         <v>124941</v>
@@ -3028,10 +3028,10 @@
         <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>10498800</v>
+        <v>10498801</v>
       </c>
       <c r="EW3" t="n">
-        <v>1643616326</v>
+        <v>1643652729</v>
       </c>
       <c r="EX3" t="n">
         <v>402446</v>
@@ -3371,13 +3371,13 @@
         <v>1</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="IT3" t="n">
         <v>13845851</v>
       </c>
       <c r="IU3" t="n">
-        <v>8878098</v>
+        <v>9508028</v>
       </c>
     </row>
     <row r="4">
@@ -3402,16 +3402,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5.67</v>
+        <v>6.11</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
         <v>5.34</v>
       </c>
       <c r="H4" t="n">
-        <v>-71</v>
+        <v>-69</v>
       </c>
       <c r="I4" t="n">
         <v>19.88</v>
@@ -3447,7 +3447,7 @@
         <v>-1.97</v>
       </c>
       <c r="T4" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="U4" t="n">
         <v>0.99</v>
@@ -3465,7 +3465,7 @@
         <v>1779128</v>
       </c>
       <c r="Z4" t="n">
-        <v>400715328</v>
+        <v>431811392</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
@@ -3825,13 +3825,13 @@
         </is>
       </c>
       <c r="EJ4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="EK4" t="n">
         <v>0</v>
       </c>
       <c r="EL4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="EM4" t="n">
         <v>6</v>
@@ -3843,7 +3843,7 @@
         <v>9</v>
       </c>
       <c r="EP4" t="n">
-        <v>707683</v>
+        <v>475246</v>
       </c>
       <c r="EQ4" t="n">
         <v>1144646</v>
@@ -3863,10 +3863,10 @@
         <v>0</v>
       </c>
       <c r="EV4" t="n">
-        <v>70672897</v>
+        <v>70672896</v>
       </c>
       <c r="EW4" t="n">
-        <v>1643616381</v>
+        <v>1643652797</v>
       </c>
       <c r="EX4" t="n">
         <v>0</v>
@@ -4206,13 +4206,13 @@
         <v>4</v>
       </c>
       <c r="IS4" t="n">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="IT4" t="n">
         <v>262282000</v>
       </c>
       <c r="IU4" t="n">
-        <v>394847328</v>
+        <v>425943392</v>
       </c>
     </row>
     <row r="5">
@@ -4237,16 +4237,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>26.23</v>
+        <v>26.01</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
         <v>25.5</v>
       </c>
       <c r="H5" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="I5" t="n">
         <v>29.2</v>
@@ -4282,7 +4282,7 @@
         <v>-96.51000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U5" t="n">
         <v>0.87</v>
@@ -4300,7 +4300,7 @@
         <v>1679063</v>
       </c>
       <c r="Z5" t="n">
-        <v>92074120</v>
+        <v>91301864</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>26</v>
       </c>
       <c r="EM5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="EN5" t="n">
         <v>27</v>
@@ -4678,7 +4678,7 @@
         <v>28</v>
       </c>
       <c r="EP5" t="n">
-        <v>9184</v>
+        <v>3473</v>
       </c>
       <c r="EQ5" t="n">
         <v>3930</v>
@@ -4692,7 +4692,7 @@
         <v>26</v>
       </c>
       <c r="ET5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="EU5" t="n">
         <v>0</v>
@@ -4701,7 +4701,7 @@
         <v>3510260</v>
       </c>
       <c r="EW5" t="n">
-        <v>1643616296</v>
+        <v>1643652693</v>
       </c>
       <c r="EX5" t="n">
         <v>55363906</v>
@@ -5041,13 +5041,13 @@
         <v>16</v>
       </c>
       <c r="IS5" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="IT5" t="n">
         <v>-41463906</v>
       </c>
       <c r="IU5" t="n">
-        <v>80347530</v>
+        <v>79575274</v>
       </c>
     </row>
     <row r="6">
@@ -5072,16 +5072,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
         <v>0.8</v>
       </c>
       <c r="H6" t="n">
-        <v>-90</v>
+        <v>-89</v>
       </c>
       <c r="I6" t="n">
         <v>8.359999999999999</v>
@@ -5117,10 +5117,10 @@
         <v>-208.57</v>
       </c>
       <c r="T6" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="U6" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="V6" t="n">
         <v>1</v>
@@ -5135,7 +5135,7 @@
         <v>1092662</v>
       </c>
       <c r="Z6" t="n">
-        <v>25006536</v>
+        <v>26740138</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
@@ -5495,10 +5495,10 @@
         </is>
       </c>
       <c r="EJ6" t="n">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="EK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL6" t="n">
         <v>1</v>
@@ -5513,7 +5513,7 @@
         <v>3</v>
       </c>
       <c r="EP6" t="n">
-        <v>311178</v>
+        <v>141820</v>
       </c>
       <c r="EQ6" t="n">
         <v>1372369</v>
@@ -5536,7 +5536,7 @@
         <v>30045099</v>
       </c>
       <c r="EW6" t="n">
-        <v>1643616306</v>
+        <v>1643652706</v>
       </c>
       <c r="EX6" t="n">
         <v>34464032</v>
@@ -5876,13 +5876,13 @@
         <v>2</v>
       </c>
       <c r="IS6" t="n">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="IT6" t="n">
         <v>24659539</v>
       </c>
       <c r="IU6" t="n">
-        <v>14924459</v>
+        <v>16658061</v>
       </c>
     </row>
     <row r="7">
@@ -5907,16 +5907,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>0.74</v>
       </c>
       <c r="H7" t="n">
-        <v>-88</v>
+        <v>-87</v>
       </c>
       <c r="I7" t="n">
         <v>6.4</v>
@@ -5952,10 +5952,10 @@
         <v>-175.71</v>
       </c>
       <c r="T7" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.83</v>
+        <v>-0.7</v>
       </c>
       <c r="V7" t="n">
         <v>1</v>
@@ -5970,7 +5970,7 @@
         <v>1469443</v>
       </c>
       <c r="Z7" t="n">
-        <v>17310332</v>
+        <v>18634728</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
@@ -6330,10 +6330,10 @@
         </is>
       </c>
       <c r="EJ7" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="EK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL7" t="n">
         <v>1</v>
@@ -6348,7 +6348,7 @@
         <v>2</v>
       </c>
       <c r="EP7" t="n">
-        <v>382909</v>
+        <v>123857</v>
       </c>
       <c r="EQ7" t="n">
         <v>1009880</v>
@@ -6368,10 +6368,10 @@
         <v>4</v>
       </c>
       <c r="EV7" t="n">
-        <v>22184201</v>
+        <v>22184200</v>
       </c>
       <c r="EW7" t="n">
-        <v>1643616377</v>
+        <v>1643652792</v>
       </c>
       <c r="EX7" t="n">
         <v>1169000</v>
@@ -6711,13 +6711,13 @@
         <v>2</v>
       </c>
       <c r="IS7" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="IT7" t="n">
         <v>24829000</v>
       </c>
       <c r="IU7" t="n">
-        <v>-14441668</v>
+        <v>-13117272</v>
       </c>
     </row>
     <row r="8">
@@ -6742,16 +6742,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G8" t="n">
         <v>1.04</v>
       </c>
       <c r="H8" t="n">
-        <v>-80</v>
+        <v>-79</v>
       </c>
       <c r="I8" t="n">
         <v>5.73</v>
@@ -6787,10 +6787,10 @@
         <v>-79.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.03</v>
+        <v>0.04</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
@@ -6805,7 +6805,7 @@
         <v>846913</v>
       </c>
       <c r="Z8" t="n">
-        <v>33895456</v>
+        <v>36316560</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         </is>
       </c>
       <c r="EJ8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="EK8" t="n">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>2</v>
       </c>
       <c r="EP8" t="n">
-        <v>164953</v>
+        <v>56570</v>
       </c>
       <c r="EQ8" t="n">
         <v>522135</v>
@@ -7206,7 +7206,7 @@
         <v>30263800</v>
       </c>
       <c r="EW8" t="n">
-        <v>1643616321</v>
+        <v>1643652723</v>
       </c>
       <c r="EX8" t="n">
         <v>30467000</v>
@@ -7546,13 +7546,13 @@
         <v>1</v>
       </c>
       <c r="IS8" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="IT8" t="n">
         <v>37711000</v>
       </c>
       <c r="IU8" t="n">
-        <v>-990544</v>
+        <v>1430560</v>
       </c>
     </row>
     <row r="9">
@@ -7577,16 +7577,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.48</v>
+        <v>29.04</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G9" t="n">
         <v>26.66</v>
       </c>
       <c r="H9" t="n">
-        <v>-35</v>
+        <v>-34</v>
       </c>
       <c r="I9" t="n">
         <v>43.85</v>
@@ -7622,10 +7622,10 @@
         <v>-21.53</v>
       </c>
       <c r="T9" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="U9" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
         <v>-1</v>
@@ -7640,7 +7640,7 @@
         <v>730464</v>
       </c>
       <c r="Z9" t="n">
-        <v>1417298688</v>
+        <v>1445166976</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
@@ -8000,10 +8000,10 @@
         </is>
       </c>
       <c r="EJ9" t="n">
-        <v>-0</v>
+        <v>2</v>
       </c>
       <c r="EK9" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="EL9" t="n">
         <v>28</v>
@@ -8018,7 +8018,7 @@
         <v>35</v>
       </c>
       <c r="EP9" t="n">
-        <v>279709</v>
+        <v>131646</v>
       </c>
       <c r="EQ9" t="n">
         <v>399448</v>
@@ -8029,19 +8029,19 @@
         </is>
       </c>
       <c r="ES9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="ET9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="EU9" t="n">
         <v>0</v>
       </c>
       <c r="EV9" t="n">
-        <v>49764701</v>
+        <v>49764703</v>
       </c>
       <c r="EW9" t="n">
-        <v>1643616408</v>
+        <v>1643652831</v>
       </c>
       <c r="EX9" t="n">
         <v>1052001000</v>
@@ -8387,7 +8387,7 @@
         <v>-1793752000</v>
       </c>
       <c r="IU9" t="n">
-        <v>2885520688</v>
+        <v>2913388976</v>
       </c>
     </row>
     <row r="10">
@@ -8415,13 +8415,13 @@
         <v>0.01</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
         <v>0.01</v>
       </c>
       <c r="H10" t="n">
-        <v>-94</v>
+        <v>-93</v>
       </c>
       <c r="I10" t="n">
         <v>0.09</v>
@@ -8475,7 +8475,7 @@
         <v>225211</v>
       </c>
       <c r="Z10" t="n">
-        <v>1736328</v>
+        <v>1888637</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
@@ -8835,10 +8835,10 @@
         </is>
       </c>
       <c r="EJ10" t="n">
-        <v>-12</v>
+        <v>9</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL10" t="n">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>8153061</v>
+        <v>1091439</v>
       </c>
       <c r="EQ10" t="n">
         <v>5789266</v>
@@ -8873,10 +8873,10 @@
         <v>0</v>
       </c>
       <c r="EV10" t="n">
-        <v>304618947</v>
+        <v>304618871</v>
       </c>
       <c r="EW10" t="n">
-        <v>1643616345</v>
+        <v>1643652752</v>
       </c>
       <c r="EX10" t="n">
         <v>170000</v>
@@ -9222,7 +9222,7 @@
         <v>-2770</v>
       </c>
       <c r="IU10" t="n">
-        <v>1736302</v>
+        <v>1888611</v>
       </c>
     </row>
   </sheetData>

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -2173,10 +2173,10 @@
         <v>3</v>
       </c>
       <c r="EP2" t="n">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="EQ2" t="n">
-        <v>3024</v>
+        <v>3020</v>
       </c>
       <c r="ER2" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>2725010</v>
       </c>
       <c r="EW2" t="n">
-        <v>1643652723</v>
+        <v>1643731171</v>
       </c>
       <c r="EX2" t="n">
         <v>11768000</v>
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="F3" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G3" t="n">
         <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>-78</v>
+        <v>-77</v>
       </c>
       <c r="I3" t="n">
         <v>9.75</v>
@@ -2612,10 +2612,10 @@
         <v>-87.22</v>
       </c>
       <c r="T3" t="n">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="U3" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
@@ -2630,7 +2630,7 @@
         <v>788611</v>
       </c>
       <c r="Z3" t="n">
-        <v>22572422</v>
+        <v>23832276</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="EJ3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="EK3" t="n">
         <v>0</v>
@@ -3008,10 +3008,10 @@
         <v>3</v>
       </c>
       <c r="EP3" t="n">
-        <v>44470</v>
+        <v>38053</v>
       </c>
       <c r="EQ3" t="n">
-        <v>124941</v>
+        <v>116369</v>
       </c>
       <c r="ER3" t="inlineStr">
         <is>
@@ -3028,10 +3028,10 @@
         <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>10498801</v>
+        <v>10498800</v>
       </c>
       <c r="EW3" t="n">
-        <v>1643652729</v>
+        <v>1643731176</v>
       </c>
       <c r="EX3" t="n">
         <v>402446</v>
@@ -3371,13 +3371,13 @@
         <v>1</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="IT3" t="n">
         <v>13845851</v>
       </c>
       <c r="IU3" t="n">
-        <v>9508028</v>
+        <v>10767882</v>
       </c>
     </row>
     <row r="4">
@@ -3402,10 +3402,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6.11</v>
+        <v>6.22</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
         <v>5.34</v>
@@ -3447,7 +3447,7 @@
         <v>-1.97</v>
       </c>
       <c r="T4" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="U4" t="n">
         <v>0.99</v>
@@ -3465,7 +3465,7 @@
         <v>1779128</v>
       </c>
       <c r="Z4" t="n">
-        <v>431811392</v>
+        <v>439585408</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         </is>
       </c>
       <c r="EJ4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="EK4" t="n">
         <v>0</v>
@@ -3843,10 +3843,10 @@
         <v>9</v>
       </c>
       <c r="EP4" t="n">
-        <v>475246</v>
+        <v>145351</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1144646</v>
+        <v>1146791</v>
       </c>
       <c r="ER4" t="inlineStr">
         <is>
@@ -3863,10 +3863,10 @@
         <v>0</v>
       </c>
       <c r="EV4" t="n">
-        <v>70672896</v>
+        <v>70672895</v>
       </c>
       <c r="EW4" t="n">
-        <v>1643652797</v>
+        <v>1643731235</v>
       </c>
       <c r="EX4" t="n">
         <v>0</v>
@@ -4206,13 +4206,13 @@
         <v>4</v>
       </c>
       <c r="IS4" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="IT4" t="n">
         <v>262282000</v>
       </c>
       <c r="IU4" t="n">
-        <v>425943392</v>
+        <v>433717408</v>
       </c>
     </row>
     <row r="5">
@@ -4237,7 +4237,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>26.01</v>
+        <v>26.08</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
@@ -4282,7 +4282,7 @@
         <v>-96.51000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="U5" t="n">
         <v>0.87</v>
@@ -4300,7 +4300,7 @@
         <v>1679063</v>
       </c>
       <c r="Z5" t="n">
-        <v>91301864</v>
+        <v>91547584</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
@@ -4660,10 +4660,10 @@
         </is>
       </c>
       <c r="EJ5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL5" t="n">
         <v>26</v>
@@ -4678,10 +4678,10 @@
         <v>28</v>
       </c>
       <c r="EP5" t="n">
-        <v>3473</v>
+        <v>742</v>
       </c>
       <c r="EQ5" t="n">
-        <v>3930</v>
+        <v>3879</v>
       </c>
       <c r="ER5" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>3510260</v>
       </c>
       <c r="EW5" t="n">
-        <v>1643652693</v>
+        <v>1643731146</v>
       </c>
       <c r="EX5" t="n">
         <v>55363906</v>
@@ -5041,13 +5041,13 @@
         <v>16</v>
       </c>
       <c r="IS5" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="IT5" t="n">
         <v>-41463906</v>
       </c>
       <c r="IU5" t="n">
-        <v>79575274</v>
+        <v>79820994</v>
       </c>
     </row>
     <row r="6">
@@ -5072,10 +5072,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G6" t="n">
         <v>0.8</v>
@@ -5117,10 +5117,10 @@
         <v>-208.57</v>
       </c>
       <c r="T6" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="U6" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="V6" t="n">
         <v>1</v>
@@ -5135,7 +5135,7 @@
         <v>1092662</v>
       </c>
       <c r="Z6" t="n">
-        <v>26740138</v>
+        <v>28572890</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         </is>
       </c>
       <c r="EJ6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="EK6" t="n">
         <v>0</v>
@@ -5513,10 +5513,10 @@
         <v>3</v>
       </c>
       <c r="EP6" t="n">
-        <v>141820</v>
+        <v>67623</v>
       </c>
       <c r="EQ6" t="n">
-        <v>1372369</v>
+        <v>1368112</v>
       </c>
       <c r="ER6" t="inlineStr">
         <is>
@@ -5533,10 +5533,10 @@
         <v>0</v>
       </c>
       <c r="EV6" t="n">
-        <v>30045099</v>
+        <v>30045100</v>
       </c>
       <c r="EW6" t="n">
-        <v>1643652706</v>
+        <v>1643731157</v>
       </c>
       <c r="EX6" t="n">
         <v>34464032</v>
@@ -5876,13 +5876,13 @@
         <v>2</v>
       </c>
       <c r="IS6" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="IT6" t="n">
         <v>24659539</v>
       </c>
       <c r="IU6" t="n">
-        <v>16658061</v>
+        <v>18490813</v>
       </c>
     </row>
     <row r="7">
@@ -5907,16 +5907,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G7" t="n">
         <v>0.74</v>
       </c>
       <c r="H7" t="n">
-        <v>-87</v>
+        <v>-86</v>
       </c>
       <c r="I7" t="n">
         <v>6.4</v>
@@ -5952,10 +5952,10 @@
         <v>-175.71</v>
       </c>
       <c r="T7" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.7</v>
+        <v>-0.59</v>
       </c>
       <c r="V7" t="n">
         <v>1</v>
@@ -5970,7 +5970,7 @@
         <v>1469443</v>
       </c>
       <c r="Z7" t="n">
-        <v>18634728</v>
+        <v>19959124</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         </is>
       </c>
       <c r="EJ7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
@@ -6348,10 +6348,10 @@
         <v>2</v>
       </c>
       <c r="EP7" t="n">
-        <v>123857</v>
+        <v>60772</v>
       </c>
       <c r="EQ7" t="n">
-        <v>1009880</v>
+        <v>1010841</v>
       </c>
       <c r="ER7" t="inlineStr">
         <is>
@@ -6365,13 +6365,13 @@
         <v>1</v>
       </c>
       <c r="EU7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="EV7" t="n">
-        <v>22184200</v>
+        <v>22184199</v>
       </c>
       <c r="EW7" t="n">
-        <v>1643652792</v>
+        <v>1643731230</v>
       </c>
       <c r="EX7" t="n">
         <v>1169000</v>
@@ -6711,13 +6711,13 @@
         <v>2</v>
       </c>
       <c r="IS7" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="IT7" t="n">
         <v>24829000</v>
       </c>
       <c r="IU7" t="n">
-        <v>-13117272</v>
+        <v>-11792876</v>
       </c>
     </row>
     <row r="8">
@@ -6742,16 +6742,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="F8" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
         <v>1.04</v>
       </c>
       <c r="H8" t="n">
-        <v>-79</v>
+        <v>-78</v>
       </c>
       <c r="I8" t="n">
         <v>5.73</v>
@@ -6787,10 +6787,10 @@
         <v>-79.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
@@ -6805,7 +6805,7 @@
         <v>846913</v>
       </c>
       <c r="Z8" t="n">
-        <v>36316560</v>
+        <v>37962912</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         </is>
       </c>
       <c r="EJ8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="EK8" t="n">
         <v>0</v>
@@ -7183,10 +7183,10 @@
         <v>2</v>
       </c>
       <c r="EP8" t="n">
-        <v>56570</v>
+        <v>106064</v>
       </c>
       <c r="EQ8" t="n">
-        <v>522135</v>
+        <v>492241</v>
       </c>
       <c r="ER8" t="inlineStr">
         <is>
@@ -7203,10 +7203,10 @@
         <v>0</v>
       </c>
       <c r="EV8" t="n">
-        <v>30263800</v>
+        <v>30263801</v>
       </c>
       <c r="EW8" t="n">
-        <v>1643652723</v>
+        <v>1643731171</v>
       </c>
       <c r="EX8" t="n">
         <v>30467000</v>
@@ -7546,13 +7546,13 @@
         <v>1</v>
       </c>
       <c r="IS8" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="IT8" t="n">
         <v>37711000</v>
       </c>
       <c r="IU8" t="n">
-        <v>1430560</v>
+        <v>3076912</v>
       </c>
     </row>
     <row r="9">
@@ -7577,16 +7577,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.04</v>
+        <v>29.35</v>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
         <v>26.66</v>
       </c>
       <c r="H9" t="n">
-        <v>-34</v>
+        <v>-33</v>
       </c>
       <c r="I9" t="n">
         <v>43.85</v>
@@ -7622,10 +7622,10 @@
         <v>-21.53</v>
       </c>
       <c r="T9" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="V9" t="n">
         <v>-1</v>
@@ -7640,7 +7640,7 @@
         <v>730464</v>
       </c>
       <c r="Z9" t="n">
-        <v>1445166976</v>
+        <v>1460593920</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
@@ -8000,16 +8000,16 @@
         </is>
       </c>
       <c r="EJ9" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="EK9" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="EL9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="EM9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="EN9" t="n">
         <v>30</v>
@@ -8018,10 +8018,10 @@
         <v>35</v>
       </c>
       <c r="EP9" t="n">
-        <v>131646</v>
+        <v>58519</v>
       </c>
       <c r="EQ9" t="n">
-        <v>399448</v>
+        <v>400738</v>
       </c>
       <c r="ER9" t="inlineStr">
         <is>
@@ -8029,19 +8029,19 @@
         </is>
       </c>
       <c r="ES9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="ET9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="EU9" t="n">
         <v>0</v>
       </c>
       <c r="EV9" t="n">
-        <v>49764703</v>
+        <v>49764699</v>
       </c>
       <c r="EW9" t="n">
-        <v>1643652831</v>
+        <v>1643731261</v>
       </c>
       <c r="EX9" t="n">
         <v>1052001000</v>
@@ -8387,7 +8387,7 @@
         <v>-1793752000</v>
       </c>
       <c r="IU9" t="n">
-        <v>2913388976</v>
+        <v>2928815920</v>
       </c>
     </row>
     <row r="10">
@@ -8415,13 +8415,13 @@
         <v>0.01</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0.01</v>
       </c>
       <c r="H10" t="n">
-        <v>-93</v>
+        <v>-94</v>
       </c>
       <c r="I10" t="n">
         <v>0.09</v>
@@ -8475,7 +8475,7 @@
         <v>225211</v>
       </c>
       <c r="Z10" t="n">
-        <v>1888637</v>
+        <v>1644942</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
@@ -8835,10 +8835,10 @@
         </is>
       </c>
       <c r="EJ10" t="n">
-        <v>9</v>
+        <v>-17</v>
       </c>
       <c r="EK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL10" t="n">
         <v>0</v>
@@ -8853,10 +8853,10 @@
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>1091439</v>
+        <v>1346452</v>
       </c>
       <c r="EQ10" t="n">
-        <v>5789266</v>
+        <v>5814929</v>
       </c>
       <c r="ER10" t="inlineStr">
         <is>
@@ -8873,10 +8873,10 @@
         <v>0</v>
       </c>
       <c r="EV10" t="n">
-        <v>304618871</v>
+        <v>304618889</v>
       </c>
       <c r="EW10" t="n">
-        <v>1643652752</v>
+        <v>1643731196</v>
       </c>
       <c r="EX10" t="n">
         <v>170000</v>
@@ -9222,7 +9222,7 @@
         <v>-2770</v>
       </c>
       <c r="IU10" t="n">
-        <v>1888611</v>
+        <v>1644916</v>
       </c>
     </row>
   </sheetData>

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IY13"/>
+  <dimension ref="A1:IY12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1764,7 +1764,7 @@
         <v>-50</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.47</v>
       </c>
       <c r="J2" t="n">
         <v>-65</v>
@@ -2196,14 +2196,14 @@
         <v>3</v>
       </c>
       <c r="EQ2" t="n">
-        <v>412</v>
+        <v>1322</v>
       </c>
       <c r="ER2" t="n">
-        <v>3025</v>
+        <v>3062</v>
       </c>
       <c r="ES2" t="inlineStr">
         <is>
-          <t>MUTUAL_FUND</t>
+          <t>OTC</t>
         </is>
       </c>
       <c r="ET2" t="n">
@@ -2219,7 +2219,7 @@
         <v>2725010</v>
       </c>
       <c r="EX2" t="n">
-        <v>1643915223</v>
+        <v>1644061002</v>
       </c>
       <c r="EY2" t="n">
         <v>11768000</v>
@@ -2599,16 +2599,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G3" t="n">
         <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>-77</v>
+        <v>-76</v>
       </c>
       <c r="I3" t="n">
         <v>9.75</v>
@@ -2620,7 +2620,7 @@
         <v>-206</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.28</v>
+        <v>-0.27</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>-87.22</v>
       </c>
       <c r="T3" t="n">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="U3" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.65</v>
+        <v>-0.59</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="X3" t="n">
         <v>-1</v>
@@ -2665,7 +2665,7 @@
         <v>788611</v>
       </c>
       <c r="AA3" t="n">
-        <v>23097360</v>
+        <v>24147240</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -3025,10 +3025,10 @@
         </is>
       </c>
       <c r="EK3" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM3" t="n">
         <v>2</v>
@@ -3043,10 +3043,10 @@
         <v>3</v>
       </c>
       <c r="EQ3" t="n">
-        <v>27025</v>
+        <v>87217</v>
       </c>
       <c r="ER3" t="n">
-        <v>114464</v>
+        <v>109452</v>
       </c>
       <c r="ES3" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>10498800</v>
       </c>
       <c r="EX3" t="n">
-        <v>1643915251</v>
+        <v>1644061008</v>
       </c>
       <c r="EY3" t="n">
         <v>402446</v>
@@ -3412,13 +3412,13 @@
         <v>1</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="IW3" t="n">
         <v>13845851</v>
       </c>
       <c r="IX3" t="n">
-        <v>10032967</v>
+        <v>11082847</v>
       </c>
       <c r="IY3" t="n">
         <v>-2</v>
@@ -3446,16 +3446,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5.77</v>
+        <v>6.02</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
         <v>5.34</v>
       </c>
       <c r="H4" t="n">
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="I4" t="n">
         <v>19.88</v>
@@ -3491,7 +3491,7 @@
         <v>-0.31</v>
       </c>
       <c r="T4" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="U4" t="n">
         <v>0.99</v>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="X4" t="n">
         <v>-52</v>
@@ -3512,7 +3512,7 @@
         <v>1779128</v>
       </c>
       <c r="AA4" t="n">
-        <v>407824992</v>
+        <v>425450848</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="EK4" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="EL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM4" t="n">
         <v>6</v>
@@ -3890,10 +3890,10 @@
         <v>9</v>
       </c>
       <c r="EQ4" t="n">
-        <v>307352</v>
+        <v>623897</v>
       </c>
       <c r="ER4" t="n">
-        <v>1156333</v>
+        <v>1156588</v>
       </c>
       <c r="ES4" t="inlineStr">
         <is>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>70672892</v>
+        <v>70672898</v>
       </c>
       <c r="EX4" t="n">
-        <v>1643915206</v>
+        <v>1644061068</v>
       </c>
       <c r="EY4" t="n">
         <v>0</v>
@@ -4259,16 +4259,16 @@
         <v>4</v>
       </c>
       <c r="IV4" t="n">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="IW4" t="n">
         <v>262282000</v>
       </c>
       <c r="IX4" t="n">
-        <v>401956992</v>
+        <v>419582848</v>
       </c>
       <c r="IY4" t="n">
-        <v>-1019</v>
+        <v>-1064</v>
       </c>
     </row>
     <row r="5">
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.96</v>
+        <v>25.95</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
@@ -4359,7 +4359,7 @@
         <v>1679063</v>
       </c>
       <c r="AA5" t="n">
-        <v>91126344</v>
+        <v>91091248</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -4737,10 +4737,10 @@
         <v>28</v>
       </c>
       <c r="EQ5" t="n">
-        <v>1355</v>
+        <v>2275</v>
       </c>
       <c r="ER5" t="n">
-        <v>4024</v>
+        <v>4070</v>
       </c>
       <c r="ES5" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>3510260</v>
       </c>
       <c r="EX5" t="n">
-        <v>1643915213</v>
+        <v>1644060976</v>
       </c>
       <c r="EY5" t="n">
         <v>55363906</v>
@@ -5112,7 +5112,7 @@
         <v>-41463906</v>
       </c>
       <c r="IX5" t="n">
-        <v>79509209</v>
+        <v>79474113</v>
       </c>
       <c r="IY5" t="n">
         <v>-3</v>
@@ -5140,16 +5140,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G6" t="n">
         <v>0.8</v>
       </c>
       <c r="H6" t="n">
-        <v>-89</v>
+        <v>-88</v>
       </c>
       <c r="I6" t="n">
         <v>8.359999999999999</v>
@@ -5161,7 +5161,7 @@
         <v>-25</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.07</v>
+        <v>-1.02</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -5185,16 +5185,16 @@
         <v>-208.57</v>
       </c>
       <c r="T6" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="U6" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="V6" t="n">
-        <v>-1.66</v>
+        <v>-1.53</v>
       </c>
       <c r="W6" t="n">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="X6" t="n">
         <v>-5</v>
@@ -5206,7 +5206,7 @@
         <v>1092662</v>
       </c>
       <c r="AA6" t="n">
-        <v>28530826</v>
+        <v>30036086</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="EK6" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="EL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM6" t="n">
         <v>1</v>
@@ -5584,10 +5584,10 @@
         <v>2</v>
       </c>
       <c r="EQ6" t="n">
-        <v>178216</v>
+        <v>226333</v>
       </c>
       <c r="ER6" t="n">
-        <v>1359806</v>
+        <v>1319798</v>
       </c>
       <c r="ES6" t="inlineStr">
         <is>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>30045099</v>
+        <v>30045100</v>
       </c>
       <c r="EX6" t="n">
-        <v>1643915209</v>
+        <v>1644060987</v>
       </c>
       <c r="EY6" t="n">
         <v>34464032</v>
@@ -5953,13 +5953,13 @@
         <v>2</v>
       </c>
       <c r="IV6" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="IW6" t="n">
         <v>24659539</v>
       </c>
       <c r="IX6" t="n">
-        <v>18448749</v>
+        <v>19954009</v>
       </c>
       <c r="IY6" t="n">
         <v>-1</v>
@@ -5987,10 +5987,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G7" t="n">
         <v>0.74</v>
@@ -6008,7 +6008,7 @@
         <v>-94</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.11</v>
+        <v>-1.08</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -6032,16 +6032,16 @@
         <v>-175.71</v>
       </c>
       <c r="T7" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.63</v>
+        <v>-0.58</v>
       </c>
       <c r="V7" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="W7" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="X7" t="n">
         <v>-1</v>
@@ -6053,7 +6053,7 @@
         <v>1469443</v>
       </c>
       <c r="AA7" t="n">
-        <v>19522096</v>
+        <v>20132162</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -6413,10 +6413,10 @@
         </is>
       </c>
       <c r="EK7" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="EL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM7" t="n">
         <v>1</v>
@@ -6431,10 +6431,10 @@
         <v>2</v>
       </c>
       <c r="EQ7" t="n">
-        <v>106738</v>
+        <v>234645</v>
       </c>
       <c r="ER7" t="n">
-        <v>1012706</v>
+        <v>1007544</v>
       </c>
       <c r="ES7" t="inlineStr">
         <is>
@@ -6451,10 +6451,10 @@
         <v>5</v>
       </c>
       <c r="EW7" t="n">
-        <v>22184200</v>
+        <v>22184201</v>
       </c>
       <c r="EX7" t="n">
-        <v>1643915248</v>
+        <v>1644061063</v>
       </c>
       <c r="EY7" t="n">
         <v>1169000</v>
@@ -6800,13 +6800,13 @@
         <v>2</v>
       </c>
       <c r="IV7" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="IW7" t="n">
         <v>24829000</v>
       </c>
       <c r="IX7" t="n">
-        <v>-12229904</v>
+        <v>-11619838</v>
       </c>
       <c r="IY7" t="n">
         <v>1</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
         <v>1.04</v>
@@ -6879,16 +6879,16 @@
         <v>-79.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.41</v>
+        <v>-3.41</v>
       </c>
       <c r="W8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="X8" t="n">
         <v>-1</v>
@@ -6900,7 +6900,7 @@
         <v>846913</v>
       </c>
       <c r="AA8" t="n">
-        <v>34201120</v>
+        <v>34803368</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -7260,10 +7260,10 @@
         </is>
       </c>
       <c r="EK8" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="EL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM8" t="n">
         <v>1</v>
@@ -7278,10 +7278,10 @@
         <v>2</v>
       </c>
       <c r="EQ8" t="n">
-        <v>89345</v>
+        <v>70285</v>
       </c>
       <c r="ER8" t="n">
-        <v>481603</v>
+        <v>468111</v>
       </c>
       <c r="ES8" t="inlineStr">
         <is>
@@ -7298,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>30263800</v>
+        <v>30263798</v>
       </c>
       <c r="EX8" t="n">
-        <v>1643915221</v>
+        <v>1644061002</v>
       </c>
       <c r="EY8" t="n">
         <v>30467000</v>
@@ -7647,16 +7647,16 @@
         <v>1</v>
       </c>
       <c r="IV8" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="IW8" t="n">
         <v>37711000</v>
       </c>
       <c r="IX8" t="n">
-        <v>-684880</v>
+        <v>-82632</v>
       </c>
       <c r="IY8" t="n">
-        <v>-2</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
@@ -7681,16 +7681,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.98</v>
+        <v>28.22</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
         <v>26.66</v>
       </c>
       <c r="H9" t="n">
-        <v>-35</v>
+        <v>-34</v>
       </c>
       <c r="I9" t="n">
         <v>42.96</v>
@@ -7726,7 +7726,7 @@
         <v>-21.53</v>
       </c>
       <c r="T9" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="U9" t="n">
         <v>2.05</v>
@@ -7735,7 +7735,7 @@
         <v>0.03</v>
       </c>
       <c r="W9" t="n">
-        <v>-1.29</v>
+        <v>-1.28</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -7747,7 +7747,7 @@
         <v>730464</v>
       </c>
       <c r="AA9" t="n">
-        <v>1392665216</v>
+        <v>1404359808</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
@@ -8107,13 +8107,13 @@
         </is>
       </c>
       <c r="EK9" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="EL9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EM9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EN9" t="n">
         <v>28</v>
@@ -8125,10 +8125,10 @@
         <v>35</v>
       </c>
       <c r="EQ9" t="n">
-        <v>92226</v>
+        <v>158854</v>
       </c>
       <c r="ER9" t="n">
-        <v>394127</v>
+        <v>365465</v>
       </c>
       <c r="ES9" t="inlineStr">
         <is>
@@ -8139,16 +8139,16 @@
         <v>28</v>
       </c>
       <c r="EU9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="EV9" t="n">
         <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>49764703</v>
+        <v>49764699</v>
       </c>
       <c r="EX9" t="n">
-        <v>1643915203</v>
+        <v>1644061097</v>
       </c>
       <c r="EY9" t="n">
         <v>1052001000</v>
@@ -8500,7 +8500,7 @@
         <v>-1793752000</v>
       </c>
       <c r="IX9" t="n">
-        <v>2860887216</v>
+        <v>2872581808</v>
       </c>
       <c r="IY9" t="n">
         <v>34</v>
@@ -8531,10 +8531,10 @@
         <v>0.01</v>
       </c>
       <c r="F10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H10" t="n">
         <v>-94</v>
@@ -8549,7 +8549,7 @@
         <v>-201</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.55</v>
+        <v>-0.54</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -8579,7 +8579,7 @@
         <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.55</v>
+        <v>-0.54</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -8594,7 +8594,7 @@
         <v>225211</v>
       </c>
       <c r="AA10" t="n">
-        <v>1759174</v>
+        <v>1766790</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         </is>
       </c>
       <c r="EK10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="EL10" t="n">
         <v>0</v>
@@ -8972,14 +8972,14 @@
         <v>0</v>
       </c>
       <c r="EQ10" t="n">
-        <v>1269575</v>
+        <v>2797605</v>
       </c>
       <c r="ER10" t="n">
-        <v>5867529</v>
+        <v>5943875</v>
       </c>
       <c r="ES10" t="inlineStr">
         <is>
-          <t>MUTUAL_FUND</t>
+          <t>OTC</t>
         </is>
       </c>
       <c r="ET10" t="n">
@@ -8992,10 +8992,10 @@
         <v>0</v>
       </c>
       <c r="EW10" t="n">
-        <v>304618874</v>
+        <v>304618966</v>
       </c>
       <c r="EX10" t="n">
-        <v>1643915256</v>
+        <v>1644061028</v>
       </c>
       <c r="EY10" t="n">
         <v>170000</v>
@@ -9347,7 +9347,7 @@
         <v>-2770</v>
       </c>
       <c r="IX10" t="n">
-        <v>1760723</v>
+        <v>1768339</v>
       </c>
       <c r="IY10" t="n">
         <v>-2</v>
@@ -9842,7 +9842,7 @@
         <v>38720601</v>
       </c>
       <c r="EX11" t="n">
-        <v>1643915224</v>
+        <v>1644061005</v>
       </c>
       <c r="EY11" t="n">
         <v>1376900000</v>
@@ -10222,10 +10222,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4.05</v>
+        <v>4.01</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" t="n">
         <v>3.59</v>
@@ -10273,7 +10273,7 @@
         <v>1.23</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="W12" t="n">
         <v>-0.06</v>
@@ -10288,7 +10288,7 @@
         <v>1673481</v>
       </c>
       <c r="AA12" t="n">
-        <v>204041040</v>
+        <v>202025824</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="EK12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EL12" t="n">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>10</v>
       </c>
       <c r="EQ12" t="n">
-        <v>93569</v>
+        <v>182760</v>
       </c>
       <c r="ER12" t="n">
-        <v>875706</v>
+        <v>815419</v>
       </c>
       <c r="ES12" t="inlineStr">
         <is>
@@ -10683,13 +10683,13 @@
         <v>4</v>
       </c>
       <c r="EV12" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="EW12" t="n">
-        <v>50380504</v>
+        <v>50380505</v>
       </c>
       <c r="EX12" t="n">
-        <v>1643915234</v>
+        <v>1644061014</v>
       </c>
       <c r="EY12" t="n">
         <v>1887386</v>
@@ -11041,272 +11041,11 @@
         <v>-12866142</v>
       </c>
       <c r="IX12" t="n">
-        <v>250064342</v>
+        <v>248049126</v>
       </c>
       <c r="IY12" t="n">
         <v>-18</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
-      <c r="BA13" t="inlineStr"/>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr"/>
-      <c r="BE13" t="inlineStr"/>
-      <c r="BF13" t="inlineStr"/>
-      <c r="BG13" t="inlineStr"/>
-      <c r="BH13" t="inlineStr"/>
-      <c r="BI13" t="inlineStr"/>
-      <c r="BJ13" t="inlineStr"/>
-      <c r="BK13" t="inlineStr"/>
-      <c r="BL13" t="inlineStr"/>
-      <c r="BM13" t="inlineStr"/>
-      <c r="BN13" t="inlineStr"/>
-      <c r="BO13" t="inlineStr"/>
-      <c r="BP13" t="inlineStr"/>
-      <c r="BQ13" t="inlineStr"/>
-      <c r="BR13" t="inlineStr"/>
-      <c r="BS13" t="inlineStr"/>
-      <c r="BT13" t="inlineStr"/>
-      <c r="BU13" t="inlineStr"/>
-      <c r="BV13" t="inlineStr"/>
-      <c r="BW13" t="inlineStr"/>
-      <c r="BX13" t="inlineStr"/>
-      <c r="BY13" t="inlineStr"/>
-      <c r="BZ13" t="inlineStr"/>
-      <c r="CA13" t="inlineStr"/>
-      <c r="CB13" t="inlineStr"/>
-      <c r="CC13" t="inlineStr"/>
-      <c r="CD13" t="inlineStr"/>
-      <c r="CE13" t="inlineStr"/>
-      <c r="CF13" t="inlineStr"/>
-      <c r="CG13" t="inlineStr"/>
-      <c r="CH13" t="inlineStr"/>
-      <c r="CI13" t="inlineStr"/>
-      <c r="CJ13" t="inlineStr"/>
-      <c r="CK13" t="inlineStr"/>
-      <c r="CL13" t="inlineStr"/>
-      <c r="CM13" t="inlineStr"/>
-      <c r="CN13" t="inlineStr"/>
-      <c r="CO13" t="inlineStr"/>
-      <c r="CP13" t="inlineStr"/>
-      <c r="CQ13" t="inlineStr"/>
-      <c r="CR13" t="inlineStr"/>
-      <c r="CS13" t="inlineStr"/>
-      <c r="CT13" t="inlineStr"/>
-      <c r="CU13" t="inlineStr"/>
-      <c r="CV13" t="inlineStr"/>
-      <c r="CW13" t="inlineStr"/>
-      <c r="CX13" t="inlineStr"/>
-      <c r="CY13" t="inlineStr"/>
-      <c r="CZ13" t="inlineStr"/>
-      <c r="DA13" t="inlineStr"/>
-      <c r="DB13" t="inlineStr"/>
-      <c r="DC13" t="inlineStr"/>
-      <c r="DD13" t="inlineStr"/>
-      <c r="DE13" t="inlineStr"/>
-      <c r="DF13" t="inlineStr"/>
-      <c r="DG13" t="inlineStr"/>
-      <c r="DH13" t="inlineStr"/>
-      <c r="DI13" t="inlineStr"/>
-      <c r="DJ13" t="inlineStr"/>
-      <c r="DK13" t="inlineStr"/>
-      <c r="DL13" t="inlineStr"/>
-      <c r="DM13" t="inlineStr"/>
-      <c r="DN13" t="inlineStr"/>
-      <c r="DO13" t="inlineStr"/>
-      <c r="DP13" t="inlineStr"/>
-      <c r="DQ13" t="inlineStr"/>
-      <c r="DR13" t="inlineStr"/>
-      <c r="DS13" t="inlineStr"/>
-      <c r="DT13" t="inlineStr"/>
-      <c r="DU13" t="inlineStr"/>
-      <c r="DV13" t="inlineStr"/>
-      <c r="DW13" t="inlineStr"/>
-      <c r="DX13" t="inlineStr"/>
-      <c r="DY13" t="inlineStr"/>
-      <c r="DZ13" t="inlineStr"/>
-      <c r="EA13" t="inlineStr"/>
-      <c r="EB13" t="inlineStr"/>
-      <c r="EC13" t="inlineStr"/>
-      <c r="ED13" t="inlineStr"/>
-      <c r="EE13" t="inlineStr"/>
-      <c r="EF13" t="inlineStr"/>
-      <c r="EG13" t="inlineStr"/>
-      <c r="EH13" t="inlineStr"/>
-      <c r="EI13" t="inlineStr"/>
-      <c r="EJ13" t="inlineStr"/>
-      <c r="EK13" t="inlineStr"/>
-      <c r="EL13" t="inlineStr"/>
-      <c r="EM13" t="inlineStr"/>
-      <c r="EN13" t="inlineStr"/>
-      <c r="EO13" t="inlineStr"/>
-      <c r="EP13" t="inlineStr"/>
-      <c r="EQ13" t="inlineStr"/>
-      <c r="ER13" t="inlineStr"/>
-      <c r="ES13" t="inlineStr"/>
-      <c r="ET13" t="inlineStr"/>
-      <c r="EU13" t="inlineStr"/>
-      <c r="EV13" t="inlineStr"/>
-      <c r="EW13" t="inlineStr"/>
-      <c r="EX13" t="inlineStr"/>
-      <c r="EY13" t="inlineStr"/>
-      <c r="EZ13" t="inlineStr"/>
-      <c r="FA13" t="inlineStr"/>
-      <c r="FB13" t="inlineStr"/>
-      <c r="FC13" t="inlineStr"/>
-      <c r="FD13" t="inlineStr"/>
-      <c r="FE13" t="inlineStr"/>
-      <c r="FF13" t="inlineStr"/>
-      <c r="FG13" t="inlineStr"/>
-      <c r="FH13" t="inlineStr"/>
-      <c r="FI13" t="inlineStr"/>
-      <c r="FJ13" t="inlineStr"/>
-      <c r="FK13" t="inlineStr"/>
-      <c r="FL13" t="inlineStr"/>
-      <c r="FM13" t="inlineStr"/>
-      <c r="FN13" t="inlineStr"/>
-      <c r="FO13" t="inlineStr"/>
-      <c r="FP13" t="inlineStr"/>
-      <c r="FQ13" t="inlineStr"/>
-      <c r="FR13" t="inlineStr"/>
-      <c r="FS13" t="inlineStr"/>
-      <c r="FT13" t="inlineStr"/>
-      <c r="FU13" t="inlineStr"/>
-      <c r="FV13" t="inlineStr"/>
-      <c r="FW13" t="inlineStr"/>
-      <c r="FX13" t="inlineStr"/>
-      <c r="FY13" t="inlineStr"/>
-      <c r="FZ13" t="inlineStr"/>
-      <c r="GA13" t="inlineStr"/>
-      <c r="GB13" t="inlineStr"/>
-      <c r="GC13" t="inlineStr"/>
-      <c r="GD13" t="inlineStr"/>
-      <c r="GE13" t="inlineStr"/>
-      <c r="GF13" t="inlineStr"/>
-      <c r="GG13" t="inlineStr"/>
-      <c r="GH13" t="inlineStr"/>
-      <c r="GI13" t="inlineStr"/>
-      <c r="GJ13" t="inlineStr"/>
-      <c r="GK13" t="inlineStr"/>
-      <c r="GL13" t="inlineStr"/>
-      <c r="GM13" t="inlineStr"/>
-      <c r="GN13" t="inlineStr"/>
-      <c r="GO13" t="inlineStr"/>
-      <c r="GP13" t="inlineStr"/>
-      <c r="GQ13" t="inlineStr"/>
-      <c r="GR13" t="inlineStr"/>
-      <c r="GS13" t="inlineStr"/>
-      <c r="GT13" t="inlineStr"/>
-      <c r="GU13" t="inlineStr"/>
-      <c r="GV13" t="inlineStr"/>
-      <c r="GW13" t="inlineStr"/>
-      <c r="GX13" t="inlineStr"/>
-      <c r="GY13" t="inlineStr"/>
-      <c r="GZ13" t="inlineStr"/>
-      <c r="HA13" t="inlineStr"/>
-      <c r="HB13" t="inlineStr"/>
-      <c r="HC13" t="inlineStr"/>
-      <c r="HD13" t="inlineStr"/>
-      <c r="HE13" t="inlineStr"/>
-      <c r="HF13" t="inlineStr"/>
-      <c r="HG13" t="inlineStr"/>
-      <c r="HH13" t="inlineStr"/>
-      <c r="HI13" t="inlineStr"/>
-      <c r="HJ13" t="inlineStr"/>
-      <c r="HK13" t="inlineStr"/>
-      <c r="HL13" t="inlineStr"/>
-      <c r="HM13" t="inlineStr"/>
-      <c r="HN13" t="inlineStr"/>
-      <c r="HO13" t="inlineStr"/>
-      <c r="HP13" t="inlineStr"/>
-      <c r="HQ13" t="inlineStr"/>
-      <c r="HR13" t="inlineStr"/>
-      <c r="HS13" t="inlineStr"/>
-      <c r="HT13" t="inlineStr"/>
-      <c r="HU13" t="inlineStr"/>
-      <c r="HV13" t="inlineStr"/>
-      <c r="HW13" t="inlineStr"/>
-      <c r="HX13" t="inlineStr"/>
-      <c r="HY13" t="inlineStr"/>
-      <c r="HZ13" t="inlineStr"/>
-      <c r="IA13" t="inlineStr"/>
-      <c r="IB13" t="inlineStr"/>
-      <c r="IC13" t="inlineStr"/>
-      <c r="ID13" t="inlineStr"/>
-      <c r="IE13" t="inlineStr"/>
-      <c r="IF13" t="inlineStr"/>
-      <c r="IG13" t="inlineStr"/>
-      <c r="IH13" t="inlineStr"/>
-      <c r="II13" t="inlineStr"/>
-      <c r="IJ13" t="inlineStr"/>
-      <c r="IK13" t="inlineStr"/>
-      <c r="IL13" t="inlineStr"/>
-      <c r="IM13" t="inlineStr"/>
-      <c r="IN13" t="inlineStr"/>
-      <c r="IO13" t="inlineStr"/>
-      <c r="IP13" t="inlineStr"/>
-      <c r="IQ13" t="inlineStr"/>
-      <c r="IR13" t="inlineStr"/>
-      <c r="IS13" t="inlineStr"/>
-      <c r="IT13" t="inlineStr"/>
-      <c r="IU13" t="inlineStr"/>
-      <c r="IV13" t="inlineStr"/>
-      <c r="IW13" t="inlineStr"/>
-      <c r="IX13" t="inlineStr"/>
-      <c r="IY13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -1752,16 +1752,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.76</v>
+        <v>2.6</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="H2" t="n">
-        <v>-50</v>
+        <v>-52</v>
       </c>
       <c r="I2" t="n">
         <v>5.47</v>
@@ -1770,22 +1770,22 @@
         <v>-65</v>
       </c>
       <c r="K2" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.15</v>
+        <v>-0.34</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>-26</v>
+        <v>-144.66</v>
       </c>
       <c r="O2" t="n">
-        <v>-38.54</v>
+        <v>-143.06</v>
       </c>
       <c r="P2" t="n">
-        <v>-133.05</v>
+        <v>6.99</v>
       </c>
       <c r="Q2" t="n">
         <v>-89.09</v>
@@ -1797,28 +1797,28 @@
         <v>15.22</v>
       </c>
       <c r="T2" t="n">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="U2" t="n">
-        <v>1.54</v>
+        <v>0.96</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.1</v>
+        <v>-0.35</v>
       </c>
       <c r="W2" t="n">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="X2" t="n">
-        <v>4</v>
+        <v>-12</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="Z2" t="n">
         <v>719274</v>
       </c>
       <c r="AA2" t="n">
-        <v>7521027</v>
+        <v>7085025</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         </is>
       </c>
       <c r="EK2" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
         <v>3</v>
@@ -2196,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1322</v>
+        <v>666</v>
       </c>
       <c r="ER2" t="n">
-        <v>3062</v>
+        <v>3038</v>
       </c>
       <c r="ES2" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>2725010</v>
       </c>
       <c r="EX2" t="n">
-        <v>1644061002</v>
+        <v>1644519369</v>
       </c>
       <c r="EY2" t="n">
         <v>11768000</v>
@@ -2279,112 +2279,112 @@
         <v>-1307000</v>
       </c>
       <c r="FR2" t="n">
+        <v>1974000</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1514000</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>316000</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>6844000</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>3138000</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>3470000</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>4661000</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>-316000</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>65000</v>
+      </c>
+      <c r="GE2" t="n">
         <v>3567000</v>
       </c>
-      <c r="FS2" t="n">
+      <c r="GF2" t="n">
         <v>1283000</v>
       </c>
-      <c r="FT2" t="n">
+      <c r="GG2" t="n">
         <v>648000</v>
       </c>
-      <c r="FU2" t="n">
+      <c r="GH2" t="n">
         <v>7751000</v>
       </c>
-      <c r="FV2" t="n">
+      <c r="GI2" t="n">
         <v>1000</v>
       </c>
-      <c r="FW2" t="n">
+      <c r="GJ2" t="n">
         <v>3309000</v>
       </c>
-      <c r="FX2" t="n">
+      <c r="GK2" t="n">
         <v>3759000</v>
       </c>
-      <c r="FY2" t="n">
-        <v>2835000</v>
-      </c>
-      <c r="FZ2" t="n">
+      <c r="GL2" t="n">
         <v>5343000</v>
       </c>
-      <c r="GA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB2" t="n">
+      <c r="GM2" t="n">
         <v>1871000</v>
       </c>
-      <c r="GC2" t="n">
+      <c r="GN2" t="n">
         <v>1223000</v>
       </c>
-      <c r="GD2" t="n">
+      <c r="GO2" t="n">
         <v>-930000</v>
       </c>
-      <c r="GE2" t="n">
+      <c r="GP2" t="n">
         <v>2050000</v>
       </c>
-      <c r="GF2" t="n">
+      <c r="GQ2" t="n">
         <v>1500000</v>
       </c>
-      <c r="GG2" t="n">
-        <v>1030000</v>
-      </c>
-      <c r="GH2" t="n">
+      <c r="GR2" t="n">
         <v>6832000</v>
       </c>
-      <c r="GI2" t="n">
+      <c r="GS2" t="n">
         <v>103000</v>
       </c>
-      <c r="GJ2" t="n">
+      <c r="GT2" t="n">
         <v>4113000</v>
       </c>
-      <c r="GK2" t="n">
+      <c r="GU2" t="n">
         <v>4684000</v>
       </c>
-      <c r="GL2" t="n">
+      <c r="GV2" t="n">
         <v>3527000</v>
       </c>
-      <c r="GM2" t="n">
-        <v>1321000</v>
-      </c>
-      <c r="GN2" t="n">
+      <c r="GW2" t="n">
         <v>291000</v>
       </c>
-      <c r="GO2" t="n">
+      <c r="GX2" t="n">
         <v>-699000</v>
       </c>
-      <c r="GP2" t="n">
-        <v>2728000</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>1646000</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>6358000</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>7000</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>2904000</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>3600000</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>4247000</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1082000</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>-974000</v>
-      </c>
       <c r="GY2" t="n">
-        <v>12429000</v>
+        <v>10319000</v>
       </c>
       <c r="GZ2" t="n">
-        <v>-1094000</v>
+        <v>-2538000</v>
       </c>
       <c r="HA2" t="n">
-        <v>-63000</v>
+        <v>-30000</v>
       </c>
       <c r="HB2" t="n">
         <v>3</v>
@@ -2526,55 +2526,55 @@
         <v>9795000</v>
       </c>
       <c r="II2" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="IJ2" t="n">
         <v>-102000</v>
       </c>
-      <c r="IJ2" t="n">
-        <v>96000</v>
-      </c>
       <c r="IK2" t="n">
+        <v>1973000</v>
+      </c>
+      <c r="IL2" t="n">
         <v>3465000</v>
       </c>
-      <c r="IL2" t="n">
-        <v>2146000</v>
-      </c>
       <c r="IM2" t="n">
-        <v>-623000</v>
+        <v>-2733000</v>
       </c>
       <c r="IN2" t="n">
         <v>0</v>
       </c>
       <c r="IO2" t="n">
-        <v>-37741</v>
+        <v>-165562</v>
       </c>
       <c r="IP2" t="n">
-        <v>-25259</v>
+        <v>135562</v>
       </c>
       <c r="IQ2" t="n">
         <v>2</v>
       </c>
       <c r="IR2" t="n">
-        <v>-1119259</v>
+        <v>-2402438</v>
       </c>
       <c r="IS2" t="n">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="IT2" t="n">
-        <v>4442000</v>
+        <v>3706000</v>
       </c>
       <c r="IU2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
       <c r="IW2" t="n">
-        <v>3992000</v>
+        <v>3374000</v>
       </c>
       <c r="IX2" t="n">
-        <v>11579027</v>
+        <v>6769025</v>
       </c>
       <c r="IY2" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -2599,16 +2599,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="F3" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G3" t="n">
         <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>-76</v>
+        <v>-77</v>
       </c>
       <c r="I3" t="n">
         <v>9.75</v>
@@ -2620,7 +2620,7 @@
         <v>-206</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.27</v>
+        <v>-0.28</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>-87.22</v>
       </c>
       <c r="T3" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="U3" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.59</v>
+        <v>-0.64</v>
       </c>
       <c r="W3" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="X3" t="n">
         <v>-1</v>
@@ -2665,7 +2665,7 @@
         <v>788611</v>
       </c>
       <c r="AA3" t="n">
-        <v>24147240</v>
+        <v>23314686</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -3025,10 +3025,10 @@
         </is>
       </c>
       <c r="EK3" t="n">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM3" t="n">
         <v>2</v>
@@ -3043,10 +3043,10 @@
         <v>3</v>
       </c>
       <c r="EQ3" t="n">
-        <v>87217</v>
+        <v>53627</v>
       </c>
       <c r="ER3" t="n">
-        <v>109452</v>
+        <v>105104</v>
       </c>
       <c r="ES3" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>10498800</v>
       </c>
       <c r="EX3" t="n">
-        <v>1644061008</v>
+        <v>1644519376</v>
       </c>
       <c r="EY3" t="n">
         <v>402446</v>
@@ -3412,13 +3412,13 @@
         <v>1</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="IW3" t="n">
         <v>13845851</v>
       </c>
       <c r="IX3" t="n">
-        <v>11082847</v>
+        <v>10250293</v>
       </c>
       <c r="IY3" t="n">
         <v>-2</v>
@@ -3446,22 +3446,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6.02</v>
+        <v>6.82</v>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G4" t="n">
         <v>5.34</v>
       </c>
       <c r="H4" t="n">
-        <v>-70</v>
+        <v>-66</v>
       </c>
       <c r="I4" t="n">
         <v>19.88</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>-79</v>
       </c>
       <c r="K4" t="n">
         <v>-126</v>
@@ -3488,10 +3488,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.31</v>
+        <v>-1965.47</v>
       </c>
       <c r="T4" t="n">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="U4" t="n">
         <v>0.99</v>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
       <c r="X4" t="n">
         <v>-52</v>
@@ -3512,7 +3512,7 @@
         <v>1779128</v>
       </c>
       <c r="AA4" t="n">
-        <v>425450848</v>
+        <v>482342496</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
@@ -3520,11 +3520,11 @@
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>11964</v>
+        <v>11965</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -3534,16 +3534,16 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>2021-03-10</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="AH4" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
@@ -3551,82 +3551,82 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>50526000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>39721000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>10805000</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1514000</v>
       </c>
       <c r="AO4" t="n">
-        <v>678487</v>
+        <v>29922000</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>3462000</v>
       </c>
       <c r="AQ4" t="n">
-        <v>678487</v>
+        <v>33384000</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0</v>
+        <v>34898000</v>
       </c>
       <c r="AT4" t="n">
-        <v>678487</v>
+        <v>74619000</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>460000</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>596000</v>
       </c>
       <c r="AX4" t="n">
-        <v>-678487</v>
+        <v>-43099000</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-678487</v>
+        <v>-24093000</v>
       </c>
       <c r="BA4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BB4" t="n">
-        <v>-1016670</v>
+        <v>19602000</v>
       </c>
       <c r="BC4" t="n">
-        <v>338183</v>
+        <v>-43695000</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BE4" t="n">
-        <v>210465</v>
+        <v>-3643000</v>
       </c>
       <c r="BF4" t="n">
-        <v>127718</v>
+        <v>-40052000</v>
       </c>
       <c r="BG4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BH4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BI4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BJ4" t="n">
         <v>69213195</v>
@@ -3636,193 +3636,193 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>https://www.sec.gov/Archives/edgar/data/1779128/000110465921034054/0001104659-21-034054-index.htm</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>https://www.sec.gov/Archives/edgar/data/1779128/000110465921034054/tm211147d1_10k.htm</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BN4" t="n">
-        <v>846068</v>
+        <v>6952000</v>
       </c>
       <c r="BO4" t="n">
-        <v>276943</v>
+        <v>297175000</v>
       </c>
       <c r="BP4" t="n">
-        <v>1123011</v>
+        <v>304127000</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>3765000</v>
       </c>
       <c r="BR4" t="n">
         <v>0</v>
       </c>
       <c r="BS4" t="n">
-        <v>-226943</v>
+        <v>6555000</v>
       </c>
       <c r="BT4" t="n">
-        <v>896068</v>
+        <v>314447000</v>
       </c>
       <c r="BU4" t="n">
-        <v>0</v>
+        <v>2612000</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>13271000</v>
       </c>
       <c r="BW4" t="n">
-        <v>0</v>
+        <v>12644000</v>
       </c>
       <c r="BX4" t="n">
-        <v>0</v>
+        <v>25915000</v>
       </c>
       <c r="BY4" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="BZ4" t="n">
         <v>0</v>
       </c>
       <c r="CA4" t="n">
-        <v>276943339</v>
+        <v>220000</v>
       </c>
       <c r="CB4" t="n">
-        <v>276943339</v>
+        <v>28947000</v>
       </c>
       <c r="CC4" t="n">
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>277839407</v>
+        <v>343394000</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>4446000</v>
       </c>
       <c r="CF4" t="n">
-        <v>0</v>
+        <v>431000</v>
       </c>
       <c r="CG4" t="n">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0</v>
+        <v>4654000</v>
       </c>
       <c r="CI4" t="n">
-        <v>390791</v>
+        <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>390791</v>
+        <v>9531000</v>
       </c>
       <c r="CK4" t="n">
-        <v>0</v>
+        <v>222000</v>
       </c>
       <c r="CL4" t="n">
         <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="CN4" t="n">
-        <v>9625000</v>
+        <v>42217000</v>
       </c>
       <c r="CO4" t="n">
-        <v>9625000</v>
+        <v>42634000</v>
       </c>
       <c r="CP4" t="n">
         <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0</v>
+        <v>653000</v>
       </c>
       <c r="CR4" t="n">
-        <v>10015791</v>
+        <v>52165000</v>
       </c>
       <c r="CS4" t="n">
         <v>0</v>
       </c>
       <c r="CT4" t="n">
-        <v>262824431</v>
+        <v>7000</v>
       </c>
       <c r="CU4" t="n">
-        <v>912496</v>
+        <v>-77190000</v>
       </c>
       <c r="CV4" t="n">
-        <v>0</v>
+        <v>-297000</v>
       </c>
       <c r="CW4" t="n">
-        <v>4086689</v>
+        <v>0</v>
       </c>
       <c r="CX4" t="n">
-        <v>267823616</v>
+        <v>291229000</v>
       </c>
       <c r="CY4" t="n">
         <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>267823616</v>
+        <v>291229000</v>
       </c>
       <c r="DA4" t="n">
-        <v>277839407</v>
+        <v>343394000</v>
       </c>
       <c r="DB4" t="n">
-        <v>277839407</v>
+        <v>343394000</v>
       </c>
       <c r="DC4" t="n">
-        <v>0</v>
+        <v>297375000</v>
       </c>
       <c r="DD4" t="n">
-        <v>0</v>
+        <v>653000</v>
       </c>
       <c r="DE4" t="n">
-        <v>-846068</v>
+        <v>-6299000</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-3643000</v>
       </c>
       <c r="DG4" t="n">
-        <v>0</v>
+        <v>9621000</v>
       </c>
       <c r="DH4" t="n">
-        <v>-554025</v>
+        <v>-2200000</v>
       </c>
       <c r="DI4" t="n">
-        <v>0</v>
+        <v>-414000</v>
       </c>
       <c r="DJ4" t="n">
-        <v>22253</v>
+        <v>0</v>
       </c>
       <c r="DK4" t="n">
-        <v>505277</v>
+        <v>684000</v>
       </c>
       <c r="DL4" t="n">
-        <v>-368160</v>
+        <v>20063000</v>
       </c>
       <c r="DM4" t="n">
-        <v>-794467</v>
+        <v>-15615000</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-297000</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-23065000</v>
       </c>
       <c r="DP4" t="n">
-        <v>0</v>
+        <v>-308772000</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0</v>
+        <v>11300000</v>
       </c>
       <c r="DR4" t="n">
-        <v>334927</v>
+        <v>-504000</v>
       </c>
       <c r="DS4" t="n">
-        <v>334927</v>
+        <v>-321338000</v>
       </c>
       <c r="DT4" t="n">
-        <v>0</v>
+        <v>-1165000</v>
       </c>
       <c r="DU4" t="n">
-        <v>0</v>
+        <v>333332000</v>
       </c>
       <c r="DV4" t="n">
         <v>0</v>
@@ -3831,40 +3831,40 @@
         <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>92000</v>
       </c>
       <c r="DY4" t="n">
-        <v>0</v>
+        <v>332259000</v>
       </c>
       <c r="DZ4" t="n">
         <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-459540</v>
+        <v>-4694000</v>
       </c>
       <c r="EB4" t="n">
-        <v>846068</v>
+        <v>7582000</v>
       </c>
       <c r="EC4" t="n">
-        <v>1305608</v>
+        <v>12276000</v>
       </c>
       <c r="ED4" t="n">
-        <v>-794467</v>
+        <v>-15615000</v>
       </c>
       <c r="EE4" t="n">
-        <v>0</v>
+        <v>-801000</v>
       </c>
       <c r="EF4" t="n">
-        <v>-794467</v>
+        <v>-16416000</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>10105200</v>
       </c>
       <c r="EH4" t="n">
-        <v>0</v>
+        <v>7944200</v>
       </c>
       <c r="EI4" t="n">
-        <v>0</v>
+        <v>1520800</v>
       </c>
       <c r="EJ4" t="inlineStr">
         <is>
@@ -3872,16 +3872,16 @@
         </is>
       </c>
       <c r="EK4" t="n">
+        <v>-4</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EM4" t="n">
         <v>7</v>
       </c>
-      <c r="EL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM4" t="n">
-        <v>6</v>
-      </c>
       <c r="EN4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="EO4" t="n">
         <v>8</v>
@@ -3890,10 +3890,10 @@
         <v>9</v>
       </c>
       <c r="EQ4" t="n">
-        <v>623897</v>
+        <v>636115</v>
       </c>
       <c r="ER4" t="n">
-        <v>1156588</v>
+        <v>1123945</v>
       </c>
       <c r="ES4" t="inlineStr">
         <is>
@@ -3901,19 +3901,19 @@
         </is>
       </c>
       <c r="ET4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="EU4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="EV4" t="n">
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>70672898</v>
+        <v>70672893</v>
       </c>
       <c r="EX4" t="n">
-        <v>1644061068</v>
+        <v>1644519460</v>
       </c>
       <c r="EY4" t="n">
         <v>0</v>
@@ -3922,28 +3922,28 @@
         <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>1305608</v>
+        <v>846068</v>
       </c>
       <c r="FB4" t="n">
-        <v>1430608</v>
+        <v>896068</v>
       </c>
       <c r="FC4" t="n">
         <v>0</v>
       </c>
       <c r="FD4" t="n">
-        <v>371306</v>
+        <v>390791</v>
       </c>
       <c r="FE4" t="n">
-        <v>9996306</v>
+        <v>10015791</v>
       </c>
       <c r="FF4" t="n">
-        <v>267695898</v>
+        <v>267823616</v>
       </c>
       <c r="FG4" t="n">
-        <v>-842876</v>
+        <v>-846068</v>
       </c>
       <c r="FH4" t="n">
-        <v>-256512000</v>
+        <v>-794467</v>
       </c>
       <c r="FI4" t="n">
         <v>0</v>
@@ -3952,25 +3952,25 @@
         <v>0</v>
       </c>
       <c r="FK4" t="n">
-        <v>1305608</v>
+        <v>846068</v>
       </c>
       <c r="FL4" t="n">
-        <v>1430608</v>
+        <v>896068</v>
       </c>
       <c r="FM4" t="n">
         <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>371306</v>
+        <v>390791</v>
       </c>
       <c r="FO4" t="n">
-        <v>9996306</v>
+        <v>10015791</v>
       </c>
       <c r="FP4" t="n">
-        <v>267695898</v>
+        <v>267823616</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-256512000</v>
+        <v>-10818000</v>
       </c>
       <c r="FR4" t="n">
         <v>37575000</v>
@@ -4208,13 +4208,13 @@
         </is>
       </c>
       <c r="IE4" t="n">
-        <v>0</v>
+        <v>4654000</v>
       </c>
       <c r="IF4" t="n">
         <v>0</v>
       </c>
       <c r="IG4" t="n">
-        <v>0</v>
+        <v>55180000</v>
       </c>
       <c r="IH4" t="n">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>18217000</v>
       </c>
       <c r="IM4" t="n">
-        <v>50526000</v>
+        <v>0</v>
       </c>
       <c r="IN4" t="n">
         <v>0</v>
@@ -4259,16 +4259,16 @@
         <v>4</v>
       </c>
       <c r="IV4" t="n">
-        <v>0.72</v>
+        <v>0.63</v>
       </c>
       <c r="IW4" t="n">
         <v>262282000</v>
       </c>
       <c r="IX4" t="n">
-        <v>419582848</v>
+        <v>476474496</v>
       </c>
       <c r="IY4" t="n">
-        <v>-1064</v>
+        <v>-1208</v>
       </c>
     </row>
     <row r="5">
@@ -4293,16 +4293,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.95</v>
+        <v>25.15</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>25.5</v>
+        <v>24.04</v>
       </c>
       <c r="H5" t="n">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="I5" t="n">
         <v>29.2</v>
@@ -4314,7 +4314,7 @@
         <v>-21</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.35</v>
+        <v>-0.36</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -4338,16 +4338,16 @@
         <v>-96.51000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U5" t="n">
         <v>0.87</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.4</v>
+        <v>-0.41</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.46</v>
+        <v>-0.47</v>
       </c>
       <c r="X5" t="n">
         <v>-5</v>
@@ -4359,7 +4359,7 @@
         <v>1679063</v>
       </c>
       <c r="AA5" t="n">
-        <v>91091248</v>
+        <v>88283040</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -4437,13 +4437,13 @@
         <v>2090316</v>
       </c>
       <c r="AW5" t="n">
-        <v>16291327</v>
+        <v>45257578</v>
       </c>
       <c r="AX5" t="n">
-        <v>-21929334</v>
+        <v>7036917</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ5" t="n">
         <v>-38711736</v>
@@ -4719,16 +4719,16 @@
         </is>
       </c>
       <c r="EK5" t="n">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="EL5" t="n">
         <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EN5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EO5" t="n">
         <v>27</v>
@@ -4737,10 +4737,10 @@
         <v>28</v>
       </c>
       <c r="EQ5" t="n">
-        <v>2275</v>
+        <v>4804</v>
       </c>
       <c r="ER5" t="n">
-        <v>4070</v>
+        <v>4645</v>
       </c>
       <c r="ES5" t="inlineStr">
         <is>
@@ -4748,10 +4748,10 @@
         </is>
       </c>
       <c r="ET5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EU5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EV5" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>3510260</v>
       </c>
       <c r="EX5" t="n">
-        <v>1644060976</v>
+        <v>1644519332</v>
       </c>
       <c r="EY5" t="n">
         <v>55363906</v>
@@ -5106,16 +5106,16 @@
         <v>16</v>
       </c>
       <c r="IV5" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="IW5" t="n">
         <v>-41463906</v>
       </c>
       <c r="IX5" t="n">
-        <v>79474113</v>
+        <v>76665905</v>
       </c>
       <c r="IY5" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="6">
@@ -5140,10 +5140,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" t="n">
         <v>0.8</v>
@@ -5152,7 +5152,7 @@
         <v>-88</v>
       </c>
       <c r="I6" t="n">
-        <v>8.359999999999999</v>
+        <v>8.18</v>
       </c>
       <c r="J6" t="n">
         <v>-64</v>
@@ -5161,7 +5161,7 @@
         <v>-25</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.02</v>
+        <v>-1.04</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -5185,16 +5185,16 @@
         <v>-208.57</v>
       </c>
       <c r="T6" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="U6" t="n">
         <v>0.66</v>
       </c>
       <c r="V6" t="n">
-        <v>-1.53</v>
+        <v>-1.58</v>
       </c>
       <c r="W6" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="X6" t="n">
         <v>-5</v>
@@ -5206,7 +5206,7 @@
         <v>1092662</v>
       </c>
       <c r="AA6" t="n">
-        <v>30036086</v>
+        <v>29357068</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>11271</v>
+        <v>11272</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="EK6" t="n">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
         <v>1</v>
@@ -5584,10 +5584,10 @@
         <v>2</v>
       </c>
       <c r="EQ6" t="n">
-        <v>226333</v>
+        <v>188222</v>
       </c>
       <c r="ER6" t="n">
-        <v>1319798</v>
+        <v>1245366</v>
       </c>
       <c r="ES6" t="inlineStr">
         <is>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>30045100</v>
+        <v>30045101</v>
       </c>
       <c r="EX6" t="n">
-        <v>1644060987</v>
+        <v>1644519347</v>
       </c>
       <c r="EY6" t="n">
         <v>34464032</v>
@@ -5953,13 +5953,13 @@
         <v>2</v>
       </c>
       <c r="IV6" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="IW6" t="n">
         <v>24659539</v>
       </c>
       <c r="IX6" t="n">
-        <v>19954009</v>
+        <v>19274991</v>
       </c>
       <c r="IY6" t="n">
         <v>-1</v>
@@ -5987,16 +5987,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.91</v>
+        <v>1.04</v>
       </c>
       <c r="F7" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G7" t="n">
         <v>0.74</v>
       </c>
       <c r="H7" t="n">
-        <v>-86</v>
+        <v>-84</v>
       </c>
       <c r="I7" t="n">
         <v>6.4</v>
@@ -6008,7 +6008,7 @@
         <v>-94</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.08</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -6032,16 +6032,16 @@
         <v>-175.71</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.58</v>
+        <v>-0.38</v>
       </c>
       <c r="V7" t="n">
-        <v>1.86</v>
+        <v>2.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
       <c r="X7" t="n">
         <v>-1</v>
@@ -6053,7 +6053,7 @@
         <v>1469443</v>
       </c>
       <c r="AA7" t="n">
-        <v>20132162</v>
+        <v>23071568</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>37345000</v>
       </c>
       <c r="DL7" t="n">
-        <v>-38752000</v>
+        <v>-40123000</v>
       </c>
       <c r="DM7" t="n">
         <v>-30218000</v>
@@ -6413,10 +6413,10 @@
         </is>
       </c>
       <c r="EK7" t="n">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
         <v>1</v>
@@ -6431,10 +6431,10 @@
         <v>2</v>
       </c>
       <c r="EQ7" t="n">
-        <v>234645</v>
+        <v>444582</v>
       </c>
       <c r="ER7" t="n">
-        <v>1007544</v>
+        <v>1018174</v>
       </c>
       <c r="ES7" t="inlineStr">
         <is>
@@ -6451,10 +6451,10 @@
         <v>5</v>
       </c>
       <c r="EW7" t="n">
-        <v>22184201</v>
+        <v>22184200</v>
       </c>
       <c r="EX7" t="n">
-        <v>1644061063</v>
+        <v>1644519453</v>
       </c>
       <c r="EY7" t="n">
         <v>1169000</v>
@@ -6800,16 +6800,16 @@
         <v>2</v>
       </c>
       <c r="IV7" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="IW7" t="n">
         <v>24829000</v>
       </c>
       <c r="IX7" t="n">
-        <v>-11619838</v>
+        <v>-8680432</v>
       </c>
       <c r="IY7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G8" t="n">
         <v>1.04</v>
       </c>
       <c r="H8" t="n">
-        <v>-80</v>
+        <v>-77</v>
       </c>
       <c r="I8" t="n">
-        <v>5.73</v>
+        <v>5.36</v>
       </c>
       <c r="J8" t="n">
         <v>-63</v>
@@ -6879,16 +6879,16 @@
         <v>-79.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="V8" t="n">
-        <v>-3.41</v>
+        <v>0.1</v>
       </c>
       <c r="W8" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
         <v>-1</v>
@@ -6900,7 +6900,7 @@
         <v>846913</v>
       </c>
       <c r="AA8" t="n">
-        <v>34803368</v>
+        <v>37829752</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -7278,10 +7278,10 @@
         <v>2</v>
       </c>
       <c r="EQ8" t="n">
-        <v>70285</v>
+        <v>84838</v>
       </c>
       <c r="ER8" t="n">
-        <v>468111</v>
+        <v>434441</v>
       </c>
       <c r="ES8" t="inlineStr">
         <is>
@@ -7298,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>30263798</v>
+        <v>30263802</v>
       </c>
       <c r="EX8" t="n">
-        <v>1644061002</v>
+        <v>1644519368</v>
       </c>
       <c r="EY8" t="n">
         <v>30467000</v>
@@ -7647,16 +7647,16 @@
         <v>1</v>
       </c>
       <c r="IV8" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="IW8" t="n">
         <v>37711000</v>
       </c>
       <c r="IX8" t="n">
-        <v>-82632</v>
+        <v>2943752</v>
       </c>
       <c r="IY8" t="n">
-        <v>-0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -7681,40 +7681,40 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.22</v>
+        <v>23.4</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>26.66</v>
+        <v>23.3</v>
       </c>
       <c r="H9" t="n">
-        <v>-34</v>
+        <v>-44</v>
       </c>
       <c r="I9" t="n">
-        <v>42.96</v>
+        <v>41.81</v>
       </c>
       <c r="J9" t="n">
         <v>-50</v>
       </c>
       <c r="K9" t="n">
-        <v>-13</v>
+        <v>-1</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>-75.76000000000001</v>
+        <v>-93.43000000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>-5.49</v>
+        <v>-155.49</v>
       </c>
       <c r="P9" t="n">
-        <v>-114.93</v>
+        <v>-246.42</v>
       </c>
       <c r="Q9" t="n">
         <v>-94.26000000000001</v>
@@ -7726,28 +7726,28 @@
         <v>-21.53</v>
       </c>
       <c r="T9" t="n">
-        <v>0.9</v>
+        <v>1.11</v>
       </c>
       <c r="U9" t="n">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="V9" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="W9" t="n">
-        <v>-1.28</v>
+        <v>-1.51</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="Z9" t="n">
         <v>730464</v>
       </c>
       <c r="AA9" t="n">
-        <v>1404359808</v>
+        <v>1164493952</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>12578</v>
+        <v>12579</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>13875000</v>
       </c>
       <c r="DH9" t="n">
-        <v>-7478000</v>
+        <v>759363000</v>
       </c>
       <c r="DI9" t="n">
         <v>13259000</v>
@@ -8027,10 +8027,10 @@
         <v>8530000</v>
       </c>
       <c r="DK9" t="n">
-        <v>-6638000</v>
+        <v>1106146000</v>
       </c>
       <c r="DL9" t="n">
-        <v>8757000</v>
+        <v>-758518000</v>
       </c>
       <c r="DM9" t="n">
         <v>192199000</v>
@@ -8107,28 +8107,28 @@
         </is>
       </c>
       <c r="EK9" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EM9" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="EN9" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="EO9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="EP9" t="n">
         <v>35</v>
       </c>
       <c r="EQ9" t="n">
-        <v>158854</v>
+        <v>656278</v>
       </c>
       <c r="ER9" t="n">
-        <v>365465</v>
+        <v>371962</v>
       </c>
       <c r="ES9" t="inlineStr">
         <is>
@@ -8136,10 +8136,10 @@
         </is>
       </c>
       <c r="ET9" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="EU9" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="EV9" t="n">
         <v>0</v>
@@ -8148,7 +8148,7 @@
         <v>49764699</v>
       </c>
       <c r="EX9" t="n">
-        <v>1644061097</v>
+        <v>1644519500</v>
       </c>
       <c r="EY9" t="n">
         <v>1052001000</v>
@@ -8208,112 +8208,112 @@
         <v>204858000</v>
       </c>
       <c r="FR9" t="n">
+        <v>371198000</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>12447000</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>275420000</v>
+      </c>
+      <c r="FU9" t="n">
+        <v>610507000</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>124347000</v>
+      </c>
+      <c r="FW9" t="n">
+        <v>497475000</v>
+      </c>
+      <c r="FX9" t="n">
+        <v>2370093000</v>
+      </c>
+      <c r="FY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ9" t="n">
+        <v>1287890000</v>
+      </c>
+      <c r="GA9" t="n">
+        <v>1790000</v>
+      </c>
+      <c r="GB9" t="n">
+        <v>2075727000</v>
+      </c>
+      <c r="GC9" t="n">
+        <v>1800307000</v>
+      </c>
+      <c r="GD9" t="n">
+        <v>-18968000</v>
+      </c>
+      <c r="GE9" t="n">
         <v>348327000</v>
       </c>
-      <c r="FS9" t="n">
+      <c r="GF9" t="n">
         <v>159479000</v>
       </c>
-      <c r="FT9" t="n">
+      <c r="GG9" t="n">
         <v>360095000</v>
       </c>
-      <c r="FU9" t="n">
+      <c r="GH9" t="n">
         <v>709257000</v>
       </c>
-      <c r="FV9" t="n">
+      <c r="GI9" t="n">
         <v>266654000</v>
       </c>
-      <c r="FW9" t="n">
+      <c r="GJ9" t="n">
         <v>635695000</v>
       </c>
-      <c r="FX9" t="n">
+      <c r="GK9" t="n">
         <v>2503009000</v>
       </c>
-      <c r="FY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ9" t="n">
+      <c r="GL9" t="n">
         <v>1265181000</v>
       </c>
-      <c r="GA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB9" t="n">
+      <c r="GM9" t="n">
         <v>1828317000</v>
       </c>
-      <c r="GC9" t="n">
+      <c r="GN9" t="n">
         <v>1468222000</v>
       </c>
-      <c r="GD9" t="n">
+      <c r="GO9" t="n">
         <v>40864000</v>
       </c>
-      <c r="GE9" t="n">
+      <c r="GP9" t="n">
         <v>280374000</v>
       </c>
-      <c r="GF9" t="n">
+      <c r="GQ9" t="n">
         <v>107868000</v>
       </c>
-      <c r="GG9" t="n">
-        <v>494613000</v>
-      </c>
-      <c r="GH9" t="n">
+      <c r="GR9" t="n">
         <v>1514953000</v>
       </c>
-      <c r="GI9" t="n">
+      <c r="GS9" t="n">
         <v>100697000</v>
       </c>
-      <c r="GJ9" t="n">
+      <c r="GT9" t="n">
         <v>408807000</v>
       </c>
-      <c r="GK9" t="n">
+      <c r="GU9" t="n">
         <v>1752766000</v>
       </c>
-      <c r="GL9" t="n">
+      <c r="GV9" t="n">
         <v>1301070000</v>
       </c>
-      <c r="GM9" t="n">
-        <v>1293895000</v>
-      </c>
-      <c r="GN9" t="n">
+      <c r="GW9" t="n">
         <v>799282000</v>
       </c>
-      <c r="GO9" t="n">
+      <c r="GX9" t="n">
         <v>48036000</v>
       </c>
-      <c r="GP9" t="n">
-        <v>280654000</v>
-      </c>
-      <c r="GQ9" t="n">
-        <v>108500000</v>
-      </c>
-      <c r="GR9" t="n">
-        <v>1497278000</v>
-      </c>
-      <c r="GS9" t="n">
-        <v>116670000</v>
-      </c>
-      <c r="GT9" t="n">
-        <v>382205000</v>
-      </c>
-      <c r="GU9" t="n">
-        <v>1724776000</v>
-      </c>
-      <c r="GV9" t="n">
-        <v>1306224000</v>
-      </c>
-      <c r="GW9" t="n">
-        <v>792115000</v>
-      </c>
-      <c r="GX9" t="n">
-        <v>80770000</v>
-      </c>
       <c r="GY9" t="n">
-        <v>1192466000</v>
+        <v>1280553000</v>
       </c>
       <c r="GZ9" t="n">
-        <v>153136000</v>
+        <v>150702000</v>
       </c>
       <c r="HA9" t="n">
-        <v>-41545000</v>
+        <v>-46585000</v>
       </c>
       <c r="HB9" t="n">
         <v>31</v>
@@ -8455,55 +8455,55 @@
         <v>1043800000</v>
       </c>
       <c r="II9" t="n">
+        <v>-142307000</v>
+      </c>
+      <c r="IJ9" t="n">
         <v>165957000</v>
       </c>
-      <c r="IJ9" t="n">
-        <v>-15973000</v>
-      </c>
       <c r="IK9" t="n">
+        <v>228891000</v>
+      </c>
+      <c r="IL9" t="n">
         <v>514284000</v>
       </c>
-      <c r="IL9" t="n">
-        <v>264401000</v>
-      </c>
       <c r="IM9" t="n">
-        <v>80086000</v>
+        <v>168173000</v>
       </c>
       <c r="IN9" t="n">
         <v>0</v>
       </c>
       <c r="IO9" t="n">
-        <v>26956530</v>
+        <v>56606155</v>
       </c>
       <c r="IP9" t="n">
-        <v>-68501530</v>
+        <v>-103191155</v>
       </c>
       <c r="IQ9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="IR9" t="n">
-        <v>84634470</v>
+        <v>47510845</v>
       </c>
       <c r="IS9" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT9" t="n">
+        <v>113032000</v>
+      </c>
+      <c r="IU9" t="n">
         <v>2</v>
       </c>
-      <c r="IT9" t="n">
-        <v>73562000</v>
-      </c>
-      <c r="IU9" t="n">
-        <v>1</v>
-      </c>
       <c r="IV9" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="IW9" t="n">
-        <v>-1793752000</v>
+        <v>-1759586000</v>
       </c>
       <c r="IX9" t="n">
-        <v>2872581808</v>
+        <v>2966590952</v>
       </c>
       <c r="IY9" t="n">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -8531,10 +8531,10 @@
         <v>0.01</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>-94</v>
@@ -8549,7 +8549,7 @@
         <v>-201</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.54</v>
+        <v>-0.6</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -8579,7 +8579,7 @@
         <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.54</v>
+        <v>-0.6</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -8594,7 +8594,7 @@
         <v>225211</v>
       </c>
       <c r="AA10" t="n">
-        <v>1766790</v>
+        <v>1599249</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -8954,10 +8954,10 @@
         </is>
       </c>
       <c r="EK10" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="EL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
         <v>0</v>
@@ -8972,10 +8972,10 @@
         <v>0</v>
       </c>
       <c r="EQ10" t="n">
-        <v>2797605</v>
+        <v>1371245</v>
       </c>
       <c r="ER10" t="n">
-        <v>5943875</v>
+        <v>5821635</v>
       </c>
       <c r="ES10" t="inlineStr">
         <is>
@@ -8992,10 +8992,10 @@
         <v>0</v>
       </c>
       <c r="EW10" t="n">
-        <v>304618966</v>
+        <v>304618857</v>
       </c>
       <c r="EX10" t="n">
-        <v>1644061028</v>
+        <v>1644519405</v>
       </c>
       <c r="EY10" t="n">
         <v>170000</v>
@@ -9347,7 +9347,7 @@
         <v>-2770</v>
       </c>
       <c r="IX10" t="n">
-        <v>1768339</v>
+        <v>1600798</v>
       </c>
       <c r="IY10" t="n">
         <v>-2</v>
@@ -9842,7 +9842,7 @@
         <v>38720601</v>
       </c>
       <c r="EX11" t="n">
-        <v>1644061005</v>
+        <v>1644519373</v>
       </c>
       <c r="EY11" t="n">
         <v>1376900000</v>
@@ -10222,16 +10222,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4.01</v>
+        <v>4.15</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G12" t="n">
         <v>3.59</v>
       </c>
       <c r="H12" t="n">
-        <v>-77</v>
+        <v>-76</v>
       </c>
       <c r="I12" t="n">
         <v>17.5</v>
@@ -10267,13 +10267,13 @@
         <v>-121.2</v>
       </c>
       <c r="T12" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="U12" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="W12" t="n">
         <v>-0.06</v>
@@ -10288,7 +10288,7 @@
         <v>1673481</v>
       </c>
       <c r="AA12" t="n">
-        <v>202025824</v>
+        <v>209079072</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -10310,12 +10310,12 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2021-06-28</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2021-06-25 18:09:05</t>
         </is>
       </c>
       <c r="AH12" t="n">
@@ -10412,12 +10412,12 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>https://www.sec.gov/Archives/edgar/data/1673481/000121390021034278/0001213900-21-034278-index.htm</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>https://www.sec.gov/Archives/edgar/data/1673481/000121390021034278/f10k2020a1_tridentacq.htm</t>
         </is>
       </c>
       <c r="BN12" t="n">
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="DL12" t="n">
-        <v>475081</v>
+        <v>3121197</v>
       </c>
       <c r="DM12" t="n">
         <v>-1848754</v>
@@ -10648,10 +10648,10 @@
         </is>
       </c>
       <c r="EK12" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="EL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM12" t="n">
         <v>4</v>
@@ -10660,16 +10660,16 @@
         <v>4</v>
       </c>
       <c r="EO12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="EP12" t="n">
         <v>10</v>
       </c>
       <c r="EQ12" t="n">
-        <v>182760</v>
+        <v>82686</v>
       </c>
       <c r="ER12" t="n">
-        <v>815419</v>
+        <v>719879</v>
       </c>
       <c r="ES12" t="inlineStr">
         <is>
@@ -10683,13 +10683,13 @@
         <v>4</v>
       </c>
       <c r="EV12" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="EW12" t="n">
-        <v>50380505</v>
+        <v>50380499</v>
       </c>
       <c r="EX12" t="n">
-        <v>1644061014</v>
+        <v>1644519388</v>
       </c>
       <c r="EY12" t="n">
         <v>1887386</v>
@@ -11041,10 +11041,10 @@
         <v>-12866142</v>
       </c>
       <c r="IX12" t="n">
-        <v>248049126</v>
+        <v>255102374</v>
       </c>
       <c r="IY12" t="n">
-        <v>-18</v>
+        <v>-19</v>
       </c>
     </row>
   </sheetData>

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -2178,10 +2178,10 @@
         </is>
       </c>
       <c r="EK2" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM2" t="n">
         <v>3</v>
@@ -2196,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="EQ2" t="n">
-        <v>666</v>
+        <v>78</v>
       </c>
       <c r="ER2" t="n">
-        <v>3038</v>
+        <v>3096</v>
       </c>
       <c r="ES2" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>2725010</v>
       </c>
       <c r="EX2" t="n">
-        <v>1644519369</v>
+        <v>1644659293</v>
       </c>
       <c r="EY2" t="n">
         <v>11768000</v>
@@ -2599,16 +2599,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="F3" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G3" t="n">
         <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>-77</v>
+        <v>-78</v>
       </c>
       <c r="I3" t="n">
         <v>9.75</v>
@@ -2620,7 +2620,7 @@
         <v>-206</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.28</v>
+        <v>-0.29</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>-87.22</v>
       </c>
       <c r="T3" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="U3" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.64</v>
+        <v>-0.7</v>
       </c>
       <c r="W3" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="X3" t="n">
         <v>-1</v>
@@ -2665,7 +2665,7 @@
         <v>788611</v>
       </c>
       <c r="AA3" t="n">
-        <v>23314686</v>
+        <v>22362446</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -3043,10 +3043,10 @@
         <v>3</v>
       </c>
       <c r="EQ3" t="n">
-        <v>53627</v>
+        <v>36680</v>
       </c>
       <c r="ER3" t="n">
-        <v>105104</v>
+        <v>102513</v>
       </c>
       <c r="ES3" t="inlineStr">
         <is>
@@ -3063,10 +3063,10 @@
         <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>10498800</v>
+        <v>10498801</v>
       </c>
       <c r="EX3" t="n">
-        <v>1644519376</v>
+        <v>1644659310</v>
       </c>
       <c r="EY3" t="n">
         <v>402446</v>
@@ -3412,16 +3412,16 @@
         <v>1</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="IW3" t="n">
         <v>13845851</v>
       </c>
       <c r="IX3" t="n">
-        <v>10250293</v>
+        <v>9298053</v>
       </c>
       <c r="IY3" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -3446,16 +3446,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6.82</v>
+        <v>6.87</v>
       </c>
       <c r="F4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" t="n">
         <v>5.34</v>
       </c>
       <c r="H4" t="n">
-        <v>-66</v>
+        <v>-65</v>
       </c>
       <c r="I4" t="n">
         <v>19.88</v>
@@ -3512,7 +3512,7 @@
         <v>1779128</v>
       </c>
       <c r="AA4" t="n">
-        <v>482342496</v>
+        <v>486149344</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="EK4" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="EL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM4" t="n">
         <v>7</v>
@@ -3890,10 +3890,10 @@
         <v>9</v>
       </c>
       <c r="EQ4" t="n">
-        <v>636115</v>
+        <v>1373805</v>
       </c>
       <c r="ER4" t="n">
-        <v>1123945</v>
+        <v>1119996</v>
       </c>
       <c r="ES4" t="inlineStr">
         <is>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>70672893</v>
+        <v>70764097</v>
       </c>
       <c r="EX4" t="n">
-        <v>1644519460</v>
+        <v>1644659283</v>
       </c>
       <c r="EY4" t="n">
         <v>0</v>
@@ -4265,10 +4265,10 @@
         <v>262282000</v>
       </c>
       <c r="IX4" t="n">
-        <v>476474496</v>
+        <v>480281344</v>
       </c>
       <c r="IY4" t="n">
-        <v>-1208</v>
+        <v>-1218</v>
       </c>
     </row>
     <row r="5">
@@ -4293,10 +4293,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.15</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
         <v>24.04</v>
@@ -4338,13 +4338,13 @@
         <v>-96.51000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="U5" t="n">
         <v>0.87</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.41</v>
+        <v>-0.42</v>
       </c>
       <c r="W5" t="n">
         <v>-0.47</v>
@@ -4359,7 +4359,7 @@
         <v>1679063</v>
       </c>
       <c r="AA5" t="n">
-        <v>88283040</v>
+        <v>87756496</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>25</v>
       </c>
       <c r="EN5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="EO5" t="n">
         <v>27</v>
@@ -4737,10 +4737,10 @@
         <v>28</v>
       </c>
       <c r="EQ5" t="n">
-        <v>4804</v>
+        <v>12210</v>
       </c>
       <c r="ER5" t="n">
-        <v>4645</v>
+        <v>4718</v>
       </c>
       <c r="ES5" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>3510260</v>
       </c>
       <c r="EX5" t="n">
-        <v>1644519332</v>
+        <v>1644659287</v>
       </c>
       <c r="EY5" t="n">
         <v>55363906</v>
@@ -5112,7 +5112,7 @@
         <v>-41463906</v>
       </c>
       <c r="IX5" t="n">
-        <v>76665905</v>
+        <v>76139361</v>
       </c>
       <c r="IY5" t="n">
         <v>-2</v>
@@ -5140,19 +5140,19 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
         <v>0.8</v>
       </c>
       <c r="H6" t="n">
-        <v>-88</v>
+        <v>-87</v>
       </c>
       <c r="I6" t="n">
-        <v>8.18</v>
+        <v>7.37</v>
       </c>
       <c r="J6" t="n">
         <v>-64</v>
@@ -5161,7 +5161,7 @@
         <v>-25</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.04</v>
+        <v>-1.08</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -5185,16 +5185,16 @@
         <v>-208.57</v>
       </c>
       <c r="T6" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="U6" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="V6" t="n">
-        <v>-1.58</v>
+        <v>-1.68</v>
       </c>
       <c r="W6" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="X6" t="n">
         <v>-5</v>
@@ -5206,7 +5206,7 @@
         <v>1092662</v>
       </c>
       <c r="AA6" t="n">
-        <v>29357068</v>
+        <v>28242394</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -5584,10 +5584,10 @@
         <v>2</v>
       </c>
       <c r="EQ6" t="n">
-        <v>188222</v>
+        <v>232045</v>
       </c>
       <c r="ER6" t="n">
-        <v>1245366</v>
+        <v>1247093</v>
       </c>
       <c r="ES6" t="inlineStr">
         <is>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>30045101</v>
+        <v>30045100</v>
       </c>
       <c r="EX6" t="n">
-        <v>1644519347</v>
+        <v>1644659284</v>
       </c>
       <c r="EY6" t="n">
         <v>34464032</v>
@@ -5953,13 +5953,13 @@
         <v>2</v>
       </c>
       <c r="IV6" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="IW6" t="n">
         <v>24659539</v>
       </c>
       <c r="IX6" t="n">
-        <v>19274991</v>
+        <v>18160317</v>
       </c>
       <c r="IY6" t="n">
         <v>-1</v>
@@ -5987,19 +5987,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="F7" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G7" t="n">
         <v>0.74</v>
       </c>
       <c r="H7" t="n">
-        <v>-84</v>
+        <v>-76</v>
       </c>
       <c r="I7" t="n">
-        <v>6.4</v>
+        <v>4.15</v>
       </c>
       <c r="J7" t="n">
         <v>-44</v>
@@ -6008,7 +6008,7 @@
         <v>-94</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.97</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -6032,16 +6032,16 @@
         <v>-175.71</v>
       </c>
       <c r="T7" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.38</v>
+        <v>-0.42</v>
       </c>
       <c r="V7" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="W7" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="X7" t="n">
         <v>-1</v>
@@ -6053,7 +6053,7 @@
         <v>1469443</v>
       </c>
       <c r="AA7" t="n">
-        <v>23071568</v>
+        <v>22406042</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         </is>
       </c>
       <c r="EK7" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="EL7" t="n">
         <v>-0</v>
@@ -6431,10 +6431,10 @@
         <v>2</v>
       </c>
       <c r="EQ7" t="n">
-        <v>444582</v>
+        <v>749157</v>
       </c>
       <c r="ER7" t="n">
-        <v>1018174</v>
+        <v>1035600</v>
       </c>
       <c r="ES7" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>22184200</v>
       </c>
       <c r="EX7" t="n">
-        <v>1644519453</v>
+        <v>1644659308</v>
       </c>
       <c r="EY7" t="n">
         <v>1169000</v>
@@ -6800,13 +6800,13 @@
         <v>2</v>
       </c>
       <c r="IV7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="IW7" t="n">
         <v>24829000</v>
       </c>
       <c r="IX7" t="n">
-        <v>-8680432</v>
+        <v>-9345958</v>
       </c>
       <c r="IY7" t="n">
         <v>0</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
         <v>1.04</v>
       </c>
       <c r="H8" t="n">
-        <v>-77</v>
+        <v>-76</v>
       </c>
       <c r="I8" t="n">
-        <v>5.36</v>
+        <v>4.91</v>
       </c>
       <c r="J8" t="n">
         <v>-63</v>
@@ -6879,16 +6879,16 @@
         <v>-79.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="X8" t="n">
         <v>-1</v>
@@ -6900,7 +6900,7 @@
         <v>846913</v>
       </c>
       <c r="AA8" t="n">
-        <v>37829752</v>
+        <v>35711284</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -7260,10 +7260,10 @@
         </is>
       </c>
       <c r="EK8" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="EL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
         <v>1</v>
@@ -7278,10 +7278,10 @@
         <v>2</v>
       </c>
       <c r="EQ8" t="n">
-        <v>84838</v>
+        <v>96058</v>
       </c>
       <c r="ER8" t="n">
-        <v>434441</v>
+        <v>349922</v>
       </c>
       <c r="ES8" t="inlineStr">
         <is>
@@ -7298,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>30263802</v>
+        <v>30263800</v>
       </c>
       <c r="EX8" t="n">
-        <v>1644519368</v>
+        <v>1644659292</v>
       </c>
       <c r="EY8" t="n">
         <v>30467000</v>
@@ -7647,16 +7647,16 @@
         <v>1</v>
       </c>
       <c r="IV8" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="IW8" t="n">
         <v>37711000</v>
       </c>
       <c r="IX8" t="n">
-        <v>2943752</v>
+        <v>825284</v>
       </c>
       <c r="IY8" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -7681,16 +7681,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.4</v>
+        <v>23.76</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>23.3</v>
+        <v>22.55</v>
       </c>
       <c r="H9" t="n">
-        <v>-44</v>
+        <v>-43</v>
       </c>
       <c r="I9" t="n">
         <v>41.81</v>
@@ -7726,16 +7726,16 @@
         <v>-21.53</v>
       </c>
       <c r="T9" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="U9" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="V9" t="n">
         <v>0.02</v>
       </c>
       <c r="W9" t="n">
-        <v>-1.51</v>
+        <v>-1.49</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -7747,7 +7747,7 @@
         <v>730464</v>
       </c>
       <c r="AA9" t="n">
-        <v>1164493952</v>
+        <v>1183419136</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
@@ -8107,13 +8107,13 @@
         </is>
       </c>
       <c r="EK9" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="EL9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="EM9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="EN9" t="n">
         <v>25</v>
@@ -8125,10 +8125,10 @@
         <v>35</v>
       </c>
       <c r="EQ9" t="n">
-        <v>656278</v>
+        <v>818122</v>
       </c>
       <c r="ER9" t="n">
-        <v>371962</v>
+        <v>389136</v>
       </c>
       <c r="ES9" t="inlineStr">
         <is>
@@ -8139,16 +8139,16 @@
         <v>24</v>
       </c>
       <c r="EU9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="EV9" t="n">
         <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>49764699</v>
+        <v>49807203</v>
       </c>
       <c r="EX9" t="n">
-        <v>1644519500</v>
+        <v>1644659281</v>
       </c>
       <c r="EY9" t="n">
         <v>1052001000</v>
@@ -8500,10 +8500,10 @@
         <v>-1759586000</v>
       </c>
       <c r="IX9" t="n">
-        <v>2966590952</v>
+        <v>2985516136</v>
       </c>
       <c r="IY9" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -8528,16 +8528,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-94</v>
+        <v>-95</v>
       </c>
       <c r="I10" t="n">
         <v>0.09</v>
@@ -8549,7 +8549,7 @@
         <v>-201</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.6</v>
+        <v>-0.67</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -8579,7 +8579,7 @@
         <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.6</v>
+        <v>-0.67</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -8594,7 +8594,7 @@
         <v>225211</v>
       </c>
       <c r="AA10" t="n">
-        <v>1599249</v>
+        <v>1431709</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         </is>
       </c>
       <c r="EK10" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="EL10" t="n">
         <v>-0</v>
@@ -8972,10 +8972,10 @@
         <v>0</v>
       </c>
       <c r="EQ10" t="n">
-        <v>1371245</v>
+        <v>2658334</v>
       </c>
       <c r="ER10" t="n">
-        <v>5821635</v>
+        <v>5917239</v>
       </c>
       <c r="ES10" t="inlineStr">
         <is>
@@ -8992,10 +8992,10 @@
         <v>0</v>
       </c>
       <c r="EW10" t="n">
-        <v>304618857</v>
+        <v>304618936</v>
       </c>
       <c r="EX10" t="n">
-        <v>1644519405</v>
+        <v>1644659313</v>
       </c>
       <c r="EY10" t="n">
         <v>170000</v>
@@ -9347,10 +9347,10 @@
         <v>-2770</v>
       </c>
       <c r="IX10" t="n">
-        <v>1600798</v>
+        <v>1433258</v>
       </c>
       <c r="IY10" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
@@ -9842,7 +9842,7 @@
         <v>38720601</v>
       </c>
       <c r="EX11" t="n">
-        <v>1644519373</v>
+        <v>1644659294</v>
       </c>
       <c r="EY11" t="n">
         <v>1376900000</v>
@@ -10222,16 +10222,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4.15</v>
+        <v>3.76</v>
       </c>
       <c r="F12" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
         <v>3.59</v>
       </c>
       <c r="H12" t="n">
-        <v>-76</v>
+        <v>-79</v>
       </c>
       <c r="I12" t="n">
         <v>17.5</v>
@@ -10267,16 +10267,16 @@
         <v>-121.2</v>
       </c>
       <c r="T12" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="U12" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -10288,7 +10288,7 @@
         <v>1673481</v>
       </c>
       <c r="AA12" t="n">
-        <v>209079072</v>
+        <v>189430672</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="EK12" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="EL12" t="n">
         <v>-0</v>
@@ -10666,10 +10666,10 @@
         <v>10</v>
       </c>
       <c r="EQ12" t="n">
-        <v>82686</v>
+        <v>295558</v>
       </c>
       <c r="ER12" t="n">
-        <v>719879</v>
+        <v>716352</v>
       </c>
       <c r="ES12" t="inlineStr">
         <is>
@@ -10683,13 +10683,13 @@
         <v>4</v>
       </c>
       <c r="EV12" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="EW12" t="n">
-        <v>50380499</v>
+        <v>50380498</v>
       </c>
       <c r="EX12" t="n">
-        <v>1644519388</v>
+        <v>1644659300</v>
       </c>
       <c r="EY12" t="n">
         <v>1887386</v>
@@ -11035,16 +11035,16 @@
         <v>0</v>
       </c>
       <c r="IV12" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="IW12" t="n">
         <v>-12866142</v>
       </c>
       <c r="IX12" t="n">
-        <v>255102374</v>
+        <v>235453974</v>
       </c>
       <c r="IY12" t="n">
-        <v>-19</v>
+        <v>-17</v>
       </c>
     </row>
   </sheetData>

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -2219,7 +2219,7 @@
         <v>2725010</v>
       </c>
       <c r="EX2" t="n">
-        <v>1644659293</v>
+        <v>1644662424</v>
       </c>
       <c r="EY2" t="n">
         <v>11768000</v>
@@ -3066,7 +3066,7 @@
         <v>10498801</v>
       </c>
       <c r="EX3" t="n">
-        <v>1644659310</v>
+        <v>1644662427</v>
       </c>
       <c r="EY3" t="n">
         <v>402446</v>
@@ -3446,19 +3446,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6.87</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5.34</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-65</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>19.88</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>-79</v>
@@ -3491,16 +3491,16 @@
         <v>-1965.47</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>-52</v>
@@ -3512,7 +3512,7 @@
         <v>1779128</v>
       </c>
       <c r="AA4" t="n">
-        <v>486149344</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
@@ -3868,52 +3868,52 @@
       </c>
       <c r="EJ4" t="inlineStr">
         <is>
-          <t>Blade Air Mobility, Inc.</t>
+          <t>0</t>
         </is>
       </c>
       <c r="EK4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="EL4" t="n">
         <v>0</v>
       </c>
       <c r="EM4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="EN4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1373805</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>1119996</v>
+        <v>0</v>
       </c>
       <c r="ES4" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="ET4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="EU4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="EV4" t="n">
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>70764097</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>1644659283</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
         <v>0</v>
@@ -4244,31 +4244,31 @@
         <v>-297</v>
       </c>
       <c r="IQ4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="IR4" t="n">
         <v>-394319</v>
       </c>
       <c r="IS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="IT4" t="n">
         <v>304916000</v>
       </c>
       <c r="IU4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="IV4" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="IW4" t="n">
         <v>262282000</v>
       </c>
       <c r="IX4" t="n">
-        <v>480281344</v>
+        <v>0</v>
       </c>
       <c r="IY4" t="n">
-        <v>-1218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4760,7 +4760,7 @@
         <v>3510260</v>
       </c>
       <c r="EX5" t="n">
-        <v>1644659287</v>
+        <v>1644662408</v>
       </c>
       <c r="EY5" t="n">
         <v>55363906</v>
@@ -5607,7 +5607,7 @@
         <v>30045100</v>
       </c>
       <c r="EX6" t="n">
-        <v>1644659284</v>
+        <v>1644662415</v>
       </c>
       <c r="EY6" t="n">
         <v>34464032</v>
@@ -5987,19 +5987,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-76</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>4.15</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>-44</v>
@@ -6008,10 +6008,10 @@
         <v>-94</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.97</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>-30.89</v>
@@ -6032,16 +6032,16 @@
         <v>-175.71</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.42</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>-1</v>
@@ -6053,7 +6053,7 @@
         <v>1469443</v>
       </c>
       <c r="AA7" t="n">
-        <v>22406042</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -6409,52 +6409,52 @@
       </c>
       <c r="EJ7" t="inlineStr">
         <is>
-          <t>Arcadia Biosciences, Inc.</t>
+          <t>0</t>
         </is>
       </c>
       <c r="EK7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EQ7" t="n">
-        <v>749157</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>1035600</v>
+        <v>0</v>
       </c>
       <c r="ES7" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="ET7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>22184200</v>
+        <v>0</v>
       </c>
       <c r="EX7" t="n">
-        <v>1644659308</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
         <v>1169000</v>
@@ -6785,28 +6785,28 @@
         <v>-3979014</v>
       </c>
       <c r="IQ7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="IR7" t="n">
         <v>-21670014</v>
       </c>
       <c r="IS7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="IT7" t="n">
         <v>37345000</v>
       </c>
       <c r="IU7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="IV7" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="IW7" t="n">
         <v>24829000</v>
       </c>
       <c r="IX7" t="n">
-        <v>-9345958</v>
+        <v>0</v>
       </c>
       <c r="IY7" t="n">
         <v>0</v>
@@ -7301,7 +7301,7 @@
         <v>30263800</v>
       </c>
       <c r="EX8" t="n">
-        <v>1644659292</v>
+        <v>1644662424</v>
       </c>
       <c r="EY8" t="n">
         <v>30467000</v>
@@ -8148,7 +8148,7 @@
         <v>49807203</v>
       </c>
       <c r="EX9" t="n">
-        <v>1644659281</v>
+        <v>1644662478</v>
       </c>
       <c r="EY9" t="n">
         <v>1052001000</v>
@@ -9842,7 +9842,7 @@
         <v>38720601</v>
       </c>
       <c r="EX11" t="n">
-        <v>1644659294</v>
+        <v>1644662425</v>
       </c>
       <c r="EY11" t="n">
         <v>1376900000</v>
@@ -10689,7 +10689,7 @@
         <v>50380498</v>
       </c>
       <c r="EX12" t="n">
-        <v>1644659300</v>
+        <v>1644662431</v>
       </c>
       <c r="EY12" t="n">
         <v>1887386</v>

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -2199,7 +2199,7 @@
         <v>78</v>
       </c>
       <c r="ER2" t="n">
-        <v>3096</v>
+        <v>3046</v>
       </c>
       <c r="ES2" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>2725010</v>
       </c>
       <c r="EX2" t="n">
-        <v>1644662424</v>
+        <v>1644836604</v>
       </c>
       <c r="EY2" t="n">
         <v>11768000</v>
@@ -3046,7 +3046,7 @@
         <v>36680</v>
       </c>
       <c r="ER3" t="n">
-        <v>102513</v>
+        <v>101435</v>
       </c>
       <c r="ES3" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>10498801</v>
       </c>
       <c r="EX3" t="n">
-        <v>1644662427</v>
+        <v>1644836608</v>
       </c>
       <c r="EY3" t="n">
         <v>402446</v>
@@ -4740,7 +4740,7 @@
         <v>12210</v>
       </c>
       <c r="ER5" t="n">
-        <v>4718</v>
+        <v>4838</v>
       </c>
       <c r="ES5" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>3510260</v>
       </c>
       <c r="EX5" t="n">
-        <v>1644662408</v>
+        <v>1644836588</v>
       </c>
       <c r="EY5" t="n">
         <v>55363906</v>
@@ -5587,7 +5587,7 @@
         <v>232045</v>
       </c>
       <c r="ER6" t="n">
-        <v>1247093</v>
+        <v>1230698</v>
       </c>
       <c r="ES6" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>30045100</v>
       </c>
       <c r="EX6" t="n">
-        <v>1644662415</v>
+        <v>1644836595</v>
       </c>
       <c r="EY6" t="n">
         <v>34464032</v>
@@ -7278,10 +7278,10 @@
         <v>2</v>
       </c>
       <c r="EQ8" t="n">
-        <v>96058</v>
+        <v>96338</v>
       </c>
       <c r="ER8" t="n">
-        <v>349922</v>
+        <v>345829</v>
       </c>
       <c r="ES8" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>30263800</v>
       </c>
       <c r="EX8" t="n">
-        <v>1644662424</v>
+        <v>1644836604</v>
       </c>
       <c r="EY8" t="n">
         <v>30467000</v>
@@ -8125,10 +8125,10 @@
         <v>35</v>
       </c>
       <c r="EQ9" t="n">
-        <v>818122</v>
+        <v>827182</v>
       </c>
       <c r="ER9" t="n">
-        <v>389136</v>
+        <v>396201</v>
       </c>
       <c r="ES9" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>49807203</v>
       </c>
       <c r="EX9" t="n">
-        <v>1644662478</v>
+        <v>1644836667</v>
       </c>
       <c r="EY9" t="n">
         <v>1052001000</v>
@@ -9842,7 +9842,7 @@
         <v>38720601</v>
       </c>
       <c r="EX11" t="n">
-        <v>1644662425</v>
+        <v>1644836606</v>
       </c>
       <c r="EY11" t="n">
         <v>1376900000</v>
@@ -10669,7 +10669,7 @@
         <v>295558</v>
       </c>
       <c r="ER12" t="n">
-        <v>716352</v>
+        <v>709537</v>
       </c>
       <c r="ES12" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>50380498</v>
       </c>
       <c r="EX12" t="n">
-        <v>1644662431</v>
+        <v>1644836616</v>
       </c>
       <c r="EY12" t="n">
         <v>1887386</v>

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -2219,7 +2219,7 @@
         <v>2725010</v>
       </c>
       <c r="EX2" t="n">
-        <v>1644836604</v>
+        <v>1644861111</v>
       </c>
       <c r="EY2" t="n">
         <v>11768000</v>
@@ -2599,16 +2599,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="F3" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G3" t="n">
         <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>-78</v>
+        <v>-79</v>
       </c>
       <c r="I3" t="n">
         <v>9.75</v>
@@ -2620,7 +2620,7 @@
         <v>-206</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.29</v>
+        <v>-0.3</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>-87.22</v>
       </c>
       <c r="T3" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="U3" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.7</v>
+        <v>-0.74</v>
       </c>
       <c r="W3" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="X3" t="n">
         <v>-1</v>
@@ -2665,7 +2665,7 @@
         <v>788611</v>
       </c>
       <c r="AA3" t="n">
-        <v>22362446</v>
+        <v>21942492</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="EK3" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="EL3" t="n">
         <v>-0</v>
@@ -3043,7 +3043,7 @@
         <v>3</v>
       </c>
       <c r="EQ3" t="n">
-        <v>36680</v>
+        <v>15297</v>
       </c>
       <c r="ER3" t="n">
         <v>101435</v>
@@ -3063,10 +3063,10 @@
         <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>10498801</v>
+        <v>10498800</v>
       </c>
       <c r="EX3" t="n">
-        <v>1644836608</v>
+        <v>1644861114</v>
       </c>
       <c r="EY3" t="n">
         <v>402446</v>
@@ -3412,13 +3412,13 @@
         <v>1</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="IW3" t="n">
         <v>13845851</v>
       </c>
       <c r="IX3" t="n">
-        <v>9298053</v>
+        <v>8878099</v>
       </c>
       <c r="IY3" t="n">
         <v>-1</v>
@@ -4293,16 +4293,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>23.57</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>24.04</v>
+        <v>23.32</v>
       </c>
       <c r="H5" t="n">
-        <v>-14</v>
+        <v>-19</v>
       </c>
       <c r="I5" t="n">
         <v>29.2</v>
@@ -4314,7 +4314,7 @@
         <v>-21</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.36</v>
+        <v>-0.38</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -4338,16 +4338,16 @@
         <v>-96.51000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="U5" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.42</v>
+        <v>-0.44</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.47</v>
+        <v>-0.5</v>
       </c>
       <c r="X5" t="n">
         <v>-5</v>
@@ -4359,7 +4359,7 @@
         <v>1679063</v>
       </c>
       <c r="AA5" t="n">
-        <v>87756496</v>
+        <v>82736824</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -4719,16 +4719,16 @@
         </is>
       </c>
       <c r="EK5" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="EL5" t="n">
-        <v>-0</v>
+        <v>-2</v>
       </c>
       <c r="EM5" t="n">
+        <v>23</v>
+      </c>
+      <c r="EN5" t="n">
         <v>25</v>
-      </c>
-      <c r="EN5" t="n">
-        <v>26</v>
       </c>
       <c r="EO5" t="n">
         <v>27</v>
@@ -4737,7 +4737,7 @@
         <v>28</v>
       </c>
       <c r="EQ5" t="n">
-        <v>12210</v>
+        <v>14121</v>
       </c>
       <c r="ER5" t="n">
         <v>4838</v>
@@ -4760,7 +4760,7 @@
         <v>3510260</v>
       </c>
       <c r="EX5" t="n">
-        <v>1644836588</v>
+        <v>1644861094</v>
       </c>
       <c r="EY5" t="n">
         <v>55363906</v>
@@ -5106,13 +5106,13 @@
         <v>16</v>
       </c>
       <c r="IV5" t="n">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="IW5" t="n">
         <v>-41463906</v>
       </c>
       <c r="IX5" t="n">
-        <v>76139361</v>
+        <v>71119689</v>
       </c>
       <c r="IY5" t="n">
         <v>-2</v>
@@ -5140,10 +5140,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
         <v>0.8</v>
@@ -5161,7 +5161,7 @@
         <v>-25</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.08</v>
+        <v>-1.1</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -5185,16 +5185,16 @@
         <v>-208.57</v>
       </c>
       <c r="T6" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="U6" t="n">
         <v>0.64</v>
       </c>
       <c r="V6" t="n">
-        <v>-1.68</v>
+        <v>-1.73</v>
       </c>
       <c r="W6" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="X6" t="n">
         <v>-5</v>
@@ -5206,7 +5206,7 @@
         <v>1092662</v>
       </c>
       <c r="AA6" t="n">
-        <v>28242394</v>
+        <v>27761674</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>2</v>
       </c>
       <c r="EQ6" t="n">
-        <v>232045</v>
+        <v>120500</v>
       </c>
       <c r="ER6" t="n">
         <v>1230698</v>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>30045100</v>
+        <v>30045102</v>
       </c>
       <c r="EX6" t="n">
-        <v>1644836595</v>
+        <v>1644861101</v>
       </c>
       <c r="EY6" t="n">
         <v>34464032</v>
@@ -5953,13 +5953,13 @@
         <v>2</v>
       </c>
       <c r="IV6" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="IW6" t="n">
         <v>24659539</v>
       </c>
       <c r="IX6" t="n">
-        <v>18160317</v>
+        <v>17679597</v>
       </c>
       <c r="IY6" t="n">
         <v>-1</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>1.04</v>
       </c>
       <c r="H8" t="n">
-        <v>-76</v>
+        <v>-75</v>
       </c>
       <c r="I8" t="n">
         <v>4.91</v>
@@ -6879,16 +6879,16 @@
         <v>-79.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="V8" t="n">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c r="W8" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="X8" t="n">
         <v>-1</v>
@@ -6900,7 +6900,7 @@
         <v>846913</v>
       </c>
       <c r="AA8" t="n">
-        <v>35711284</v>
+        <v>36619200</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -7260,10 +7260,10 @@
         </is>
       </c>
       <c r="EK8" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="EL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM8" t="n">
         <v>1</v>
@@ -7278,7 +7278,7 @@
         <v>2</v>
       </c>
       <c r="EQ8" t="n">
-        <v>96338</v>
+        <v>53695</v>
       </c>
       <c r="ER8" t="n">
         <v>345829</v>
@@ -7298,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>30263800</v>
+        <v>30263802</v>
       </c>
       <c r="EX8" t="n">
-        <v>1644836604</v>
+        <v>1644861111</v>
       </c>
       <c r="EY8" t="n">
         <v>30467000</v>
@@ -7647,16 +7647,16 @@
         <v>1</v>
       </c>
       <c r="IV8" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="IW8" t="n">
         <v>37711000</v>
       </c>
       <c r="IX8" t="n">
-        <v>825284</v>
+        <v>1733200</v>
       </c>
       <c r="IY8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -7681,7 +7681,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.76</v>
+        <v>23.75</v>
       </c>
       <c r="F9" t="n">
         <v>5</v>
@@ -7747,7 +7747,7 @@
         <v>730464</v>
       </c>
       <c r="AA9" t="n">
-        <v>1183419136</v>
+        <v>1182920960</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
@@ -8107,16 +8107,16 @@
         </is>
       </c>
       <c r="EK9" t="n">
-        <v>4</v>
+        <v>-0</v>
       </c>
       <c r="EL9" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
+        <v>23</v>
+      </c>
+      <c r="EN9" t="n">
         <v>24</v>
-      </c>
-      <c r="EN9" t="n">
-        <v>25</v>
       </c>
       <c r="EO9" t="n">
         <v>29</v>
@@ -8125,7 +8125,7 @@
         <v>35</v>
       </c>
       <c r="EQ9" t="n">
-        <v>827182</v>
+        <v>188517</v>
       </c>
       <c r="ER9" t="n">
         <v>396201</v>
@@ -8139,16 +8139,16 @@
         <v>24</v>
       </c>
       <c r="EU9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="EV9" t="n">
         <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>49807203</v>
+        <v>49807198</v>
       </c>
       <c r="EX9" t="n">
-        <v>1644836667</v>
+        <v>1644861165</v>
       </c>
       <c r="EY9" t="n">
         <v>1052001000</v>
@@ -8500,7 +8500,7 @@
         <v>-1759586000</v>
       </c>
       <c r="IX9" t="n">
-        <v>2985516136</v>
+        <v>2985017960</v>
       </c>
       <c r="IY9" t="n">
         <v>63</v>
@@ -9842,7 +9842,7 @@
         <v>38720601</v>
       </c>
       <c r="EX11" t="n">
-        <v>1644836606</v>
+        <v>1644861113</v>
       </c>
       <c r="EY11" t="n">
         <v>1376900000</v>
@@ -10222,7 +10222,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.76</v>
+        <v>3.78</v>
       </c>
       <c r="F12" t="n">
         <v>5</v>
@@ -10231,7 +10231,7 @@
         <v>3.59</v>
       </c>
       <c r="H12" t="n">
-        <v>-79</v>
+        <v>-78</v>
       </c>
       <c r="I12" t="n">
         <v>17.5</v>
@@ -10288,7 +10288,7 @@
         <v>1673481</v>
       </c>
       <c r="AA12" t="n">
-        <v>189430672</v>
+        <v>190438288</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -10648,10 +10648,10 @@
         </is>
       </c>
       <c r="EK12" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="EL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM12" t="n">
         <v>4</v>
@@ -10666,7 +10666,7 @@
         <v>10</v>
       </c>
       <c r="EQ12" t="n">
-        <v>295558</v>
+        <v>79389</v>
       </c>
       <c r="ER12" t="n">
         <v>709537</v>
@@ -10683,13 +10683,13 @@
         <v>4</v>
       </c>
       <c r="EV12" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="EW12" t="n">
-        <v>50380498</v>
+        <v>50380499</v>
       </c>
       <c r="EX12" t="n">
-        <v>1644836616</v>
+        <v>1644861118</v>
       </c>
       <c r="EY12" t="n">
         <v>1887386</v>
@@ -11041,7 +11041,7 @@
         <v>-12866142</v>
       </c>
       <c r="IX12" t="n">
-        <v>235453974</v>
+        <v>236461590</v>
       </c>
       <c r="IY12" t="n">
         <v>-17</v>

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -1752,19 +1752,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
         <v>2.6</v>
       </c>
       <c r="H2" t="n">
-        <v>-52</v>
+        <v>-48</v>
       </c>
       <c r="I2" t="n">
-        <v>5.47</v>
+        <v>5.29</v>
       </c>
       <c r="J2" t="n">
         <v>-65</v>
@@ -1773,7 +1773,7 @@
         <v>-15</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.34</v>
+        <v>-0.32</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -1797,16 +1797,16 @@
         <v>15.22</v>
       </c>
       <c r="T2" t="n">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="U2" t="n">
         <v>0.96</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.35</v>
+        <v>-0.33</v>
       </c>
       <c r="W2" t="n">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="X2" t="n">
         <v>-12</v>
@@ -1818,7 +1818,7 @@
         <v>719274</v>
       </c>
       <c r="AA2" t="n">
-        <v>7085025</v>
+        <v>7493777</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>8504</v>
+        <v>8506</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         </is>
       </c>
       <c r="EK2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
         <v>3</v>
@@ -2196,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="EQ2" t="n">
-        <v>78</v>
+        <v>5111</v>
       </c>
       <c r="ER2" t="n">
-        <v>3046</v>
+        <v>3129</v>
       </c>
       <c r="ES2" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>2725010</v>
       </c>
       <c r="EX2" t="n">
-        <v>1644861111</v>
+        <v>1645019319</v>
       </c>
       <c r="EY2" t="n">
         <v>11768000</v>
@@ -2565,13 +2565,13 @@
         <v>1</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="IW2" t="n">
         <v>3374000</v>
       </c>
       <c r="IX2" t="n">
-        <v>6769025</v>
+        <v>7177777</v>
       </c>
       <c r="IY2" t="n">
         <v>-3</v>
@@ -2599,16 +2599,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.09</v>
+        <v>2.14</v>
       </c>
       <c r="F3" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G3" t="n">
         <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>-79</v>
+        <v>-78</v>
       </c>
       <c r="I3" t="n">
         <v>9.75</v>
@@ -2620,7 +2620,7 @@
         <v>-206</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.3</v>
+        <v>-0.29</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>-87.22</v>
       </c>
       <c r="T3" t="n">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="U3" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.74</v>
+        <v>-0.7</v>
       </c>
       <c r="W3" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="X3" t="n">
         <v>-1</v>
@@ -2665,7 +2665,7 @@
         <v>788611</v>
       </c>
       <c r="AA3" t="n">
-        <v>21942492</v>
+        <v>22467434</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>2677</v>
+        <v>2678</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
@@ -3025,10 +3025,10 @@
         </is>
       </c>
       <c r="EK3" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM3" t="n">
         <v>2</v>
@@ -3043,10 +3043,10 @@
         <v>3</v>
       </c>
       <c r="EQ3" t="n">
-        <v>15297</v>
+        <v>84383</v>
       </c>
       <c r="ER3" t="n">
-        <v>101435</v>
+        <v>101419</v>
       </c>
       <c r="ES3" t="inlineStr">
         <is>
@@ -3063,10 +3063,10 @@
         <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>10498800</v>
+        <v>10498801</v>
       </c>
       <c r="EX3" t="n">
-        <v>1644861114</v>
+        <v>1645019322</v>
       </c>
       <c r="EY3" t="n">
         <v>402446</v>
@@ -3412,13 +3412,13 @@
         <v>1</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="IW3" t="n">
         <v>13845851</v>
       </c>
       <c r="IX3" t="n">
-        <v>8878099</v>
+        <v>9403041</v>
       </c>
       <c r="IY3" t="n">
         <v>-1</v>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>11965</v>
+        <v>11967</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
@@ -4293,16 +4293,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>23.57</v>
+        <v>24.86</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>23.32</v>
+        <v>23.29</v>
       </c>
       <c r="H5" t="n">
-        <v>-19</v>
+        <v>-15</v>
       </c>
       <c r="I5" t="n">
         <v>29.2</v>
@@ -4314,7 +4314,7 @@
         <v>-21</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.38</v>
+        <v>-0.36</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -4338,16 +4338,16 @@
         <v>-96.51000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="U5" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.44</v>
+        <v>-0.42</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.5</v>
+        <v>-0.48</v>
       </c>
       <c r="X5" t="n">
         <v>-5</v>
@@ -4359,7 +4359,7 @@
         <v>1679063</v>
       </c>
       <c r="AA5" t="n">
-        <v>82736824</v>
+        <v>87282616</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>10563</v>
+        <v>10565</v>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
@@ -4719,13 +4719,13 @@
         </is>
       </c>
       <c r="EK5" t="n">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="EL5" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="EM5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="EN5" t="n">
         <v>25</v>
@@ -4734,13 +4734,13 @@
         <v>27</v>
       </c>
       <c r="EP5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EQ5" t="n">
-        <v>14121</v>
+        <v>11115</v>
       </c>
       <c r="ER5" t="n">
-        <v>4838</v>
+        <v>5579</v>
       </c>
       <c r="ES5" t="inlineStr">
         <is>
@@ -4748,10 +4748,10 @@
         </is>
       </c>
       <c r="ET5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="EU5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="EV5" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>3510260</v>
       </c>
       <c r="EX5" t="n">
-        <v>1644861094</v>
+        <v>1645019304</v>
       </c>
       <c r="EY5" t="n">
         <v>55363906</v>
@@ -5106,13 +5106,13 @@
         <v>16</v>
       </c>
       <c r="IV5" t="n">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="IW5" t="n">
         <v>-41463906</v>
       </c>
       <c r="IX5" t="n">
-        <v>71119689</v>
+        <v>75665481</v>
       </c>
       <c r="IY5" t="n">
         <v>-2</v>
@@ -5140,19 +5140,19 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.92</v>
+        <v>1.1</v>
       </c>
       <c r="F6" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G6" t="n">
         <v>0.8</v>
       </c>
       <c r="H6" t="n">
-        <v>-87</v>
+        <v>-85</v>
       </c>
       <c r="I6" t="n">
-        <v>7.37</v>
+        <v>7.34</v>
       </c>
       <c r="J6" t="n">
         <v>-64</v>
@@ -5161,7 +5161,7 @@
         <v>-25</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.1</v>
+        <v>-0.93</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -5185,16 +5185,16 @@
         <v>-208.57</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.46</v>
       </c>
       <c r="U6" t="n">
-        <v>0.64</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="V6" t="n">
-        <v>-1.73</v>
+        <v>-1.34</v>
       </c>
       <c r="W6" t="n">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="X6" t="n">
         <v>-5</v>
@@ -5206,7 +5206,7 @@
         <v>1092662</v>
       </c>
       <c r="AA6" t="n">
-        <v>27761674</v>
+        <v>32899386</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>11272</v>
+        <v>11274</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="EK6" t="n">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="EL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM6" t="n">
         <v>1</v>
@@ -5584,10 +5584,10 @@
         <v>2</v>
       </c>
       <c r="EQ6" t="n">
-        <v>120500</v>
+        <v>1311742</v>
       </c>
       <c r="ER6" t="n">
-        <v>1230698</v>
+        <v>1190851</v>
       </c>
       <c r="ES6" t="inlineStr">
         <is>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>30045102</v>
+        <v>30045101</v>
       </c>
       <c r="EX6" t="n">
-        <v>1644861101</v>
+        <v>1645019310</v>
       </c>
       <c r="EY6" t="n">
         <v>34464032</v>
@@ -5953,13 +5953,13 @@
         <v>2</v>
       </c>
       <c r="IV6" t="n">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="IW6" t="n">
         <v>24659539</v>
       </c>
       <c r="IX6" t="n">
-        <v>17679597</v>
+        <v>22817309</v>
       </c>
       <c r="IY6" t="n">
         <v>-1</v>
@@ -6061,7 +6061,7 @@
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
         <v>1.04</v>
       </c>
       <c r="H8" t="n">
-        <v>-75</v>
+        <v>-73</v>
       </c>
       <c r="I8" t="n">
-        <v>4.91</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
         <v>-63</v>
@@ -6879,16 +6879,16 @@
         <v>-79.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="U8" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="V8" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="W8" t="n">
-        <v>1.03</v>
+        <v>0.98</v>
       </c>
       <c r="X8" t="n">
         <v>-1</v>
@@ -6900,7 +6900,7 @@
         <v>846913</v>
       </c>
       <c r="AA8" t="n">
-        <v>36619200</v>
+        <v>38435024</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>8791</v>
+        <v>8793</v>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="EK8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="EL8" t="n">
         <v>0</v>
@@ -7278,10 +7278,10 @@
         <v>2</v>
       </c>
       <c r="EQ8" t="n">
-        <v>53695</v>
+        <v>178875</v>
       </c>
       <c r="ER8" t="n">
-        <v>345829</v>
+        <v>326087</v>
       </c>
       <c r="ES8" t="inlineStr">
         <is>
@@ -7298,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>30263802</v>
+        <v>30263798</v>
       </c>
       <c r="EX8" t="n">
-        <v>1644861111</v>
+        <v>1645019319</v>
       </c>
       <c r="EY8" t="n">
         <v>30467000</v>
@@ -7647,16 +7647,16 @@
         <v>1</v>
       </c>
       <c r="IV8" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="IW8" t="n">
         <v>37711000</v>
       </c>
       <c r="IX8" t="n">
-        <v>1733200</v>
+        <v>3549024</v>
       </c>
       <c r="IY8" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -7681,7 +7681,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.75</v>
+        <v>23.69</v>
       </c>
       <c r="F9" t="n">
         <v>5</v>
@@ -7729,7 +7729,7 @@
         <v>1.09</v>
       </c>
       <c r="U9" t="n">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="V9" t="n">
         <v>0.02</v>
@@ -7747,7 +7747,7 @@
         <v>730464</v>
       </c>
       <c r="AA9" t="n">
-        <v>1182920960</v>
+        <v>1179932544</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>12579</v>
+        <v>12581</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
@@ -8107,28 +8107,28 @@
         </is>
       </c>
       <c r="EK9" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="EL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="EN9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="EO9" t="n">
         <v>29</v>
       </c>
       <c r="EP9" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="EQ9" t="n">
-        <v>188517</v>
+        <v>578437</v>
       </c>
       <c r="ER9" t="n">
-        <v>396201</v>
+        <v>403791</v>
       </c>
       <c r="ES9" t="inlineStr">
         <is>
@@ -8139,16 +8139,16 @@
         <v>24</v>
       </c>
       <c r="EU9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="EV9" t="n">
         <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>49807198</v>
+        <v>49807199</v>
       </c>
       <c r="EX9" t="n">
-        <v>1644861165</v>
+        <v>1645019387</v>
       </c>
       <c r="EY9" t="n">
         <v>1052001000</v>
@@ -8500,7 +8500,7 @@
         <v>-1759586000</v>
       </c>
       <c r="IX9" t="n">
-        <v>2985017960</v>
+        <v>2982029544</v>
       </c>
       <c r="IY9" t="n">
         <v>63</v>
@@ -8602,7 +8602,7 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>8385</v>
+        <v>8387</v>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>38720601</v>
       </c>
       <c r="EX11" t="n">
-        <v>1644861113</v>
+        <v>1645019321</v>
       </c>
       <c r="EY11" t="n">
         <v>1376900000</v>
@@ -10222,16 +10222,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.78</v>
+        <v>3.75</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
         <v>3.59</v>
       </c>
       <c r="H12" t="n">
-        <v>-78</v>
+        <v>-79</v>
       </c>
       <c r="I12" t="n">
         <v>17.5</v>
@@ -10288,7 +10288,7 @@
         <v>1673481</v>
       </c>
       <c r="AA12" t="n">
-        <v>190438288</v>
+        <v>188926880</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>6152</v>
+        <v>6154</v>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
@@ -10666,10 +10666,10 @@
         <v>10</v>
       </c>
       <c r="EQ12" t="n">
-        <v>79389</v>
+        <v>101579</v>
       </c>
       <c r="ER12" t="n">
-        <v>709537</v>
+        <v>668870</v>
       </c>
       <c r="ES12" t="inlineStr">
         <is>
@@ -10683,13 +10683,13 @@
         <v>4</v>
       </c>
       <c r="EV12" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="EW12" t="n">
-        <v>50380499</v>
+        <v>50380501</v>
       </c>
       <c r="EX12" t="n">
-        <v>1644861118</v>
+        <v>1645019330</v>
       </c>
       <c r="EY12" t="n">
         <v>1887386</v>
@@ -11041,7 +11041,7 @@
         <v>-12866142</v>
       </c>
       <c r="IX12" t="n">
-        <v>236461590</v>
+        <v>234950182</v>
       </c>
       <c r="IY12" t="n">
         <v>-17</v>

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -1761,10 +1761,10 @@
         <v>2.6</v>
       </c>
       <c r="H2" t="n">
-        <v>-48</v>
+        <v>-45</v>
       </c>
       <c r="I2" t="n">
-        <v>5.29</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>-65</v>
@@ -2178,10 +2178,10 @@
         </is>
       </c>
       <c r="EK2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM2" t="n">
         <v>3</v>
@@ -2196,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="EQ2" t="n">
-        <v>5111</v>
+        <v>6</v>
       </c>
       <c r="ER2" t="n">
-        <v>3129</v>
+        <v>3114</v>
       </c>
       <c r="ES2" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>2725010</v>
       </c>
       <c r="EX2" t="n">
-        <v>1645019319</v>
+        <v>1645181582</v>
       </c>
       <c r="EY2" t="n">
         <v>11768000</v>
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.14</v>
+        <v>2.19</v>
       </c>
       <c r="F3" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G3" t="n">
         <v>1.57</v>
@@ -2620,7 +2620,7 @@
         <v>-206</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.29</v>
+        <v>-0.28</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>-87.22</v>
       </c>
       <c r="T3" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="U3" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.7</v>
+        <v>-0.66</v>
       </c>
       <c r="W3" t="n">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="X3" t="n">
         <v>-1</v>
@@ -2665,7 +2665,7 @@
         <v>788611</v>
       </c>
       <c r="AA3" t="n">
-        <v>22467434</v>
+        <v>22992372</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="EK3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="EL3" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>3</v>
       </c>
       <c r="EQ3" t="n">
-        <v>84383</v>
+        <v>16546</v>
       </c>
       <c r="ER3" t="n">
-        <v>101419</v>
+        <v>100904</v>
       </c>
       <c r="ES3" t="inlineStr">
         <is>
@@ -3063,10 +3063,10 @@
         <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>10498801</v>
+        <v>10498800</v>
       </c>
       <c r="EX3" t="n">
-        <v>1645019322</v>
+        <v>1645181586</v>
       </c>
       <c r="EY3" t="n">
         <v>402446</v>
@@ -3412,16 +3412,16 @@
         <v>1</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="IW3" t="n">
         <v>13845851</v>
       </c>
       <c r="IX3" t="n">
-        <v>9403041</v>
+        <v>9927979</v>
       </c>
       <c r="IY3" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="4">
@@ -4293,16 +4293,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24.86</v>
+        <v>25.09</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
         <v>23.29</v>
       </c>
       <c r="H5" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="I5" t="n">
         <v>29.2</v>
@@ -4338,16 +4338,16 @@
         <v>-96.51000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="U5" t="n">
         <v>0.87</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.42</v>
+        <v>-0.41</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.48</v>
+        <v>-0.47</v>
       </c>
       <c r="X5" t="n">
         <v>-5</v>
@@ -4359,7 +4359,7 @@
         <v>1679063</v>
       </c>
       <c r="AA5" t="n">
-        <v>87282616</v>
+        <v>88067512</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -4719,13 +4719,13 @@
         </is>
       </c>
       <c r="EK5" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="EN5" t="n">
         <v>25</v>
@@ -4737,10 +4737,10 @@
         <v>27</v>
       </c>
       <c r="EQ5" t="n">
-        <v>11115</v>
+        <v>2717</v>
       </c>
       <c r="ER5" t="n">
-        <v>5579</v>
+        <v>5514</v>
       </c>
       <c r="ES5" t="inlineStr">
         <is>
@@ -4748,10 +4748,10 @@
         </is>
       </c>
       <c r="ET5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="EU5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="EV5" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>3510260</v>
       </c>
       <c r="EX5" t="n">
-        <v>1645019304</v>
+        <v>1645181567</v>
       </c>
       <c r="EY5" t="n">
         <v>55363906</v>
@@ -5112,7 +5112,7 @@
         <v>-41463906</v>
       </c>
       <c r="IX5" t="n">
-        <v>75665481</v>
+        <v>76450377</v>
       </c>
       <c r="IY5" t="n">
         <v>-2</v>
@@ -5140,16 +5140,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G6" t="n">
         <v>0.8</v>
       </c>
       <c r="H6" t="n">
-        <v>-85</v>
+        <v>-86</v>
       </c>
       <c r="I6" t="n">
         <v>7.34</v>
@@ -5161,7 +5161,7 @@
         <v>-25</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.93</v>
+        <v>-1.02</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -5185,16 +5185,16 @@
         <v>-208.57</v>
       </c>
       <c r="T6" t="n">
-        <v>1.46</v>
+        <v>1.59</v>
       </c>
       <c r="U6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="V6" t="n">
-        <v>-1.34</v>
+        <v>-1.53</v>
       </c>
       <c r="W6" t="n">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="X6" t="n">
         <v>-5</v>
@@ -5206,7 +5206,7 @@
         <v>1092662</v>
       </c>
       <c r="AA6" t="n">
-        <v>32899386</v>
+        <v>30045100</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="EK6" t="n">
-        <v>22</v>
+        <v>-6</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
         <v>1</v>
@@ -5584,10 +5584,10 @@
         <v>2</v>
       </c>
       <c r="EQ6" t="n">
-        <v>1311742</v>
+        <v>377672</v>
       </c>
       <c r="ER6" t="n">
-        <v>1190851</v>
+        <v>1161954</v>
       </c>
       <c r="ES6" t="inlineStr">
         <is>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>30045101</v>
+        <v>30045100</v>
       </c>
       <c r="EX6" t="n">
-        <v>1645019310</v>
+        <v>1645181574</v>
       </c>
       <c r="EY6" t="n">
         <v>34464032</v>
@@ -5953,13 +5953,13 @@
         <v>2</v>
       </c>
       <c r="IV6" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="IW6" t="n">
         <v>24659539</v>
       </c>
       <c r="IX6" t="n">
-        <v>22817309</v>
+        <v>19963023</v>
       </c>
       <c r="IY6" t="n">
         <v>-1</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G8" t="n">
         <v>1.04</v>
       </c>
       <c r="H8" t="n">
-        <v>-73</v>
+        <v>-72</v>
       </c>
       <c r="I8" t="n">
-        <v>4.75</v>
+        <v>4.43</v>
       </c>
       <c r="J8" t="n">
         <v>-63</v>
@@ -6879,16 +6879,16 @@
         <v>-79.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="V8" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="W8" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
         <v>-1</v>
@@ -6900,7 +6900,7 @@
         <v>846913</v>
       </c>
       <c r="AA8" t="n">
-        <v>38435024</v>
+        <v>37527112</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -7260,10 +7260,10 @@
         </is>
       </c>
       <c r="EK8" t="n">
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="EL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
         <v>1</v>
@@ -7278,10 +7278,10 @@
         <v>2</v>
       </c>
       <c r="EQ8" t="n">
-        <v>178875</v>
+        <v>151334</v>
       </c>
       <c r="ER8" t="n">
-        <v>326087</v>
+        <v>310306</v>
       </c>
       <c r="ES8" t="inlineStr">
         <is>
@@ -7298,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>30263798</v>
+        <v>30263800</v>
       </c>
       <c r="EX8" t="n">
-        <v>1645019319</v>
+        <v>1645181582</v>
       </c>
       <c r="EY8" t="n">
         <v>30467000</v>
@@ -7647,16 +7647,16 @@
         <v>1</v>
       </c>
       <c r="IV8" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="IW8" t="n">
         <v>37711000</v>
       </c>
       <c r="IX8" t="n">
-        <v>3549024</v>
+        <v>2641112</v>
       </c>
       <c r="IY8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -7681,16 +7681,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.69</v>
+        <v>21.1</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>22.55</v>
+        <v>20.27</v>
       </c>
       <c r="H9" t="n">
-        <v>-43</v>
+        <v>-50</v>
       </c>
       <c r="I9" t="n">
         <v>41.81</v>
@@ -7702,7 +7702,7 @@
         <v>-1</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -7726,16 +7726,16 @@
         <v>-21.53</v>
       </c>
       <c r="T9" t="n">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="U9" t="n">
-        <v>2.53</v>
+        <v>2.71</v>
       </c>
       <c r="V9" t="n">
         <v>0.02</v>
       </c>
       <c r="W9" t="n">
-        <v>-1.49</v>
+        <v>-1.67</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -7747,7 +7747,7 @@
         <v>730464</v>
       </c>
       <c r="AA9" t="n">
-        <v>1179932544</v>
+        <v>1050931968</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
@@ -8107,16 +8107,16 @@
         </is>
       </c>
       <c r="EK9" t="n">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="EM9" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="EN9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="EO9" t="n">
         <v>29</v>
@@ -8125,10 +8125,10 @@
         <v>34</v>
       </c>
       <c r="EQ9" t="n">
-        <v>578437</v>
+        <v>1320026</v>
       </c>
       <c r="ER9" t="n">
-        <v>403791</v>
+        <v>406629</v>
       </c>
       <c r="ES9" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         </is>
       </c>
       <c r="ET9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="EU9" t="n">
         <v>23</v>
@@ -8145,10 +8145,10 @@
         <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>49807199</v>
+        <v>49807202</v>
       </c>
       <c r="EX9" t="n">
-        <v>1645019387</v>
+        <v>1645181636</v>
       </c>
       <c r="EY9" t="n">
         <v>1052001000</v>
@@ -8494,16 +8494,16 @@
         <v>2</v>
       </c>
       <c r="IV9" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="IW9" t="n">
         <v>-1759586000</v>
       </c>
       <c r="IX9" t="n">
-        <v>2982029544</v>
+        <v>2853028968</v>
       </c>
       <c r="IY9" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -9842,7 +9842,7 @@
         <v>38720601</v>
       </c>
       <c r="EX11" t="n">
-        <v>1645019321</v>
+        <v>1645181584</v>
       </c>
       <c r="EY11" t="n">
         <v>1376900000</v>
@@ -10222,10 +10222,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.75</v>
+        <v>3.69</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
         <v>3.59</v>
@@ -10270,7 +10270,7 @@
         <v>0.17</v>
       </c>
       <c r="U12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="V12" t="n">
         <v>-0.06</v>
@@ -10288,7 +10288,7 @@
         <v>1673481</v>
       </c>
       <c r="AA12" t="n">
-        <v>188926880</v>
+        <v>185904048</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -10648,10 +10648,10 @@
         </is>
       </c>
       <c r="EK12" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="EL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM12" t="n">
         <v>4</v>
@@ -10666,10 +10666,10 @@
         <v>10</v>
       </c>
       <c r="EQ12" t="n">
-        <v>101579</v>
+        <v>356476</v>
       </c>
       <c r="ER12" t="n">
-        <v>668870</v>
+        <v>600745</v>
       </c>
       <c r="ES12" t="inlineStr">
         <is>
@@ -10683,13 +10683,13 @@
         <v>4</v>
       </c>
       <c r="EV12" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="EW12" t="n">
         <v>50380501</v>
       </c>
       <c r="EX12" t="n">
-        <v>1645019330</v>
+        <v>1645181590</v>
       </c>
       <c r="EY12" t="n">
         <v>1887386</v>
@@ -11041,7 +11041,7 @@
         <v>-12866142</v>
       </c>
       <c r="IX12" t="n">
-        <v>234950182</v>
+        <v>231927350</v>
       </c>
       <c r="IY12" t="n">
         <v>-17</v>

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -2199,7 +2199,7 @@
         <v>6</v>
       </c>
       <c r="ER2" t="n">
-        <v>3114</v>
+        <v>3046</v>
       </c>
       <c r="ES2" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>2725010</v>
       </c>
       <c r="EX2" t="n">
-        <v>1645181582</v>
+        <v>1645304029</v>
       </c>
       <c r="EY2" t="n">
         <v>11768000</v>
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="F3" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G3" t="n">
         <v>1.57</v>
@@ -2620,7 +2620,7 @@
         <v>-206</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.28</v>
+        <v>-0.29</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>-87.22</v>
       </c>
       <c r="T3" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="U3" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.66</v>
+        <v>-0.71</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="X3" t="n">
         <v>-1</v>
@@ -2665,7 +2665,7 @@
         <v>788611</v>
       </c>
       <c r="AA3" t="n">
-        <v>22992372</v>
+        <v>22257454</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -3025,10 +3025,10 @@
         </is>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM3" t="n">
         <v>2</v>
@@ -3043,10 +3043,10 @@
         <v>3</v>
       </c>
       <c r="EQ3" t="n">
-        <v>16546</v>
+        <v>21921</v>
       </c>
       <c r="ER3" t="n">
-        <v>100904</v>
+        <v>98427</v>
       </c>
       <c r="ES3" t="inlineStr">
         <is>
@@ -3063,10 +3063,10 @@
         <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>10498800</v>
+        <v>10498799</v>
       </c>
       <c r="EX3" t="n">
-        <v>1645181586</v>
+        <v>1645304035</v>
       </c>
       <c r="EY3" t="n">
         <v>402446</v>
@@ -3412,16 +3412,16 @@
         <v>1</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="IW3" t="n">
         <v>13845851</v>
       </c>
       <c r="IX3" t="n">
-        <v>9927979</v>
+        <v>9193061</v>
       </c>
       <c r="IY3" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -4293,16 +4293,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.09</v>
+        <v>24.7</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>23.29</v>
       </c>
       <c r="H5" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="I5" t="n">
         <v>29.2</v>
@@ -4338,16 +4338,16 @@
         <v>-96.51000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="U5" t="n">
         <v>0.87</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.41</v>
+        <v>-0.42</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.47</v>
+        <v>-0.48</v>
       </c>
       <c r="X5" t="n">
         <v>-5</v>
@@ -4359,7 +4359,7 @@
         <v>1679063</v>
       </c>
       <c r="AA5" t="n">
-        <v>88067512</v>
+        <v>86703424</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -4719,28 +4719,28 @@
         </is>
       </c>
       <c r="EK5" t="n">
-        <v>-0</v>
+        <v>-2</v>
       </c>
       <c r="EL5" t="n">
         <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="EN5" t="n">
         <v>25</v>
       </c>
       <c r="EO5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="EP5" t="n">
         <v>27</v>
       </c>
       <c r="EQ5" t="n">
-        <v>2717</v>
+        <v>11152</v>
       </c>
       <c r="ER5" t="n">
-        <v>5514</v>
+        <v>5632</v>
       </c>
       <c r="ES5" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>3510260</v>
       </c>
       <c r="EX5" t="n">
-        <v>1645181567</v>
+        <v>1645304004</v>
       </c>
       <c r="EY5" t="n">
         <v>55363906</v>
@@ -5106,13 +5106,13 @@
         <v>16</v>
       </c>
       <c r="IV5" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="IW5" t="n">
         <v>-41463906</v>
       </c>
       <c r="IX5" t="n">
-        <v>76450377</v>
+        <v>75086289</v>
       </c>
       <c r="IY5" t="n">
         <v>-2</v>
@@ -5140,10 +5140,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" t="n">
         <v>0.8</v>
@@ -5161,7 +5161,7 @@
         <v>-25</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.02</v>
+        <v>-1.01</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -5185,16 +5185,16 @@
         <v>-208.57</v>
       </c>
       <c r="T6" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U6" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="V6" t="n">
-        <v>-1.53</v>
+        <v>-1.51</v>
       </c>
       <c r="W6" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="X6" t="n">
         <v>-5</v>
@@ -5206,7 +5206,7 @@
         <v>1092662</v>
       </c>
       <c r="AA6" t="n">
-        <v>30045100</v>
+        <v>30345550</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="EK6" t="n">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="EL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM6" t="n">
         <v>1</v>
@@ -5584,10 +5584,10 @@
         <v>2</v>
       </c>
       <c r="EQ6" t="n">
-        <v>377672</v>
+        <v>238791</v>
       </c>
       <c r="ER6" t="n">
-        <v>1161954</v>
+        <v>1139769</v>
       </c>
       <c r="ES6" t="inlineStr">
         <is>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>30045100</v>
+        <v>30045099</v>
       </c>
       <c r="EX6" t="n">
-        <v>1645181574</v>
+        <v>1645304016</v>
       </c>
       <c r="EY6" t="n">
         <v>34464032</v>
@@ -5953,13 +5953,13 @@
         <v>2</v>
       </c>
       <c r="IV6" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="IW6" t="n">
         <v>24659539</v>
       </c>
       <c r="IX6" t="n">
-        <v>19963023</v>
+        <v>20263473</v>
       </c>
       <c r="IY6" t="n">
         <v>-1</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="F8" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
         <v>1.04</v>
@@ -6846,7 +6846,7 @@
         <v>-72</v>
       </c>
       <c r="I8" t="n">
-        <v>4.43</v>
+        <v>4.22</v>
       </c>
       <c r="J8" t="n">
         <v>-63</v>
@@ -6879,16 +6879,16 @@
         <v>-79.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0.11</v>
+        <v>0.54</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="X8" t="n">
         <v>-1</v>
@@ -6900,7 +6900,7 @@
         <v>846913</v>
       </c>
       <c r="AA8" t="n">
-        <v>37527112</v>
+        <v>35408644</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="EK8" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="EL8" t="n">
         <v>-0</v>
@@ -7278,10 +7278,10 @@
         <v>2</v>
       </c>
       <c r="EQ8" t="n">
-        <v>151334</v>
+        <v>198150</v>
       </c>
       <c r="ER8" t="n">
-        <v>310306</v>
+        <v>299977</v>
       </c>
       <c r="ES8" t="inlineStr">
         <is>
@@ -7298,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>30263800</v>
+        <v>30263798</v>
       </c>
       <c r="EX8" t="n">
-        <v>1645181582</v>
+        <v>1645304029</v>
       </c>
       <c r="EY8" t="n">
         <v>30467000</v>
@@ -7647,16 +7647,16 @@
         <v>1</v>
       </c>
       <c r="IV8" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="IW8" t="n">
         <v>37711000</v>
       </c>
       <c r="IX8" t="n">
-        <v>2641112</v>
+        <v>522644</v>
       </c>
       <c r="IY8" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -7681,10 +7681,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21.1</v>
+        <v>20.83</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>20.27</v>
@@ -7726,16 +7726,16 @@
         <v>-21.53</v>
       </c>
       <c r="T9" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="U9" t="n">
-        <v>2.71</v>
+        <v>2.74</v>
       </c>
       <c r="V9" t="n">
         <v>0.02</v>
       </c>
       <c r="W9" t="n">
-        <v>-1.67</v>
+        <v>-1.7</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -7747,7 +7747,7 @@
         <v>730464</v>
       </c>
       <c r="AA9" t="n">
-        <v>1050931968</v>
+        <v>1037483968</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
@@ -8107,28 +8107,28 @@
         </is>
       </c>
       <c r="EK9" t="n">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="EL9" t="n">
-        <v>-2</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="EN9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EO9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="EP9" t="n">
         <v>34</v>
       </c>
       <c r="EQ9" t="n">
-        <v>1320026</v>
+        <v>909501</v>
       </c>
       <c r="ER9" t="n">
-        <v>406629</v>
+        <v>430891</v>
       </c>
       <c r="ES9" t="inlineStr">
         <is>
@@ -8136,19 +8136,19 @@
         </is>
       </c>
       <c r="ET9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="EU9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="EV9" t="n">
         <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>49807202</v>
+        <v>49807200</v>
       </c>
       <c r="EX9" t="n">
-        <v>1645181636</v>
+        <v>1645304112</v>
       </c>
       <c r="EY9" t="n">
         <v>1052001000</v>
@@ -8500,7 +8500,7 @@
         <v>-1759586000</v>
       </c>
       <c r="IX9" t="n">
-        <v>2853028968</v>
+        <v>2839580968</v>
       </c>
       <c r="IY9" t="n">
         <v>60</v>
@@ -9842,7 +9842,7 @@
         <v>38720601</v>
       </c>
       <c r="EX11" t="n">
-        <v>1645181584</v>
+        <v>1645304033</v>
       </c>
       <c r="EY11" t="n">
         <v>1376900000</v>
@@ -10222,13 +10222,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.69</v>
+        <v>3.61</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>3.59</v>
+        <v>3.48</v>
       </c>
       <c r="H12" t="n">
         <v>-79</v>
@@ -10243,7 +10243,7 @@
         <v>-12</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.08</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -10288,7 +10288,7 @@
         <v>1673481</v>
       </c>
       <c r="AA12" t="n">
-        <v>185904048</v>
+        <v>181873600</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="EN12" t="n">
         <v>4</v>
@@ -10666,10 +10666,10 @@
         <v>10</v>
       </c>
       <c r="EQ12" t="n">
-        <v>356476</v>
+        <v>223022</v>
       </c>
       <c r="ER12" t="n">
-        <v>600745</v>
+        <v>571400</v>
       </c>
       <c r="ES12" t="inlineStr">
         <is>
@@ -10683,13 +10683,13 @@
         <v>4</v>
       </c>
       <c r="EV12" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="EW12" t="n">
-        <v>50380501</v>
+        <v>50380499</v>
       </c>
       <c r="EX12" t="n">
-        <v>1645181590</v>
+        <v>1645304040</v>
       </c>
       <c r="EY12" t="n">
         <v>1887386</v>
@@ -11041,7 +11041,7 @@
         <v>-12866142</v>
       </c>
       <c r="IX12" t="n">
-        <v>231927350</v>
+        <v>227896902</v>
       </c>
       <c r="IY12" t="n">
         <v>-17</v>

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -2219,7 +2219,7 @@
         <v>2725010</v>
       </c>
       <c r="EX2" t="n">
-        <v>1645304029</v>
+        <v>1645463214</v>
       </c>
       <c r="EY2" t="n">
         <v>11768000</v>
@@ -3066,7 +3066,7 @@
         <v>10498799</v>
       </c>
       <c r="EX3" t="n">
-        <v>1645304035</v>
+        <v>1645463217</v>
       </c>
       <c r="EY3" t="n">
         <v>402446</v>
@@ -4760,7 +4760,7 @@
         <v>3510260</v>
       </c>
       <c r="EX5" t="n">
-        <v>1645304004</v>
+        <v>1645463198</v>
       </c>
       <c r="EY5" t="n">
         <v>55363906</v>
@@ -5607,7 +5607,7 @@
         <v>30045099</v>
       </c>
       <c r="EX6" t="n">
-        <v>1645304016</v>
+        <v>1645463205</v>
       </c>
       <c r="EY6" t="n">
         <v>34464032</v>
@@ -7278,7 +7278,7 @@
         <v>2</v>
       </c>
       <c r="EQ8" t="n">
-        <v>198150</v>
+        <v>198165</v>
       </c>
       <c r="ER8" t="n">
         <v>299977</v>
@@ -7301,7 +7301,7 @@
         <v>30263798</v>
       </c>
       <c r="EX8" t="n">
-        <v>1645304029</v>
+        <v>1645463214</v>
       </c>
       <c r="EY8" t="n">
         <v>30467000</v>
@@ -8148,7 +8148,7 @@
         <v>49807200</v>
       </c>
       <c r="EX9" t="n">
-        <v>1645304112</v>
+        <v>1645463269</v>
       </c>
       <c r="EY9" t="n">
         <v>1052001000</v>
@@ -9842,7 +9842,7 @@
         <v>38720601</v>
       </c>
       <c r="EX11" t="n">
-        <v>1645304033</v>
+        <v>1645463216</v>
       </c>
       <c r="EY11" t="n">
         <v>1376900000</v>
@@ -10689,7 +10689,7 @@
         <v>50380499</v>
       </c>
       <c r="EX12" t="n">
-        <v>1645304040</v>
+        <v>1645463221</v>
       </c>
       <c r="EY12" t="n">
         <v>1887386</v>

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IY12"/>
+  <dimension ref="A1:IY13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2199,7 +2199,7 @@
         <v>6</v>
       </c>
       <c r="ER2" t="n">
-        <v>3046</v>
+        <v>3060</v>
       </c>
       <c r="ES2" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>2725010</v>
       </c>
       <c r="EX2" t="n">
-        <v>1645463214</v>
+        <v>1645542482</v>
       </c>
       <c r="EY2" t="n">
         <v>11768000</v>
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="F3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" t="n">
         <v>1.57</v>
@@ -2620,7 +2620,7 @@
         <v>-206</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.29</v>
+        <v>-0.3</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>-87.22</v>
       </c>
       <c r="T3" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="U3" t="n">
         <v>0.41</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.71</v>
+        <v>-0.73</v>
       </c>
       <c r="W3" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="X3" t="n">
         <v>-1</v>
@@ -2665,7 +2665,7 @@
         <v>788611</v>
       </c>
       <c r="AA3" t="n">
-        <v>22257454</v>
+        <v>22047478</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="EK3" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="EL3" t="n">
         <v>-0</v>
@@ -3043,10 +3043,10 @@
         <v>3</v>
       </c>
       <c r="EQ3" t="n">
-        <v>21921</v>
+        <v>25192</v>
       </c>
       <c r="ER3" t="n">
-        <v>98427</v>
+        <v>98060</v>
       </c>
       <c r="ES3" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>10498799</v>
       </c>
       <c r="EX3" t="n">
-        <v>1645463217</v>
+        <v>1645542486</v>
       </c>
       <c r="EY3" t="n">
         <v>402446</v>
@@ -3418,7 +3418,7 @@
         <v>13845851</v>
       </c>
       <c r="IX3" t="n">
-        <v>9193061</v>
+        <v>8983085</v>
       </c>
       <c r="IY3" t="n">
         <v>-1</v>
@@ -4293,10 +4293,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24.7</v>
+        <v>24.89</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
         <v>23.29</v>
@@ -4338,7 +4338,7 @@
         <v>-96.51000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="U5" t="n">
         <v>0.87</v>
@@ -4347,7 +4347,7 @@
         <v>-0.42</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.48</v>
+        <v>-0.47</v>
       </c>
       <c r="X5" t="n">
         <v>-5</v>
@@ -4359,7 +4359,7 @@
         <v>1679063</v>
       </c>
       <c r="AA5" t="n">
-        <v>86703424</v>
+        <v>87379144</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -4719,13 +4719,13 @@
         </is>
       </c>
       <c r="EK5" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="EL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="EN5" t="n">
         <v>25</v>
@@ -4737,10 +4737,10 @@
         <v>27</v>
       </c>
       <c r="EQ5" t="n">
-        <v>11152</v>
+        <v>616</v>
       </c>
       <c r="ER5" t="n">
-        <v>5632</v>
+        <v>5695</v>
       </c>
       <c r="ES5" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>3510260</v>
       </c>
       <c r="EX5" t="n">
-        <v>1645463198</v>
+        <v>1645542465</v>
       </c>
       <c r="EY5" t="n">
         <v>55363906</v>
@@ -5106,13 +5106,13 @@
         <v>16</v>
       </c>
       <c r="IV5" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="IW5" t="n">
         <v>-41463906</v>
       </c>
       <c r="IX5" t="n">
-        <v>75086289</v>
+        <v>75762009</v>
       </c>
       <c r="IY5" t="n">
         <v>-2</v>
@@ -5140,16 +5140,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="F6" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
         <v>0.8</v>
       </c>
       <c r="H6" t="n">
-        <v>-86</v>
+        <v>-87</v>
       </c>
       <c r="I6" t="n">
         <v>7.34</v>
@@ -5161,7 +5161,7 @@
         <v>-25</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.01</v>
+        <v>-1.06</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -5185,16 +5185,16 @@
         <v>-208.57</v>
       </c>
       <c r="T6" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="U6" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="V6" t="n">
-        <v>-1.51</v>
+        <v>-1.63</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="X6" t="n">
         <v>-5</v>
@@ -5206,7 +5206,7 @@
         <v>1092662</v>
       </c>
       <c r="AA6" t="n">
-        <v>30345550</v>
+        <v>28855314</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="EK6" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
         <v>1</v>
@@ -5584,10 +5584,10 @@
         <v>2</v>
       </c>
       <c r="EQ6" t="n">
-        <v>238791</v>
+        <v>114144</v>
       </c>
       <c r="ER6" t="n">
-        <v>1139769</v>
+        <v>1141275</v>
       </c>
       <c r="ES6" t="inlineStr">
         <is>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>30045099</v>
+        <v>30045100</v>
       </c>
       <c r="EX6" t="n">
-        <v>1645463205</v>
+        <v>1645542472</v>
       </c>
       <c r="EY6" t="n">
         <v>34464032</v>
@@ -5953,13 +5953,13 @@
         <v>2</v>
       </c>
       <c r="IV6" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="IW6" t="n">
         <v>24659539</v>
       </c>
       <c r="IX6" t="n">
-        <v>20263473</v>
+        <v>18773237</v>
       </c>
       <c r="IY6" t="n">
         <v>-1</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
         <v>1.04</v>
@@ -6846,7 +6846,7 @@
         <v>-72</v>
       </c>
       <c r="I8" t="n">
-        <v>4.22</v>
+        <v>4.09</v>
       </c>
       <c r="J8" t="n">
         <v>-63</v>
@@ -6879,16 +6879,16 @@
         <v>-79.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0.54</v>
+        <v>-0.78</v>
       </c>
       <c r="W8" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="X8" t="n">
         <v>-1</v>
@@ -6900,7 +6900,7 @@
         <v>846913</v>
       </c>
       <c r="AA8" t="n">
-        <v>35408644</v>
+        <v>34524944</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="EK8" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="EL8" t="n">
         <v>-0</v>
@@ -7278,10 +7278,10 @@
         <v>2</v>
       </c>
       <c r="EQ8" t="n">
-        <v>198165</v>
+        <v>35669</v>
       </c>
       <c r="ER8" t="n">
-        <v>299977</v>
+        <v>296937</v>
       </c>
       <c r="ES8" t="inlineStr">
         <is>
@@ -7298,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>30263798</v>
+        <v>30263801</v>
       </c>
       <c r="EX8" t="n">
-        <v>1645463214</v>
+        <v>1645542482</v>
       </c>
       <c r="EY8" t="n">
         <v>30467000</v>
@@ -7647,16 +7647,16 @@
         <v>1</v>
       </c>
       <c r="IV8" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="IW8" t="n">
         <v>37711000</v>
       </c>
       <c r="IX8" t="n">
-        <v>522644</v>
+        <v>-361056</v>
       </c>
       <c r="IY8" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
@@ -9842,7 +9842,7 @@
         <v>38720601</v>
       </c>
       <c r="EX11" t="n">
-        <v>1645463216</v>
+        <v>1645542484</v>
       </c>
       <c r="EY11" t="n">
         <v>1376900000</v>
@@ -10222,16 +10222,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.61</v>
+        <v>3.91</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G12" t="n">
         <v>3.48</v>
       </c>
       <c r="H12" t="n">
-        <v>-79</v>
+        <v>-78</v>
       </c>
       <c r="I12" t="n">
         <v>17.5</v>
@@ -10243,7 +10243,7 @@
         <v>-12</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.08</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -10267,10 +10267,10 @@
         <v>-121.2</v>
       </c>
       <c r="T12" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="U12" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="V12" t="n">
         <v>-0.06</v>
@@ -10288,7 +10288,7 @@
         <v>1673481</v>
       </c>
       <c r="AA12" t="n">
-        <v>181873600</v>
+        <v>196987760</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -10648,13 +10648,13 @@
         </is>
       </c>
       <c r="EK12" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="EL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="EN12" t="n">
         <v>4</v>
@@ -10666,10 +10666,10 @@
         <v>10</v>
       </c>
       <c r="EQ12" t="n">
-        <v>223022</v>
+        <v>170956</v>
       </c>
       <c r="ER12" t="n">
-        <v>571400</v>
+        <v>548139</v>
       </c>
       <c r="ES12" t="inlineStr">
         <is>
@@ -10683,13 +10683,13 @@
         <v>4</v>
       </c>
       <c r="EV12" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="EW12" t="n">
-        <v>50380499</v>
+        <v>50380501</v>
       </c>
       <c r="EX12" t="n">
-        <v>1645463221</v>
+        <v>1645542490</v>
       </c>
       <c r="EY12" t="n">
         <v>1887386</v>
@@ -11035,17 +11035,282 @@
         <v>0</v>
       </c>
       <c r="IV12" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="IW12" t="n">
         <v>-12866142</v>
       </c>
       <c r="IX12" t="n">
-        <v>227896902</v>
+        <v>243011062</v>
       </c>
       <c r="IY12" t="n">
-        <v>-17</v>
-      </c>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr"/>
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="inlineStr"/>
+      <c r="BM13" t="inlineStr"/>
+      <c r="BN13" t="inlineStr"/>
+      <c r="BO13" t="inlineStr"/>
+      <c r="BP13" t="inlineStr"/>
+      <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
+      <c r="BS13" t="inlineStr"/>
+      <c r="BT13" t="inlineStr"/>
+      <c r="BU13" t="inlineStr"/>
+      <c r="BV13" t="inlineStr"/>
+      <c r="BW13" t="inlineStr"/>
+      <c r="BX13" t="inlineStr"/>
+      <c r="BY13" t="inlineStr"/>
+      <c r="BZ13" t="inlineStr"/>
+      <c r="CA13" t="inlineStr"/>
+      <c r="CB13" t="inlineStr"/>
+      <c r="CC13" t="inlineStr"/>
+      <c r="CD13" t="inlineStr"/>
+      <c r="CE13" t="inlineStr"/>
+      <c r="CF13" t="inlineStr"/>
+      <c r="CG13" t="inlineStr"/>
+      <c r="CH13" t="inlineStr"/>
+      <c r="CI13" t="inlineStr"/>
+      <c r="CJ13" t="inlineStr"/>
+      <c r="CK13" t="inlineStr"/>
+      <c r="CL13" t="inlineStr"/>
+      <c r="CM13" t="inlineStr"/>
+      <c r="CN13" t="inlineStr"/>
+      <c r="CO13" t="inlineStr"/>
+      <c r="CP13" t="inlineStr"/>
+      <c r="CQ13" t="inlineStr"/>
+      <c r="CR13" t="inlineStr"/>
+      <c r="CS13" t="inlineStr"/>
+      <c r="CT13" t="inlineStr"/>
+      <c r="CU13" t="inlineStr"/>
+      <c r="CV13" t="inlineStr"/>
+      <c r="CW13" t="inlineStr"/>
+      <c r="CX13" t="inlineStr"/>
+      <c r="CY13" t="inlineStr"/>
+      <c r="CZ13" t="inlineStr"/>
+      <c r="DA13" t="inlineStr"/>
+      <c r="DB13" t="inlineStr"/>
+      <c r="DC13" t="inlineStr"/>
+      <c r="DD13" t="inlineStr"/>
+      <c r="DE13" t="inlineStr"/>
+      <c r="DF13" t="inlineStr"/>
+      <c r="DG13" t="inlineStr"/>
+      <c r="DH13" t="inlineStr"/>
+      <c r="DI13" t="inlineStr"/>
+      <c r="DJ13" t="inlineStr"/>
+      <c r="DK13" t="inlineStr"/>
+      <c r="DL13" t="inlineStr"/>
+      <c r="DM13" t="inlineStr"/>
+      <c r="DN13" t="inlineStr"/>
+      <c r="DO13" t="inlineStr"/>
+      <c r="DP13" t="inlineStr"/>
+      <c r="DQ13" t="inlineStr"/>
+      <c r="DR13" t="inlineStr"/>
+      <c r="DS13" t="inlineStr"/>
+      <c r="DT13" t="inlineStr"/>
+      <c r="DU13" t="inlineStr"/>
+      <c r="DV13" t="inlineStr"/>
+      <c r="DW13" t="inlineStr"/>
+      <c r="DX13" t="inlineStr"/>
+      <c r="DY13" t="inlineStr"/>
+      <c r="DZ13" t="inlineStr"/>
+      <c r="EA13" t="inlineStr"/>
+      <c r="EB13" t="inlineStr"/>
+      <c r="EC13" t="inlineStr"/>
+      <c r="ED13" t="inlineStr"/>
+      <c r="EE13" t="inlineStr"/>
+      <c r="EF13" t="inlineStr"/>
+      <c r="EG13" t="inlineStr"/>
+      <c r="EH13" t="inlineStr"/>
+      <c r="EI13" t="inlineStr"/>
+      <c r="EJ13" t="inlineStr"/>
+      <c r="EK13" t="inlineStr"/>
+      <c r="EL13" t="inlineStr"/>
+      <c r="EM13" t="inlineStr"/>
+      <c r="EN13" t="inlineStr"/>
+      <c r="EO13" t="inlineStr"/>
+      <c r="EP13" t="inlineStr"/>
+      <c r="EQ13" t="inlineStr"/>
+      <c r="ER13" t="inlineStr"/>
+      <c r="ES13" t="inlineStr"/>
+      <c r="ET13" t="inlineStr"/>
+      <c r="EU13" t="inlineStr"/>
+      <c r="EV13" t="inlineStr"/>
+      <c r="EW13" t="inlineStr"/>
+      <c r="EX13" t="inlineStr"/>
+      <c r="EY13" t="inlineStr"/>
+      <c r="EZ13" t="inlineStr"/>
+      <c r="FA13" t="inlineStr"/>
+      <c r="FB13" t="inlineStr"/>
+      <c r="FC13" t="inlineStr"/>
+      <c r="FD13" t="inlineStr"/>
+      <c r="FE13" t="inlineStr"/>
+      <c r="FF13" t="inlineStr"/>
+      <c r="FG13" t="inlineStr"/>
+      <c r="FH13" t="inlineStr"/>
+      <c r="FI13" t="inlineStr"/>
+      <c r="FJ13" t="inlineStr"/>
+      <c r="FK13" t="inlineStr"/>
+      <c r="FL13" t="inlineStr"/>
+      <c r="FM13" t="inlineStr"/>
+      <c r="FN13" t="inlineStr"/>
+      <c r="FO13" t="inlineStr"/>
+      <c r="FP13" t="inlineStr"/>
+      <c r="FQ13" t="inlineStr"/>
+      <c r="FR13" t="inlineStr"/>
+      <c r="FS13" t="inlineStr"/>
+      <c r="FT13" t="inlineStr"/>
+      <c r="FU13" t="inlineStr"/>
+      <c r="FV13" t="inlineStr"/>
+      <c r="FW13" t="inlineStr"/>
+      <c r="FX13" t="inlineStr"/>
+      <c r="FY13" t="inlineStr"/>
+      <c r="FZ13" t="inlineStr"/>
+      <c r="GA13" t="inlineStr"/>
+      <c r="GB13" t="inlineStr"/>
+      <c r="GC13" t="inlineStr"/>
+      <c r="GD13" t="inlineStr"/>
+      <c r="GE13" t="inlineStr"/>
+      <c r="GF13" t="inlineStr"/>
+      <c r="GG13" t="inlineStr"/>
+      <c r="GH13" t="inlineStr"/>
+      <c r="GI13" t="inlineStr"/>
+      <c r="GJ13" t="inlineStr"/>
+      <c r="GK13" t="inlineStr"/>
+      <c r="GL13" t="inlineStr"/>
+      <c r="GM13" t="inlineStr"/>
+      <c r="GN13" t="inlineStr"/>
+      <c r="GO13" t="inlineStr"/>
+      <c r="GP13" t="inlineStr"/>
+      <c r="GQ13" t="inlineStr"/>
+      <c r="GR13" t="inlineStr"/>
+      <c r="GS13" t="inlineStr"/>
+      <c r="GT13" t="inlineStr"/>
+      <c r="GU13" t="inlineStr"/>
+      <c r="GV13" t="inlineStr"/>
+      <c r="GW13" t="inlineStr"/>
+      <c r="GX13" t="inlineStr"/>
+      <c r="GY13" t="inlineStr"/>
+      <c r="GZ13" t="inlineStr"/>
+      <c r="HA13" t="inlineStr"/>
+      <c r="HB13" t="inlineStr"/>
+      <c r="HC13" t="inlineStr"/>
+      <c r="HD13" t="inlineStr"/>
+      <c r="HE13" t="inlineStr"/>
+      <c r="HF13" t="inlineStr"/>
+      <c r="HG13" t="inlineStr"/>
+      <c r="HH13" t="inlineStr"/>
+      <c r="HI13" t="inlineStr"/>
+      <c r="HJ13" t="inlineStr"/>
+      <c r="HK13" t="inlineStr"/>
+      <c r="HL13" t="inlineStr"/>
+      <c r="HM13" t="inlineStr"/>
+      <c r="HN13" t="inlineStr"/>
+      <c r="HO13" t="inlineStr"/>
+      <c r="HP13" t="inlineStr"/>
+      <c r="HQ13" t="inlineStr"/>
+      <c r="HR13" t="inlineStr"/>
+      <c r="HS13" t="inlineStr"/>
+      <c r="HT13" t="inlineStr"/>
+      <c r="HU13" t="inlineStr"/>
+      <c r="HV13" t="inlineStr"/>
+      <c r="HW13" t="inlineStr"/>
+      <c r="HX13" t="inlineStr"/>
+      <c r="HY13" t="inlineStr"/>
+      <c r="HZ13" t="inlineStr"/>
+      <c r="IA13" t="inlineStr"/>
+      <c r="IB13" t="inlineStr"/>
+      <c r="IC13" t="inlineStr"/>
+      <c r="ID13" t="inlineStr"/>
+      <c r="IE13" t="inlineStr"/>
+      <c r="IF13" t="inlineStr"/>
+      <c r="IG13" t="inlineStr"/>
+      <c r="IH13" t="inlineStr"/>
+      <c r="II13" t="inlineStr"/>
+      <c r="IJ13" t="inlineStr"/>
+      <c r="IK13" t="inlineStr"/>
+      <c r="IL13" t="inlineStr"/>
+      <c r="IM13" t="inlineStr"/>
+      <c r="IN13" t="inlineStr"/>
+      <c r="IO13" t="inlineStr"/>
+      <c r="IP13" t="inlineStr"/>
+      <c r="IQ13" t="inlineStr"/>
+      <c r="IR13" t="inlineStr"/>
+      <c r="IS13" t="inlineStr"/>
+      <c r="IT13" t="inlineStr"/>
+      <c r="IU13" t="inlineStr"/>
+      <c r="IV13" t="inlineStr"/>
+      <c r="IW13" t="inlineStr"/>
+      <c r="IX13" t="inlineStr"/>
+      <c r="IY13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -2219,7 +2219,7 @@
         <v>2725010</v>
       </c>
       <c r="EX2" t="n">
-        <v>1645542482</v>
+        <v>1645544213</v>
       </c>
       <c r="EY2" t="n">
         <v>11768000</v>
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" t="n">
         <v>1.57</v>
@@ -2620,7 +2620,7 @@
         <v>-206</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.3</v>
+        <v>-0.29</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>-87.22</v>
       </c>
       <c r="T3" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="U3" t="n">
         <v>0.41</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.73</v>
+        <v>-0.72</v>
       </c>
       <c r="W3" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="X3" t="n">
         <v>-1</v>
@@ -2665,7 +2665,7 @@
         <v>788611</v>
       </c>
       <c r="AA3" t="n">
-        <v>22047478</v>
+        <v>22177666</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="EK3" t="n">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="EL3" t="n">
         <v>-0</v>
@@ -3043,7 +3043,7 @@
         <v>3</v>
       </c>
       <c r="EQ3" t="n">
-        <v>25192</v>
+        <v>26132</v>
       </c>
       <c r="ER3" t="n">
         <v>98060</v>
@@ -3063,10 +3063,10 @@
         <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>10498799</v>
+        <v>10498800</v>
       </c>
       <c r="EX3" t="n">
-        <v>1645542486</v>
+        <v>1645544216</v>
       </c>
       <c r="EY3" t="n">
         <v>402446</v>
@@ -3418,7 +3418,7 @@
         <v>13845851</v>
       </c>
       <c r="IX3" t="n">
-        <v>8983085</v>
+        <v>9113273</v>
       </c>
       <c r="IY3" t="n">
         <v>-1</v>
@@ -4293,16 +4293,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24.89</v>
+        <v>25.09</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
         <v>23.29</v>
       </c>
       <c r="H5" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="I5" t="n">
         <v>29.2</v>
@@ -4338,13 +4338,13 @@
         <v>-96.51000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="U5" t="n">
         <v>0.87</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.42</v>
+        <v>-0.41</v>
       </c>
       <c r="W5" t="n">
         <v>-0.47</v>
@@ -4359,7 +4359,7 @@
         <v>1679063</v>
       </c>
       <c r="AA5" t="n">
-        <v>87379144</v>
+        <v>88072424</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         </is>
       </c>
       <c r="EK5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EL5" t="n">
         <v>0</v>
@@ -4737,7 +4737,7 @@
         <v>27</v>
       </c>
       <c r="EQ5" t="n">
-        <v>616</v>
+        <v>1367</v>
       </c>
       <c r="ER5" t="n">
         <v>5695</v>
@@ -4760,7 +4760,7 @@
         <v>3510260</v>
       </c>
       <c r="EX5" t="n">
-        <v>1645542465</v>
+        <v>1645544197</v>
       </c>
       <c r="EY5" t="n">
         <v>55363906</v>
@@ -5112,7 +5112,7 @@
         <v>-41463906</v>
       </c>
       <c r="IX5" t="n">
-        <v>75762009</v>
+        <v>76455289</v>
       </c>
       <c r="IY5" t="n">
         <v>-2</v>
@@ -5140,10 +5140,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" t="n">
         <v>0.8</v>
@@ -5161,7 +5161,7 @@
         <v>-25</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.06</v>
+        <v>-1.07</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -5185,16 +5185,16 @@
         <v>-208.57</v>
       </c>
       <c r="T6" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U6" t="n">
         <v>0.65</v>
       </c>
       <c r="V6" t="n">
-        <v>-1.63</v>
+        <v>-1.65</v>
       </c>
       <c r="W6" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="X6" t="n">
         <v>-5</v>
@@ -5206,7 +5206,7 @@
         <v>1092662</v>
       </c>
       <c r="AA6" t="n">
-        <v>28855314</v>
+        <v>28566882</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="EK6" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="EL6" t="n">
         <v>-0</v>
@@ -5584,7 +5584,7 @@
         <v>2</v>
       </c>
       <c r="EQ6" t="n">
-        <v>114144</v>
+        <v>146998</v>
       </c>
       <c r="ER6" t="n">
         <v>1141275</v>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>30045100</v>
+        <v>30045101</v>
       </c>
       <c r="EX6" t="n">
-        <v>1645542472</v>
+        <v>1645544204</v>
       </c>
       <c r="EY6" t="n">
         <v>34464032</v>
@@ -5953,13 +5953,13 @@
         <v>2</v>
       </c>
       <c r="IV6" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="IW6" t="n">
         <v>24659539</v>
       </c>
       <c r="IX6" t="n">
-        <v>18773237</v>
+        <v>18484805</v>
       </c>
       <c r="IY6" t="n">
         <v>-1</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
         <v>1.04</v>
       </c>
       <c r="H8" t="n">
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="I8" t="n">
         <v>4.09</v>
@@ -6879,16 +6879,16 @@
         <v>-79.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.01</v>
+        <v>0.03</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.78</v>
+        <v>0.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="X8" t="n">
         <v>-1</v>
@@ -6900,7 +6900,7 @@
         <v>846913</v>
       </c>
       <c r="AA8" t="n">
-        <v>34524944</v>
+        <v>36013924</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -7260,10 +7260,10 @@
         </is>
       </c>
       <c r="EK8" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="EL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM8" t="n">
         <v>1</v>
@@ -7278,7 +7278,7 @@
         <v>2</v>
       </c>
       <c r="EQ8" t="n">
-        <v>35669</v>
+        <v>38999</v>
       </c>
       <c r="ER8" t="n">
         <v>296937</v>
@@ -7298,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>30263801</v>
+        <v>30263802</v>
       </c>
       <c r="EX8" t="n">
-        <v>1645542482</v>
+        <v>1645544213</v>
       </c>
       <c r="EY8" t="n">
         <v>30467000</v>
@@ -7647,16 +7647,16 @@
         <v>1</v>
       </c>
       <c r="IV8" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="IW8" t="n">
         <v>37711000</v>
       </c>
       <c r="IX8" t="n">
-        <v>-361056</v>
+        <v>1127924</v>
       </c>
       <c r="IY8" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -7755,7 +7755,7 @@
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>12581</v>
+        <v>12582</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>38720601</v>
       </c>
       <c r="EX11" t="n">
-        <v>1645542484</v>
+        <v>1645544215</v>
       </c>
       <c r="EY11" t="n">
         <v>1376900000</v>
@@ -10222,16 +10222,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.91</v>
+        <v>3.96</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
         <v>3.48</v>
       </c>
       <c r="H12" t="n">
-        <v>-78</v>
+        <v>-77</v>
       </c>
       <c r="I12" t="n">
         <v>17.5</v>
@@ -10276,7 +10276,7 @@
         <v>-0.06</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -10288,7 +10288,7 @@
         <v>1673481</v>
       </c>
       <c r="AA12" t="n">
-        <v>196987760</v>
+        <v>199506784</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="EK12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="EL12" t="n">
         <v>0</v>
@@ -10666,7 +10666,7 @@
         <v>10</v>
       </c>
       <c r="EQ12" t="n">
-        <v>170956</v>
+        <v>252914</v>
       </c>
       <c r="ER12" t="n">
         <v>548139</v>
@@ -10683,13 +10683,13 @@
         <v>4</v>
       </c>
       <c r="EV12" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="EW12" t="n">
         <v>50380501</v>
       </c>
       <c r="EX12" t="n">
-        <v>1645542490</v>
+        <v>1645544221</v>
       </c>
       <c r="EY12" t="n">
         <v>1887386</v>
@@ -11041,7 +11041,7 @@
         <v>-12866142</v>
       </c>
       <c r="IX12" t="n">
-        <v>243011062</v>
+        <v>245530086</v>
       </c>
       <c r="IY12" t="n">
         <v>-18</v>
@@ -11053,264 +11053,846 @@
           <t>BABA</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
-      <c r="BA13" t="inlineStr"/>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr"/>
-      <c r="BE13" t="inlineStr"/>
-      <c r="BF13" t="inlineStr"/>
-      <c r="BG13" t="inlineStr"/>
-      <c r="BH13" t="inlineStr"/>
-      <c r="BI13" t="inlineStr"/>
-      <c r="BJ13" t="inlineStr"/>
-      <c r="BK13" t="inlineStr"/>
-      <c r="BL13" t="inlineStr"/>
-      <c r="BM13" t="inlineStr"/>
-      <c r="BN13" t="inlineStr"/>
-      <c r="BO13" t="inlineStr"/>
-      <c r="BP13" t="inlineStr"/>
-      <c r="BQ13" t="inlineStr"/>
-      <c r="BR13" t="inlineStr"/>
-      <c r="BS13" t="inlineStr"/>
-      <c r="BT13" t="inlineStr"/>
-      <c r="BU13" t="inlineStr"/>
-      <c r="BV13" t="inlineStr"/>
-      <c r="BW13" t="inlineStr"/>
-      <c r="BX13" t="inlineStr"/>
-      <c r="BY13" t="inlineStr"/>
-      <c r="BZ13" t="inlineStr"/>
-      <c r="CA13" t="inlineStr"/>
-      <c r="CB13" t="inlineStr"/>
-      <c r="CC13" t="inlineStr"/>
-      <c r="CD13" t="inlineStr"/>
-      <c r="CE13" t="inlineStr"/>
-      <c r="CF13" t="inlineStr"/>
-      <c r="CG13" t="inlineStr"/>
-      <c r="CH13" t="inlineStr"/>
-      <c r="CI13" t="inlineStr"/>
-      <c r="CJ13" t="inlineStr"/>
-      <c r="CK13" t="inlineStr"/>
-      <c r="CL13" t="inlineStr"/>
-      <c r="CM13" t="inlineStr"/>
-      <c r="CN13" t="inlineStr"/>
-      <c r="CO13" t="inlineStr"/>
-      <c r="CP13" t="inlineStr"/>
-      <c r="CQ13" t="inlineStr"/>
-      <c r="CR13" t="inlineStr"/>
-      <c r="CS13" t="inlineStr"/>
-      <c r="CT13" t="inlineStr"/>
-      <c r="CU13" t="inlineStr"/>
-      <c r="CV13" t="inlineStr"/>
-      <c r="CW13" t="inlineStr"/>
-      <c r="CX13" t="inlineStr"/>
-      <c r="CY13" t="inlineStr"/>
-      <c r="CZ13" t="inlineStr"/>
-      <c r="DA13" t="inlineStr"/>
-      <c r="DB13" t="inlineStr"/>
-      <c r="DC13" t="inlineStr"/>
-      <c r="DD13" t="inlineStr"/>
-      <c r="DE13" t="inlineStr"/>
-      <c r="DF13" t="inlineStr"/>
-      <c r="DG13" t="inlineStr"/>
-      <c r="DH13" t="inlineStr"/>
-      <c r="DI13" t="inlineStr"/>
-      <c r="DJ13" t="inlineStr"/>
-      <c r="DK13" t="inlineStr"/>
-      <c r="DL13" t="inlineStr"/>
-      <c r="DM13" t="inlineStr"/>
-      <c r="DN13" t="inlineStr"/>
-      <c r="DO13" t="inlineStr"/>
-      <c r="DP13" t="inlineStr"/>
-      <c r="DQ13" t="inlineStr"/>
-      <c r="DR13" t="inlineStr"/>
-      <c r="DS13" t="inlineStr"/>
-      <c r="DT13" t="inlineStr"/>
-      <c r="DU13" t="inlineStr"/>
-      <c r="DV13" t="inlineStr"/>
-      <c r="DW13" t="inlineStr"/>
-      <c r="DX13" t="inlineStr"/>
-      <c r="DY13" t="inlineStr"/>
-      <c r="DZ13" t="inlineStr"/>
-      <c r="EA13" t="inlineStr"/>
-      <c r="EB13" t="inlineStr"/>
-      <c r="EC13" t="inlineStr"/>
-      <c r="ED13" t="inlineStr"/>
-      <c r="EE13" t="inlineStr"/>
-      <c r="EF13" t="inlineStr"/>
-      <c r="EG13" t="inlineStr"/>
-      <c r="EH13" t="inlineStr"/>
-      <c r="EI13" t="inlineStr"/>
-      <c r="EJ13" t="inlineStr"/>
-      <c r="EK13" t="inlineStr"/>
-      <c r="EL13" t="inlineStr"/>
-      <c r="EM13" t="inlineStr"/>
-      <c r="EN13" t="inlineStr"/>
-      <c r="EO13" t="inlineStr"/>
-      <c r="EP13" t="inlineStr"/>
-      <c r="EQ13" t="inlineStr"/>
-      <c r="ER13" t="inlineStr"/>
-      <c r="ES13" t="inlineStr"/>
-      <c r="ET13" t="inlineStr"/>
-      <c r="EU13" t="inlineStr"/>
-      <c r="EV13" t="inlineStr"/>
-      <c r="EW13" t="inlineStr"/>
-      <c r="EX13" t="inlineStr"/>
-      <c r="EY13" t="inlineStr"/>
-      <c r="EZ13" t="inlineStr"/>
-      <c r="FA13" t="inlineStr"/>
-      <c r="FB13" t="inlineStr"/>
-      <c r="FC13" t="inlineStr"/>
-      <c r="FD13" t="inlineStr"/>
-      <c r="FE13" t="inlineStr"/>
-      <c r="FF13" t="inlineStr"/>
-      <c r="FG13" t="inlineStr"/>
-      <c r="FH13" t="inlineStr"/>
-      <c r="FI13" t="inlineStr"/>
-      <c r="FJ13" t="inlineStr"/>
-      <c r="FK13" t="inlineStr"/>
-      <c r="FL13" t="inlineStr"/>
-      <c r="FM13" t="inlineStr"/>
-      <c r="FN13" t="inlineStr"/>
-      <c r="FO13" t="inlineStr"/>
-      <c r="FP13" t="inlineStr"/>
-      <c r="FQ13" t="inlineStr"/>
-      <c r="FR13" t="inlineStr"/>
-      <c r="FS13" t="inlineStr"/>
-      <c r="FT13" t="inlineStr"/>
-      <c r="FU13" t="inlineStr"/>
-      <c r="FV13" t="inlineStr"/>
-      <c r="FW13" t="inlineStr"/>
-      <c r="FX13" t="inlineStr"/>
-      <c r="FY13" t="inlineStr"/>
-      <c r="FZ13" t="inlineStr"/>
-      <c r="GA13" t="inlineStr"/>
-      <c r="GB13" t="inlineStr"/>
-      <c r="GC13" t="inlineStr"/>
-      <c r="GD13" t="inlineStr"/>
-      <c r="GE13" t="inlineStr"/>
-      <c r="GF13" t="inlineStr"/>
-      <c r="GG13" t="inlineStr"/>
-      <c r="GH13" t="inlineStr"/>
-      <c r="GI13" t="inlineStr"/>
-      <c r="GJ13" t="inlineStr"/>
-      <c r="GK13" t="inlineStr"/>
-      <c r="GL13" t="inlineStr"/>
-      <c r="GM13" t="inlineStr"/>
-      <c r="GN13" t="inlineStr"/>
-      <c r="GO13" t="inlineStr"/>
-      <c r="GP13" t="inlineStr"/>
-      <c r="GQ13" t="inlineStr"/>
-      <c r="GR13" t="inlineStr"/>
-      <c r="GS13" t="inlineStr"/>
-      <c r="GT13" t="inlineStr"/>
-      <c r="GU13" t="inlineStr"/>
-      <c r="GV13" t="inlineStr"/>
-      <c r="GW13" t="inlineStr"/>
-      <c r="GX13" t="inlineStr"/>
-      <c r="GY13" t="inlineStr"/>
-      <c r="GZ13" t="inlineStr"/>
-      <c r="HA13" t="inlineStr"/>
-      <c r="HB13" t="inlineStr"/>
-      <c r="HC13" t="inlineStr"/>
-      <c r="HD13" t="inlineStr"/>
-      <c r="HE13" t="inlineStr"/>
-      <c r="HF13" t="inlineStr"/>
-      <c r="HG13" t="inlineStr"/>
-      <c r="HH13" t="inlineStr"/>
-      <c r="HI13" t="inlineStr"/>
-      <c r="HJ13" t="inlineStr"/>
-      <c r="HK13" t="inlineStr"/>
-      <c r="HL13" t="inlineStr"/>
-      <c r="HM13" t="inlineStr"/>
-      <c r="HN13" t="inlineStr"/>
-      <c r="HO13" t="inlineStr"/>
-      <c r="HP13" t="inlineStr"/>
-      <c r="HQ13" t="inlineStr"/>
-      <c r="HR13" t="inlineStr"/>
-      <c r="HS13" t="inlineStr"/>
-      <c r="HT13" t="inlineStr"/>
-      <c r="HU13" t="inlineStr"/>
-      <c r="HV13" t="inlineStr"/>
-      <c r="HW13" t="inlineStr"/>
-      <c r="HX13" t="inlineStr"/>
-      <c r="HY13" t="inlineStr"/>
-      <c r="HZ13" t="inlineStr"/>
-      <c r="IA13" t="inlineStr"/>
-      <c r="IB13" t="inlineStr"/>
-      <c r="IC13" t="inlineStr"/>
-      <c r="ID13" t="inlineStr"/>
-      <c r="IE13" t="inlineStr"/>
-      <c r="IF13" t="inlineStr"/>
-      <c r="IG13" t="inlineStr"/>
-      <c r="IH13" t="inlineStr"/>
-      <c r="II13" t="inlineStr"/>
-      <c r="IJ13" t="inlineStr"/>
-      <c r="IK13" t="inlineStr"/>
-      <c r="IL13" t="inlineStr"/>
-      <c r="IM13" t="inlineStr"/>
-      <c r="IN13" t="inlineStr"/>
-      <c r="IO13" t="inlineStr"/>
-      <c r="IP13" t="inlineStr"/>
-      <c r="IQ13" t="inlineStr"/>
-      <c r="IR13" t="inlineStr"/>
-      <c r="IS13" t="inlineStr"/>
-      <c r="IT13" t="inlineStr"/>
-      <c r="IU13" t="inlineStr"/>
-      <c r="IV13" t="inlineStr"/>
-      <c r="IW13" t="inlineStr"/>
-      <c r="IX13" t="inlineStr"/>
-      <c r="IY13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-54</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-7</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-102.45</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-64.06999999999999</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-93.37</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-59.28</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-55.89</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-71.66</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1577552</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC13" t="n">
+        <v>12368</v>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>2021-03-31</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>2021-07-27</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>2021-07-27 07:55:28</t>
+        </is>
+      </c>
+      <c r="AH13" t="n">
+        <v>2021</v>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>FY</t>
+        </is>
+      </c>
+      <c r="AJ13" t="n">
+        <v>717289000000</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>421205000000</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>296084000000</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>57236000000</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>55224000000</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>81519000000</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>136743000000</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>12427000000</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>206406000000</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>627611000000</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>72794000000</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>4476000000</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>47909000000</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>232241000000</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>89678000000</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>-75900000000</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>165578000000</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>29278000000</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>150578000000</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>56</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>55</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>2702375000</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>2747750000</v>
+      </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>https://www.sec.gov/Archives/edgar/data/1577552/000110465921096092/0001104659-21-096092-index.htm</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>https://www.sec.gov/ix?doc=/Archives/edgar/data/1577552/000110465921096092/baba-20210331x20f.htm</t>
+        </is>
+      </c>
+      <c r="BN13" t="n">
+        <v>321262000000</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>162183000000</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>483445000000</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>56923000000</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>27858000000</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>75134000000</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>643360000000</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>219452000000</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>292771000000</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>70833000000</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>363604000000</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>437410000000</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>11041000000</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>15351000000</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>1046858000000</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>1690218000000</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>17506000000</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>33197000000</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>131300000000</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>228552000000</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>377358000000</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>163933000000</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>3158000000</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>59598000000</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>11210000000</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>237899000000</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>32286000000</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>615257000000</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>554924000000</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>-11716000000</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>394261000000</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>937470000000</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>137491000000</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>1074961000000</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>1552727000000</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>1690218000000</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>599593000000</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>181439000000</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>-139823000000</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>3236000000</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>50120000000</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>50508000000</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>15539000000</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>-70565000000</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>231786000000</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>-41450000000</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>-35386000000</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>-172340000000</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>7280000000</v>
+      </c>
+      <c r="DR13" t="n">
+        <v>-2298000000</v>
+      </c>
+      <c r="DS13" t="n">
+        <v>-244194000000</v>
+      </c>
+      <c r="DT13" t="n">
+        <v>-7061000000</v>
+      </c>
+      <c r="DU13" t="n">
+        <v>175000000</v>
+      </c>
+      <c r="DV13" t="n">
+        <v>-773000000</v>
+      </c>
+      <c r="DW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX13" t="n">
+        <v>37741000000</v>
+      </c>
+      <c r="DY13" t="n">
+        <v>30082000000</v>
+      </c>
+      <c r="DZ13" t="n">
+        <v>-7187000000</v>
+      </c>
+      <c r="EA13" t="n">
+        <v>10487000000</v>
+      </c>
+      <c r="EB13" t="n">
+        <v>356469000000</v>
+      </c>
+      <c r="EC13" t="n">
+        <v>345982000000</v>
+      </c>
+      <c r="ED13" t="n">
+        <v>231786000000</v>
+      </c>
+      <c r="EE13" t="n">
+        <v>-43185000000</v>
+      </c>
+      <c r="EF13" t="n">
+        <v>188601000000</v>
+      </c>
+      <c r="EG13" t="n">
+        <v>402476600000</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>215405600000</v>
+      </c>
+      <c r="EI13" t="n">
+        <v>107244800000</v>
+      </c>
+      <c r="EJ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="EK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="ET13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY13" t="n">
+        <v>509711000000</v>
+      </c>
+      <c r="EZ13" t="n">
+        <v>134340000000</v>
+      </c>
+      <c r="FA13" t="n">
+        <v>330503000000</v>
+      </c>
+      <c r="FB13" t="n">
+        <v>462923000000</v>
+      </c>
+      <c r="FC13" t="n">
+        <v>77421000000</v>
+      </c>
+      <c r="FD13" t="n">
+        <v>241872000000</v>
+      </c>
+      <c r="FE13" t="n">
+        <v>442437000000</v>
+      </c>
+      <c r="FF13" t="n">
+        <v>755401000000</v>
+      </c>
+      <c r="FG13" t="n">
+        <v>-183216000000</v>
+      </c>
+      <c r="FH13" t="n">
+        <v>180607000000</v>
+      </c>
+      <c r="FI13" t="n">
+        <v>376844000000</v>
+      </c>
+      <c r="FJ13" t="n">
+        <v>112165000000</v>
+      </c>
+      <c r="FK13" t="n">
+        <v>189976000000</v>
+      </c>
+      <c r="FL13" t="n">
+        <v>270273000000</v>
+      </c>
+      <c r="FM13" t="n">
+        <v>52004000000</v>
+      </c>
+      <c r="FN13" t="n">
+        <v>207669000000</v>
+      </c>
+      <c r="FO13" t="n">
+        <v>356493000000</v>
+      </c>
+      <c r="FP13" t="n">
+        <v>492257000000</v>
+      </c>
+      <c r="FQ13" t="n">
+        <v>150975000000</v>
+      </c>
+      <c r="FR13" t="n">
+        <v>200690000000</v>
+      </c>
+      <c r="FS13" t="n">
+        <v>55934000000</v>
+      </c>
+      <c r="FT13" t="n">
+        <v>272206000000</v>
+      </c>
+      <c r="FU13" t="n">
+        <v>638047000000</v>
+      </c>
+      <c r="FV13" t="n">
+        <v>80454000000</v>
+      </c>
+      <c r="FW13" t="n">
+        <v>387863000000</v>
+      </c>
+      <c r="FX13" t="n">
+        <v>627751000000</v>
+      </c>
+      <c r="FY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ13" t="n">
+        <v>962824000000</v>
+      </c>
+      <c r="GA13" t="n">
+        <v>135099000000</v>
+      </c>
+      <c r="GB13" t="n">
+        <v>151753000000</v>
+      </c>
+      <c r="GC13" t="n">
+        <v>-120453000000</v>
+      </c>
+      <c r="GD13" t="n">
+        <v>35830000000</v>
+      </c>
+      <c r="GE13" t="n">
+        <v>205740000000</v>
+      </c>
+      <c r="GF13" t="n">
+        <v>50796000000</v>
+      </c>
+      <c r="GG13" t="n">
+        <v>291809000000</v>
+      </c>
+      <c r="GH13" t="n">
+        <v>647137000000</v>
+      </c>
+      <c r="GI13" t="n">
+        <v>76278000000</v>
+      </c>
+      <c r="GJ13" t="n">
+        <v>368199000000</v>
+      </c>
+      <c r="GK13" t="n">
+        <v>604958000000</v>
+      </c>
+      <c r="GL13" t="n">
+        <v>975503000000</v>
+      </c>
+      <c r="GM13" t="n">
+        <v>150612000000</v>
+      </c>
+      <c r="GN13" t="n">
+        <v>-141197000000</v>
+      </c>
+      <c r="GO13" t="n">
+        <v>33603000000</v>
+      </c>
+      <c r="GP13" t="n">
+        <v>187395000000</v>
+      </c>
+      <c r="GQ13" t="n">
+        <v>69604000000</v>
+      </c>
+      <c r="GR13" t="n">
+        <v>643360000000</v>
+      </c>
+      <c r="GS13" t="n">
+        <v>131300000000</v>
+      </c>
+      <c r="GT13" t="n">
+        <v>377358000000</v>
+      </c>
+      <c r="GU13" t="n">
+        <v>615257000000</v>
+      </c>
+      <c r="GV13" t="n">
+        <v>937470000000</v>
+      </c>
+      <c r="GW13" t="n">
+        <v>-139823000000</v>
+      </c>
+      <c r="GX13" t="n">
+        <v>24183000000</v>
+      </c>
+      <c r="GY13" t="n">
+        <v>814909000000</v>
+      </c>
+      <c r="GZ13" t="n">
+        <v>196824000000</v>
+      </c>
+      <c r="HA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HJ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HK13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HL13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HM13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HN13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HP13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HS13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HT13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HU13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HV13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HZ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="IA13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="IB13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="IC13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="ID13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="IE13" t="n">
+        <v>53879000000</v>
+      </c>
+      <c r="IF13" t="n">
+        <v>25417000000</v>
+      </c>
+      <c r="IG13" t="n">
+        <v>771168000000</v>
+      </c>
+      <c r="IH13" t="n">
+        <v>535128000000</v>
+      </c>
+      <c r="II13" t="n">
+        <v>4176000000</v>
+      </c>
+      <c r="IJ13" t="n">
+        <v>-55022000000</v>
+      </c>
+      <c r="IK13" t="n">
+        <v>204866000000</v>
+      </c>
+      <c r="IL13" t="n">
+        <v>150718000000</v>
+      </c>
+      <c r="IM13" t="n">
+        <v>97620000000</v>
+      </c>
+      <c r="IN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO13" t="n">
+        <v>26012039895</v>
+      </c>
+      <c r="IP13" t="n">
+        <v>-26012039895</v>
+      </c>
+      <c r="IQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR13" t="n">
+        <v>170811960105</v>
+      </c>
+      <c r="IS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT13" t="n">
+        <v>250184000000</v>
+      </c>
+      <c r="IU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW13" t="n">
+        <v>10296000000</v>
+      </c>
+      <c r="IX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY13" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="F2" t="n">
         <v>6</v>
@@ -1818,7 +1818,7 @@
         <v>719274</v>
       </c>
       <c r="AA2" t="n">
-        <v>7493777</v>
+        <v>7526478</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -2196,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="EQ2" t="n">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="ER2" t="n">
-        <v>3060</v>
+        <v>3036</v>
       </c>
       <c r="ES2" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>2725010</v>
       </c>
       <c r="EX2" t="n">
-        <v>1645544213</v>
+        <v>1645626302</v>
       </c>
       <c r="EY2" t="n">
         <v>11768000</v>
@@ -2571,7 +2571,7 @@
         <v>3374000</v>
       </c>
       <c r="IX2" t="n">
-        <v>7177777</v>
+        <v>7210478</v>
       </c>
       <c r="IY2" t="n">
         <v>-3</v>
@@ -2599,7 +2599,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="F3" t="n">
         <v>35</v>
@@ -2650,7 +2650,7 @@
         <v>0.41</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.72</v>
+        <v>-0.71</v>
       </c>
       <c r="W3" t="n">
         <v>0.62</v>
@@ -2665,7 +2665,7 @@
         <v>788611</v>
       </c>
       <c r="AA3" t="n">
-        <v>22177666</v>
+        <v>22257454</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -3025,10 +3025,10 @@
         </is>
       </c>
       <c r="EK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM3" t="n">
         <v>2</v>
@@ -3043,10 +3043,10 @@
         <v>3</v>
       </c>
       <c r="EQ3" t="n">
-        <v>26132</v>
+        <v>38122</v>
       </c>
       <c r="ER3" t="n">
-        <v>98060</v>
+        <v>97822</v>
       </c>
       <c r="ES3" t="inlineStr">
         <is>
@@ -3063,10 +3063,10 @@
         <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>10498800</v>
+        <v>10498799</v>
       </c>
       <c r="EX3" t="n">
-        <v>1645544216</v>
+        <v>1645626305</v>
       </c>
       <c r="EY3" t="n">
         <v>402446</v>
@@ -3418,7 +3418,7 @@
         <v>13845851</v>
       </c>
       <c r="IX3" t="n">
-        <v>9113273</v>
+        <v>9193061</v>
       </c>
       <c r="IY3" t="n">
         <v>-1</v>
@@ -4293,10 +4293,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.09</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
         <v>23.29</v>
@@ -4344,7 +4344,7 @@
         <v>0.87</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.41</v>
+        <v>-0.42</v>
       </c>
       <c r="W5" t="n">
         <v>-0.47</v>
@@ -4359,7 +4359,7 @@
         <v>1679063</v>
       </c>
       <c r="AA5" t="n">
-        <v>88072424</v>
+        <v>87756496</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         </is>
       </c>
       <c r="EK5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EL5" t="n">
         <v>0</v>
@@ -4737,10 +4737,10 @@
         <v>27</v>
       </c>
       <c r="EQ5" t="n">
-        <v>1367</v>
+        <v>5722</v>
       </c>
       <c r="ER5" t="n">
-        <v>5695</v>
+        <v>5654</v>
       </c>
       <c r="ES5" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>3510260</v>
       </c>
       <c r="EX5" t="n">
-        <v>1645544197</v>
+        <v>1645626287</v>
       </c>
       <c r="EY5" t="n">
         <v>55363906</v>
@@ -5112,7 +5112,7 @@
         <v>-41463906</v>
       </c>
       <c r="IX5" t="n">
-        <v>76455289</v>
+        <v>76139361</v>
       </c>
       <c r="IY5" t="n">
         <v>-2</v>
@@ -5140,10 +5140,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
         <v>0.8</v>
@@ -5161,7 +5161,7 @@
         <v>-25</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.07</v>
+        <v>-1.09</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -5185,16 +5185,16 @@
         <v>-208.57</v>
       </c>
       <c r="T6" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="U6" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="V6" t="n">
-        <v>-1.65</v>
+        <v>-1.7</v>
       </c>
       <c r="W6" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="X6" t="n">
         <v>-5</v>
@@ -5206,7 +5206,7 @@
         <v>1092662</v>
       </c>
       <c r="AA6" t="n">
-        <v>28566882</v>
+        <v>28032080</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="EK6" t="n">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="EL6" t="n">
         <v>-0</v>
@@ -5584,10 +5584,10 @@
         <v>2</v>
       </c>
       <c r="EQ6" t="n">
-        <v>146998</v>
+        <v>409663</v>
       </c>
       <c r="ER6" t="n">
-        <v>1141275</v>
+        <v>1132073</v>
       </c>
       <c r="ES6" t="inlineStr">
         <is>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>30045101</v>
+        <v>30045102</v>
       </c>
       <c r="EX6" t="n">
-        <v>1645544204</v>
+        <v>1645626293</v>
       </c>
       <c r="EY6" t="n">
         <v>34464032</v>
@@ -5953,13 +5953,13 @@
         <v>2</v>
       </c>
       <c r="IV6" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="IW6" t="n">
         <v>24659539</v>
       </c>
       <c r="IX6" t="n">
-        <v>18484805</v>
+        <v>17950003</v>
       </c>
       <c r="IY6" t="n">
         <v>-1</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
         <v>1.04</v>
       </c>
       <c r="H8" t="n">
-        <v>-71</v>
+        <v>-72</v>
       </c>
       <c r="I8" t="n">
         <v>4.09</v>
@@ -6879,16 +6879,16 @@
         <v>-79.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0.25</v>
+        <v>-0.73</v>
       </c>
       <c r="W8" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="X8" t="n">
         <v>-1</v>
@@ -6900,7 +6900,7 @@
         <v>846913</v>
       </c>
       <c r="AA8" t="n">
-        <v>36013924</v>
+        <v>34500732</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -7260,10 +7260,10 @@
         </is>
       </c>
       <c r="EK8" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="EL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
         <v>1</v>
@@ -7278,10 +7278,10 @@
         <v>2</v>
       </c>
       <c r="EQ8" t="n">
-        <v>38999</v>
+        <v>284727</v>
       </c>
       <c r="ER8" t="n">
-        <v>296937</v>
+        <v>265045</v>
       </c>
       <c r="ES8" t="inlineStr">
         <is>
@@ -7298,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>30263802</v>
+        <v>30263800</v>
       </c>
       <c r="EX8" t="n">
-        <v>1645544213</v>
+        <v>1645626302</v>
       </c>
       <c r="EY8" t="n">
         <v>30467000</v>
@@ -7647,16 +7647,16 @@
         <v>1</v>
       </c>
       <c r="IV8" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="IW8" t="n">
         <v>37711000</v>
       </c>
       <c r="IX8" t="n">
-        <v>1127924</v>
+        <v>-385268</v>
       </c>
       <c r="IY8" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
@@ -9842,7 +9842,7 @@
         <v>38720601</v>
       </c>
       <c r="EX11" t="n">
-        <v>1645544215</v>
+        <v>1645626304</v>
       </c>
       <c r="EY11" t="n">
         <v>1376900000</v>
@@ -10222,16 +10222,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.96</v>
+        <v>3.93</v>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" t="n">
         <v>3.48</v>
       </c>
       <c r="H12" t="n">
-        <v>-77</v>
+        <v>-78</v>
       </c>
       <c r="I12" t="n">
         <v>17.5</v>
@@ -10288,7 +10288,7 @@
         <v>1673481</v>
       </c>
       <c r="AA12" t="n">
-        <v>199506784</v>
+        <v>197995376</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="EK12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="EL12" t="n">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>10</v>
       </c>
       <c r="EQ12" t="n">
-        <v>252914</v>
+        <v>474447</v>
       </c>
       <c r="ER12" t="n">
-        <v>548139</v>
+        <v>539090</v>
       </c>
       <c r="ES12" t="inlineStr">
         <is>
@@ -10683,13 +10683,13 @@
         <v>4</v>
       </c>
       <c r="EV12" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="EW12" t="n">
-        <v>50380501</v>
+        <v>50380503</v>
       </c>
       <c r="EX12" t="n">
-        <v>1645544221</v>
+        <v>1645626309</v>
       </c>
       <c r="EY12" t="n">
         <v>1887386</v>
@@ -11041,7 +11041,7 @@
         <v>-12866142</v>
       </c>
       <c r="IX12" t="n">
-        <v>245530086</v>
+        <v>244018678</v>
       </c>
       <c r="IY12" t="n">
         <v>-18</v>

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -2219,7 +2219,7 @@
         <v>2725010</v>
       </c>
       <c r="EX2" t="n">
-        <v>1645626302</v>
+        <v>1645641883</v>
       </c>
       <c r="EY2" t="n">
         <v>11768000</v>
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="F3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" t="n">
         <v>1.57</v>
@@ -2620,7 +2620,7 @@
         <v>-206</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.29</v>
+        <v>-0.3</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>0.41</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.71</v>
+        <v>-0.72</v>
       </c>
       <c r="W3" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="X3" t="n">
         <v>-1</v>
@@ -2665,7 +2665,7 @@
         <v>788611</v>
       </c>
       <c r="AA3" t="n">
-        <v>22257454</v>
+        <v>22152466</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -3025,10 +3025,10 @@
         </is>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM3" t="n">
         <v>2</v>
@@ -3043,7 +3043,7 @@
         <v>3</v>
       </c>
       <c r="EQ3" t="n">
-        <v>38122</v>
+        <v>27999</v>
       </c>
       <c r="ER3" t="n">
         <v>97822</v>
@@ -3066,7 +3066,7 @@
         <v>10498799</v>
       </c>
       <c r="EX3" t="n">
-        <v>1645626305</v>
+        <v>1645641887</v>
       </c>
       <c r="EY3" t="n">
         <v>402446</v>
@@ -3418,7 +3418,7 @@
         <v>13845851</v>
       </c>
       <c r="IX3" t="n">
-        <v>9193061</v>
+        <v>9088073</v>
       </c>
       <c r="IY3" t="n">
         <v>-1</v>
@@ -4293,16 +4293,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>24.54</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
         <v>23.29</v>
       </c>
       <c r="H5" t="n">
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="I5" t="n">
         <v>29.2</v>
@@ -4314,7 +4314,7 @@
         <v>-21</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.36</v>
+        <v>-0.37</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -4338,7 +4338,7 @@
         <v>-96.51000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U5" t="n">
         <v>0.87</v>
@@ -4347,7 +4347,7 @@
         <v>-0.42</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.47</v>
+        <v>-0.48</v>
       </c>
       <c r="X5" t="n">
         <v>-5</v>
@@ -4359,7 +4359,7 @@
         <v>1679063</v>
       </c>
       <c r="AA5" t="n">
-        <v>87756496</v>
+        <v>86133352</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -4719,13 +4719,13 @@
         </is>
       </c>
       <c r="EK5" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="EN5" t="n">
         <v>25</v>
@@ -4737,7 +4737,7 @@
         <v>27</v>
       </c>
       <c r="EQ5" t="n">
-        <v>5722</v>
+        <v>6663</v>
       </c>
       <c r="ER5" t="n">
         <v>5654</v>
@@ -4760,7 +4760,7 @@
         <v>3510260</v>
       </c>
       <c r="EX5" t="n">
-        <v>1645626287</v>
+        <v>1645641866</v>
       </c>
       <c r="EY5" t="n">
         <v>55363906</v>
@@ -5106,13 +5106,13 @@
         <v>16</v>
       </c>
       <c r="IV5" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="IW5" t="n">
         <v>-41463906</v>
       </c>
       <c r="IX5" t="n">
-        <v>76139361</v>
+        <v>74516217</v>
       </c>
       <c r="IY5" t="n">
         <v>-2</v>
@@ -5140,16 +5140,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G6" t="n">
         <v>0.8</v>
       </c>
       <c r="H6" t="n">
-        <v>-87</v>
+        <v>-88</v>
       </c>
       <c r="I6" t="n">
         <v>7.34</v>
@@ -5161,7 +5161,7 @@
         <v>-25</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.09</v>
+        <v>-1.11</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -5185,16 +5185,16 @@
         <v>-208.57</v>
       </c>
       <c r="T6" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="U6" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="V6" t="n">
-        <v>-1.7</v>
+        <v>-1.75</v>
       </c>
       <c r="W6" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="X6" t="n">
         <v>-5</v>
@@ -5206,7 +5206,7 @@
         <v>1092662</v>
       </c>
       <c r="AA6" t="n">
-        <v>28032080</v>
+        <v>27494270</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="EK6" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="EL6" t="n">
         <v>-0</v>
@@ -5584,7 +5584,7 @@
         <v>2</v>
       </c>
       <c r="EQ6" t="n">
-        <v>409663</v>
+        <v>100451</v>
       </c>
       <c r="ER6" t="n">
         <v>1132073</v>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>30045102</v>
+        <v>30045099</v>
       </c>
       <c r="EX6" t="n">
-        <v>1645626293</v>
+        <v>1645641874</v>
       </c>
       <c r="EY6" t="n">
         <v>34464032</v>
@@ -5953,13 +5953,13 @@
         <v>2</v>
       </c>
       <c r="IV6" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="IW6" t="n">
         <v>24659539</v>
       </c>
       <c r="IX6" t="n">
-        <v>17950003</v>
+        <v>17412193</v>
       </c>
       <c r="IY6" t="n">
         <v>-1</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
         <v>1.04</v>
       </c>
       <c r="H8" t="n">
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="I8" t="n">
         <v>4.09</v>
@@ -6879,16 +6879,16 @@
         <v>-79.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.73</v>
+        <v>0.54</v>
       </c>
       <c r="W8" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="X8" t="n">
         <v>-1</v>
@@ -6900,7 +6900,7 @@
         <v>846913</v>
       </c>
       <c r="AA8" t="n">
-        <v>34500732</v>
+        <v>35408644</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -7260,10 +7260,10 @@
         </is>
       </c>
       <c r="EK8" t="n">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="EL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM8" t="n">
         <v>1</v>
@@ -7278,7 +7278,7 @@
         <v>2</v>
       </c>
       <c r="EQ8" t="n">
-        <v>284727</v>
+        <v>143480</v>
       </c>
       <c r="ER8" t="n">
         <v>265045</v>
@@ -7298,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>30263800</v>
+        <v>30263798</v>
       </c>
       <c r="EX8" t="n">
-        <v>1645626302</v>
+        <v>1645641883</v>
       </c>
       <c r="EY8" t="n">
         <v>30467000</v>
@@ -7647,16 +7647,16 @@
         <v>1</v>
       </c>
       <c r="IV8" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="IW8" t="n">
         <v>37711000</v>
       </c>
       <c r="IX8" t="n">
-        <v>-385268</v>
+        <v>522644</v>
       </c>
       <c r="IY8" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -9842,7 +9842,7 @@
         <v>38720601</v>
       </c>
       <c r="EX11" t="n">
-        <v>1645626304</v>
+        <v>1645641885</v>
       </c>
       <c r="EY11" t="n">
         <v>1376900000</v>
@@ -10222,16 +10222,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.93</v>
+        <v>3.65</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
         <v>3.48</v>
       </c>
       <c r="H12" t="n">
-        <v>-78</v>
+        <v>-79</v>
       </c>
       <c r="I12" t="n">
         <v>17.5</v>
@@ -10267,16 +10267,16 @@
         <v>-121.2</v>
       </c>
       <c r="T12" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="U12" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="V12" t="n">
         <v>-0.06</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -10288,7 +10288,7 @@
         <v>1673481</v>
       </c>
       <c r="AA12" t="n">
-        <v>197995376</v>
+        <v>183888832</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -10648,10 +10648,10 @@
         </is>
       </c>
       <c r="EK12" t="n">
-        <v>9</v>
+        <v>-7</v>
       </c>
       <c r="EL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM12" t="n">
         <v>4</v>
@@ -10666,7 +10666,7 @@
         <v>10</v>
       </c>
       <c r="EQ12" t="n">
-        <v>474447</v>
+        <v>113605</v>
       </c>
       <c r="ER12" t="n">
         <v>539090</v>
@@ -10683,13 +10683,13 @@
         <v>4</v>
       </c>
       <c r="EV12" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="EW12" t="n">
-        <v>50380503</v>
+        <v>50380502</v>
       </c>
       <c r="EX12" t="n">
-        <v>1645626309</v>
+        <v>1645641891</v>
       </c>
       <c r="EY12" t="n">
         <v>1887386</v>
@@ -11035,16 +11035,16 @@
         <v>0</v>
       </c>
       <c r="IV12" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="IW12" t="n">
         <v>-12866142</v>
       </c>
       <c r="IX12" t="n">
-        <v>244018678</v>
+        <v>229912134</v>
       </c>
       <c r="IY12" t="n">
-        <v>-18</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="13">

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -1752,16 +1752,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.76</v>
+        <v>2.6</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>2.6</v>
       </c>
       <c r="H2" t="n">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="I2" t="n">
         <v>5</v>
@@ -1773,7 +1773,7 @@
         <v>-15</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.32</v>
+        <v>-0.34</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -1797,16 +1797,16 @@
         <v>15.22</v>
       </c>
       <c r="T2" t="n">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="U2" t="n">
         <v>0.96</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.33</v>
+        <v>-0.35</v>
       </c>
       <c r="W2" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="X2" t="n">
         <v>-12</v>
@@ -1818,7 +1818,7 @@
         <v>719274</v>
       </c>
       <c r="AA2" t="n">
-        <v>7526478</v>
+        <v>7085025</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         </is>
       </c>
       <c r="EK2" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
         <v>3</v>
@@ -2196,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="EQ2" t="n">
-        <v>200</v>
+        <v>4629</v>
       </c>
       <c r="ER2" t="n">
-        <v>3036</v>
+        <v>2908</v>
       </c>
       <c r="ES2" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>2725010</v>
       </c>
       <c r="EX2" t="n">
-        <v>1645641883</v>
+        <v>1646156195</v>
       </c>
       <c r="EY2" t="n">
         <v>11768000</v>
@@ -2565,13 +2565,13 @@
         <v>1</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="IW2" t="n">
         <v>3374000</v>
       </c>
       <c r="IX2" t="n">
-        <v>7210478</v>
+        <v>6769025</v>
       </c>
       <c r="IY2" t="n">
         <v>-3</v>
@@ -2599,16 +2599,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G3" t="n">
         <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>-78</v>
+        <v>-77</v>
       </c>
       <c r="I3" t="n">
         <v>9.75</v>
@@ -2620,7 +2620,7 @@
         <v>-206</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.3</v>
+        <v>-0.28</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>-87.22</v>
       </c>
       <c r="T3" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="U3" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.72</v>
+        <v>-0.65</v>
       </c>
       <c r="W3" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="X3" t="n">
         <v>-1</v>
@@ -2665,7 +2665,7 @@
         <v>788611</v>
       </c>
       <c r="AA3" t="n">
-        <v>22152466</v>
+        <v>23097360</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="EK3" t="n">
-        <v>-0</v>
+        <v>-4</v>
       </c>
       <c r="EL3" t="n">
         <v>-0</v>
@@ -3043,10 +3043,10 @@
         <v>3</v>
       </c>
       <c r="EQ3" t="n">
-        <v>27999</v>
+        <v>25928</v>
       </c>
       <c r="ER3" t="n">
-        <v>97822</v>
+        <v>95086</v>
       </c>
       <c r="ES3" t="inlineStr">
         <is>
@@ -3063,10 +3063,10 @@
         <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>10498799</v>
+        <v>10498800</v>
       </c>
       <c r="EX3" t="n">
-        <v>1645641887</v>
+        <v>1646156198</v>
       </c>
       <c r="EY3" t="n">
         <v>402446</v>
@@ -3412,16 +3412,16 @@
         <v>1</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="IW3" t="n">
         <v>13845851</v>
       </c>
       <c r="IX3" t="n">
-        <v>9088073</v>
+        <v>10032967</v>
       </c>
       <c r="IY3" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="4">
@@ -3464,7 +3464,7 @@
         <v>-79</v>
       </c>
       <c r="K4" t="n">
-        <v>-126</v>
+        <v>-19</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3473,13 +3473,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>90.13</v>
+        <v>-134.48</v>
       </c>
       <c r="O4" t="n">
-        <v>2.9</v>
+        <v>-129.82</v>
       </c>
       <c r="P4" t="n">
-        <v>3747.8</v>
+        <v>-1896.09</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -3503,10 +3503,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>-52</v>
+        <v>-150</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="Z4" t="n">
         <v>1779128</v>
@@ -3973,112 +3973,112 @@
         <v>-10818000</v>
       </c>
       <c r="FR4" t="n">
+        <v>24618000</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>14516000</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>2595000</v>
+      </c>
+      <c r="FU4" t="n">
+        <v>294945000</v>
+      </c>
+      <c r="FV4" t="n">
+        <v>5976000</v>
+      </c>
+      <c r="FW4" t="n">
+        <v>12783000</v>
+      </c>
+      <c r="FX4" t="n">
+        <v>44513000</v>
+      </c>
+      <c r="FY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ4" t="n">
+        <v>291371000</v>
+      </c>
+      <c r="GA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB4" t="n">
+        <v>716000</v>
+      </c>
+      <c r="GC4" t="n">
+        <v>-1879000</v>
+      </c>
+      <c r="GD4" t="n">
+        <v>-6016000</v>
+      </c>
+      <c r="GE4" t="n">
         <v>37575000</v>
       </c>
-      <c r="FS4" t="n">
+      <c r="GF4" t="n">
         <v>63571887</v>
       </c>
-      <c r="FT4" t="n">
+      <c r="GG4" t="n">
         <v>6952000</v>
       </c>
-      <c r="FU4" t="n">
+      <c r="GH4" t="n">
         <v>314447000</v>
       </c>
-      <c r="FV4" t="n">
+      <c r="GI4" t="n">
         <v>4654000</v>
       </c>
-      <c r="FW4" t="n">
+      <c r="GJ4" t="n">
         <v>9531000</v>
       </c>
-      <c r="FX4" t="n">
+      <c r="GK4" t="n">
         <v>52165000</v>
       </c>
-      <c r="FY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ4" t="n">
+      <c r="GL4" t="n">
         <v>291229000</v>
       </c>
-      <c r="GA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB4" t="n">
+      <c r="GM4" t="n">
         <v>1084000</v>
       </c>
-      <c r="GC4" t="n">
+      <c r="GN4" t="n">
         <v>-5868000</v>
       </c>
-      <c r="GD4" t="n">
+      <c r="GO4" t="n">
         <v>354697</v>
       </c>
-      <c r="GE4" t="n">
+      <c r="GP4" t="n">
         <v>12951000</v>
       </c>
-      <c r="GF4" t="n">
+      <c r="GQ4" t="n">
         <v>10812000</v>
       </c>
-      <c r="GG4" t="n">
-        <v>30003000</v>
-      </c>
-      <c r="GH4" t="n">
+      <c r="GR4" t="n">
         <v>342729000</v>
       </c>
-      <c r="GI4" t="n">
+      <c r="GS4" t="n">
         <v>5266000</v>
       </c>
-      <c r="GJ4" t="n">
+      <c r="GT4" t="n">
         <v>10557000</v>
       </c>
-      <c r="GK4" t="n">
+      <c r="GU4" t="n">
         <v>49451000</v>
       </c>
-      <c r="GL4" t="n">
+      <c r="GV4" t="n">
         <v>296698000</v>
       </c>
-      <c r="GM4" t="n">
-        <v>428000</v>
-      </c>
-      <c r="GN4" t="n">
+      <c r="GW4" t="n">
         <v>-29575000</v>
       </c>
-      <c r="GO4" t="n">
+      <c r="GX4" t="n">
         <v>-9464</v>
       </c>
-      <c r="GP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>235113</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>608720</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>1538555</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>48780223</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>229975972</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>-485220</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>-360848</v>
-      </c>
       <c r="GY4" t="n">
-        <v>50526000</v>
+        <v>75144000</v>
       </c>
       <c r="GZ4" t="n">
-        <v>-394022</v>
+        <v>-6031615</v>
       </c>
       <c r="HA4" t="n">
-        <v>-297</v>
+        <v>-224297</v>
       </c>
       <c r="HB4" t="n">
         <v>6</v>
@@ -4220,40 +4220,40 @@
         <v>0</v>
       </c>
       <c r="II4" t="n">
+        <v>1322000</v>
+      </c>
+      <c r="IJ4" t="n">
         <v>-612000</v>
       </c>
-      <c r="IJ4" t="n">
-        <v>5266000</v>
-      </c>
       <c r="IK4" t="n">
+        <v>25940000</v>
+      </c>
+      <c r="IL4" t="n">
         <v>36963000</v>
       </c>
-      <c r="IL4" t="n">
-        <v>18217000</v>
-      </c>
       <c r="IM4" t="n">
-        <v>0</v>
+        <v>24618000</v>
       </c>
       <c r="IN4" t="n">
         <v>0</v>
       </c>
       <c r="IO4" t="n">
-        <v>0</v>
+        <v>3704930</v>
       </c>
       <c r="IP4" t="n">
-        <v>-297</v>
+        <v>-3929227</v>
       </c>
       <c r="IQ4" t="n">
         <v>0</v>
       </c>
       <c r="IR4" t="n">
-        <v>-394319</v>
+        <v>-9960842</v>
       </c>
       <c r="IS4" t="n">
         <v>0</v>
       </c>
       <c r="IT4" t="n">
-        <v>304916000</v>
+        <v>282162000</v>
       </c>
       <c r="IU4" t="n">
         <v>0</v>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="IW4" t="n">
-        <v>262282000</v>
+        <v>250432000</v>
       </c>
       <c r="IX4" t="n">
         <v>0</v>
@@ -4293,16 +4293,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24.54</v>
+        <v>24.95</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
         <v>23.29</v>
       </c>
       <c r="H5" t="n">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="I5" t="n">
         <v>29.2</v>
@@ -4314,7 +4314,7 @@
         <v>-21</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.37</v>
+        <v>-0.36</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -4338,7 +4338,7 @@
         <v>-96.51000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="U5" t="n">
         <v>0.87</v>
@@ -4347,7 +4347,7 @@
         <v>-0.42</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.48</v>
+        <v>-0.47</v>
       </c>
       <c r="X5" t="n">
         <v>-5</v>
@@ -4359,7 +4359,7 @@
         <v>1679063</v>
       </c>
       <c r="AA5" t="n">
-        <v>86133352</v>
+        <v>87580992</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -4719,13 +4719,13 @@
         </is>
       </c>
       <c r="EK5" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="EL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="EN5" t="n">
         <v>25</v>
@@ -4737,10 +4737,10 @@
         <v>27</v>
       </c>
       <c r="EQ5" t="n">
-        <v>6663</v>
+        <v>1491</v>
       </c>
       <c r="ER5" t="n">
-        <v>5654</v>
+        <v>6036</v>
       </c>
       <c r="ES5" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>3510260</v>
       </c>
       <c r="EX5" t="n">
-        <v>1645641866</v>
+        <v>1646156178</v>
       </c>
       <c r="EY5" t="n">
         <v>55363906</v>
@@ -5106,13 +5106,13 @@
         <v>16</v>
       </c>
       <c r="IV5" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="IW5" t="n">
         <v>-41463906</v>
       </c>
       <c r="IX5" t="n">
-        <v>74516217</v>
+        <v>75963857</v>
       </c>
       <c r="IY5" t="n">
         <v>-2</v>
@@ -5140,16 +5140,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.92</v>
+        <v>1.02</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G6" t="n">
         <v>0.8</v>
       </c>
       <c r="H6" t="n">
-        <v>-88</v>
+        <v>-86</v>
       </c>
       <c r="I6" t="n">
         <v>7.34</v>
@@ -5161,7 +5161,7 @@
         <v>-25</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.11</v>
+        <v>-1</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -5185,16 +5185,16 @@
         <v>-208.57</v>
       </c>
       <c r="T6" t="n">
-        <v>1.74</v>
+        <v>1.56</v>
       </c>
       <c r="U6" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="V6" t="n">
-        <v>-1.75</v>
+        <v>-1.49</v>
       </c>
       <c r="W6" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="X6" t="n">
         <v>-5</v>
@@ -5206,7 +5206,7 @@
         <v>1092662</v>
       </c>
       <c r="AA6" t="n">
-        <v>27494270</v>
+        <v>30646002</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="EK6" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="EL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM6" t="n">
         <v>1</v>
@@ -5584,10 +5584,10 @@
         <v>2</v>
       </c>
       <c r="EQ6" t="n">
-        <v>100451</v>
+        <v>210639</v>
       </c>
       <c r="ER6" t="n">
-        <v>1132073</v>
+        <v>766696</v>
       </c>
       <c r="ES6" t="inlineStr">
         <is>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>30045099</v>
+        <v>30045100</v>
       </c>
       <c r="EX6" t="n">
-        <v>1645641874</v>
+        <v>1646156185</v>
       </c>
       <c r="EY6" t="n">
         <v>34464032</v>
@@ -5953,13 +5953,13 @@
         <v>2</v>
       </c>
       <c r="IV6" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="IW6" t="n">
         <v>24659539</v>
       </c>
       <c r="IX6" t="n">
-        <v>17412193</v>
+        <v>20563925</v>
       </c>
       <c r="IY6" t="n">
         <v>-1</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G8" t="n">
         <v>1.04</v>
       </c>
       <c r="H8" t="n">
-        <v>-71</v>
+        <v>-69</v>
       </c>
       <c r="I8" t="n">
         <v>4.09</v>
@@ -6879,16 +6879,16 @@
         <v>-79.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="V8" t="n">
-        <v>0.54</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W8" t="n">
-        <v>1.07</v>
+        <v>0.97</v>
       </c>
       <c r="X8" t="n">
         <v>-1</v>
@@ -6900,7 +6900,7 @@
         <v>846913</v>
       </c>
       <c r="AA8" t="n">
-        <v>35408644</v>
+        <v>38740692</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="EK8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EL8" t="n">
         <v>0</v>
@@ -7278,10 +7278,10 @@
         <v>2</v>
       </c>
       <c r="EQ8" t="n">
-        <v>143480</v>
+        <v>229289</v>
       </c>
       <c r="ER8" t="n">
-        <v>265045</v>
+        <v>239968</v>
       </c>
       <c r="ES8" t="inlineStr">
         <is>
@@ -7298,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>30263798</v>
+        <v>30263801</v>
       </c>
       <c r="EX8" t="n">
-        <v>1645641883</v>
+        <v>1646156195</v>
       </c>
       <c r="EY8" t="n">
         <v>30467000</v>
@@ -7647,16 +7647,16 @@
         <v>1</v>
       </c>
       <c r="IV8" t="n">
-        <v>1.08</v>
+        <v>0.99</v>
       </c>
       <c r="IW8" t="n">
         <v>37711000</v>
       </c>
       <c r="IX8" t="n">
-        <v>522644</v>
+        <v>3854692</v>
       </c>
       <c r="IY8" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -9842,7 +9842,7 @@
         <v>38720601</v>
       </c>
       <c r="EX11" t="n">
-        <v>1645641885</v>
+        <v>1646156197</v>
       </c>
       <c r="EY11" t="n">
         <v>1376900000</v>
@@ -10222,16 +10222,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>3.48</v>
+        <v>3.34</v>
       </c>
       <c r="H12" t="n">
-        <v>-79</v>
+        <v>-77</v>
       </c>
       <c r="I12" t="n">
         <v>17.5</v>
@@ -10267,16 +10267,16 @@
         <v>-121.2</v>
       </c>
       <c r="T12" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="U12" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="V12" t="n">
         <v>-0.06</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -10288,7 +10288,7 @@
         <v>1673481</v>
       </c>
       <c r="AA12" t="n">
-        <v>183888832</v>
+        <v>201522000</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -10648,10 +10648,10 @@
         </is>
       </c>
       <c r="EK12" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="EL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM12" t="n">
         <v>4</v>
@@ -10666,10 +10666,10 @@
         <v>10</v>
       </c>
       <c r="EQ12" t="n">
-        <v>113605</v>
+        <v>70488</v>
       </c>
       <c r="ER12" t="n">
-        <v>539090</v>
+        <v>483841</v>
       </c>
       <c r="ES12" t="inlineStr">
         <is>
@@ -10683,13 +10683,13 @@
         <v>4</v>
       </c>
       <c r="EV12" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="EW12" t="n">
-        <v>50380502</v>
+        <v>50380500</v>
       </c>
       <c r="EX12" t="n">
-        <v>1645641891</v>
+        <v>1646156202</v>
       </c>
       <c r="EY12" t="n">
         <v>1887386</v>
@@ -11035,16 +11035,16 @@
         <v>0</v>
       </c>
       <c r="IV12" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="IW12" t="n">
         <v>-12866142</v>
       </c>
       <c r="IX12" t="n">
-        <v>229912134</v>
+        <v>247545302</v>
       </c>
       <c r="IY12" t="n">
-        <v>-17</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="13">

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -1752,16 +1752,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>2.6</v>
       </c>
       <c r="H2" t="n">
-        <v>-48</v>
+        <v>-47</v>
       </c>
       <c r="I2" t="n">
         <v>5</v>
@@ -1773,7 +1773,7 @@
         <v>-15</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.34</v>
+        <v>-0.33</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -1797,7 +1797,7 @@
         <v>15.22</v>
       </c>
       <c r="T2" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="U2" t="n">
         <v>0.96</v>
@@ -1806,7 +1806,7 @@
         <v>-0.35</v>
       </c>
       <c r="W2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="X2" t="n">
         <v>-12</v>
@@ -1818,7 +1818,7 @@
         <v>719274</v>
       </c>
       <c r="AA2" t="n">
-        <v>7085025</v>
+        <v>7194026</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>8506</v>
+        <v>8540</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
@@ -1878,10 +1878,10 @@
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>3873000</v>
       </c>
       <c r="AR2" t="n">
-        <v>3873000</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
         <v>6026000</v>
@@ -1911,7 +1911,7 @@
         <v>-0</v>
       </c>
       <c r="BB2" t="n">
-        <v>-694000</v>
+        <v>694000</v>
       </c>
       <c r="BC2" t="n">
         <v>-391000</v>
@@ -2178,10 +2178,10 @@
         </is>
       </c>
       <c r="EK2" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM2" t="n">
         <v>3</v>
@@ -2196,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="EQ2" t="n">
-        <v>4629</v>
+        <v>640</v>
       </c>
       <c r="ER2" t="n">
-        <v>2908</v>
+        <v>2656</v>
       </c>
       <c r="ES2" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>2725010</v>
       </c>
       <c r="EX2" t="n">
-        <v>1646156195</v>
+        <v>1646747102</v>
       </c>
       <c r="EY2" t="n">
         <v>11768000</v>
@@ -2393,17 +2393,17 @@
         <v>1</v>
       </c>
       <c r="HD2" t="n">
-        <v>3038</v>
+        <v>2656</v>
       </c>
       <c r="HE2" t="n">
-        <v>7521027</v>
+        <v>7194026</v>
       </c>
       <c r="HF2" t="n">
         <v>0</v>
       </c>
       <c r="HG2" t="inlineStr">
         <is>
-          <t>2.75-5.5</t>
+          <t>2.6-5.0</t>
         </is>
       </c>
       <c r="HH2" t="n">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="HL2" t="inlineStr">
         <is>
-          <t>MUTUAL_FUND</t>
+          <t>OTC</t>
         </is>
       </c>
       <c r="HM2" t="inlineStr">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="HY2" t="inlineStr">
         <is>
-          <t>https://fmpcloud.io/image-stock/GIGA.png</t>
+          <t>https://financialmodelingprep.com/image-stock/GIGA.png</t>
         </is>
       </c>
       <c r="HZ2" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="IC2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="ID2" t="inlineStr">
@@ -2571,7 +2571,7 @@
         <v>3374000</v>
       </c>
       <c r="IX2" t="n">
-        <v>6769025</v>
+        <v>6878026</v>
       </c>
       <c r="IY2" t="n">
         <v>-3</v>
@@ -2599,16 +2599,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.2</v>
+        <v>1.97</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
         <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>-77</v>
+        <v>-80</v>
       </c>
       <c r="I3" t="n">
         <v>9.75</v>
@@ -2620,7 +2620,7 @@
         <v>-206</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.28</v>
+        <v>-0.32</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>-87.22</v>
       </c>
       <c r="T3" t="n">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="U3" t="n">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.65</v>
+        <v>-0.86</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="X3" t="n">
         <v>-1</v>
@@ -2665,7 +2665,7 @@
         <v>788611</v>
       </c>
       <c r="AA3" t="n">
-        <v>23097360</v>
+        <v>20682636</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>2678</v>
+        <v>2694</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
@@ -2755,10 +2755,10 @@
         <v>-5547111</v>
       </c>
       <c r="BA3" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="BB3" t="n">
-        <v>-346972</v>
+        <v>346972</v>
       </c>
       <c r="BC3" t="n">
         <v>-5200139</v>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="EK3" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="EL3" t="n">
         <v>-0</v>
@@ -3043,10 +3043,10 @@
         <v>3</v>
       </c>
       <c r="EQ3" t="n">
-        <v>25928</v>
+        <v>24803</v>
       </c>
       <c r="ER3" t="n">
-        <v>95086</v>
+        <v>88671</v>
       </c>
       <c r="ES3" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>10498800</v>
       </c>
       <c r="EX3" t="n">
-        <v>1646156198</v>
+        <v>1646747105</v>
       </c>
       <c r="EY3" t="n">
         <v>402446</v>
@@ -3240,10 +3240,10 @@
         <v>1</v>
       </c>
       <c r="HD3" t="n">
-        <v>126416</v>
+        <v>88671</v>
       </c>
       <c r="HE3" t="n">
-        <v>19422780</v>
+        <v>20682636</v>
       </c>
       <c r="HF3" t="n">
         <v>0</v>
@@ -3254,7 +3254,7 @@
         </is>
       </c>
       <c r="HH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="HI3" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="HY3" t="inlineStr">
         <is>
-          <t>https://fmpcloud.io/image-stock/SGLB.png</t>
+          <t>https://financialmodelingprep.com/image-stock/SGLB.png</t>
         </is>
       </c>
       <c r="HZ3" t="inlineStr">
@@ -3412,16 +3412,16 @@
         <v>1</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.61</v>
+        <v>0.68</v>
       </c>
       <c r="IW3" t="n">
         <v>13845851</v>
       </c>
       <c r="IX3" t="n">
-        <v>10032967</v>
+        <v>7618243</v>
       </c>
       <c r="IY3" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>11967</v>
+        <v>12006</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
@@ -4293,16 +4293,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24.95</v>
+        <v>24.51</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
         <v>23.29</v>
       </c>
       <c r="H5" t="n">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="I5" t="n">
         <v>29.2</v>
@@ -4314,7 +4314,7 @@
         <v>-21</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.36</v>
+        <v>-0.37</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -4338,16 +4338,16 @@
         <v>-96.51000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="U5" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.42</v>
+        <v>-0.43</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.47</v>
+        <v>-0.48</v>
       </c>
       <c r="X5" t="n">
         <v>-5</v>
@@ -4359,7 +4359,7 @@
         <v>1679063</v>
       </c>
       <c r="AA5" t="n">
-        <v>87580992</v>
+        <v>86036472</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>10565</v>
+        <v>10601</v>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>-1</v>
       </c>
       <c r="BB5" t="n">
-        <v>1781442</v>
+        <v>-1781442</v>
       </c>
       <c r="BC5" t="n">
         <v>-40493178</v>
@@ -4719,10 +4719,10 @@
         </is>
       </c>
       <c r="EK5" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
         <v>25</v>
@@ -4737,10 +4737,10 @@
         <v>27</v>
       </c>
       <c r="EQ5" t="n">
-        <v>1491</v>
+        <v>4919</v>
       </c>
       <c r="ER5" t="n">
-        <v>6036</v>
+        <v>5903</v>
       </c>
       <c r="ES5" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>3510260</v>
       </c>
       <c r="EX5" t="n">
-        <v>1646156178</v>
+        <v>1646747087</v>
       </c>
       <c r="EY5" t="n">
         <v>55363906</v>
@@ -5106,13 +5106,13 @@
         <v>16</v>
       </c>
       <c r="IV5" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="IW5" t="n">
         <v>-41463906</v>
       </c>
       <c r="IX5" t="n">
-        <v>75963857</v>
+        <v>74419337</v>
       </c>
       <c r="IY5" t="n">
         <v>-2</v>
@@ -5140,73 +5140,73 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.02</v>
+        <v>0.77</v>
       </c>
       <c r="F6" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="H6" t="n">
-        <v>-86</v>
+        <v>-90</v>
       </c>
       <c r="I6" t="n">
         <v>7.34</v>
       </c>
       <c r="J6" t="n">
-        <v>-64</v>
+        <v>-68</v>
       </c>
       <c r="K6" t="n">
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="L6" t="n">
-        <v>-1</v>
+        <v>-1.31</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>30.95</v>
+        <v>13.01</v>
       </c>
       <c r="O6" t="n">
-        <v>21.76</v>
+        <v>21.62</v>
       </c>
       <c r="P6" t="n">
-        <v>-95.31</v>
+        <v>-81.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>-111.64</v>
+        <v>-42.97</v>
       </c>
       <c r="R6" t="n">
-        <v>-106.54</v>
+        <v>-55.29</v>
       </c>
       <c r="S6" t="n">
-        <v>-208.57</v>
+        <v>-163.53</v>
       </c>
       <c r="T6" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="U6" t="n">
-        <v>0.67</v>
+        <v>-1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>-1.49</v>
+        <v>0.79</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X6" t="n">
-        <v>-5</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.27</v>
+        <v>0.93</v>
       </c>
       <c r="Z6" t="n">
         <v>1092662</v>
       </c>
       <c r="AA6" t="n">
-        <v>30646002</v>
+        <v>23143812</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -5214,11 +5214,11 @@
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>11274</v>
+        <v>11312</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -5228,16 +5228,16 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>2021-03-11</t>
+          <t>2022-03-03</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>2021-03-11 17:22:22</t>
+          <t>2022-03-03 17:15:35</t>
         </is>
       </c>
       <c r="AH6" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
@@ -5245,320 +5245,320 @@
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>30451273</v>
+        <v>47818452</v>
       </c>
       <c r="AK6" t="n">
-        <v>23874487</v>
+        <v>34495802</v>
       </c>
       <c r="AL6" t="n">
-        <v>6576786</v>
+        <v>13322650</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>9508494</v>
+        <v>12487424</v>
       </c>
       <c r="AO6" t="n">
-        <v>21038</v>
+        <v>0</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>21038</v>
+        <v>24840611</v>
       </c>
       <c r="AR6" t="n">
-        <v>18997739</v>
+        <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>28527271</v>
+        <v>37328035</v>
       </c>
       <c r="AT6" t="n">
-        <v>52401758</v>
+        <v>71823837</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>2841830</v>
+        <v>-2912415</v>
       </c>
       <c r="AW6" t="n">
-        <v>2697126</v>
+        <v>2930976</v>
       </c>
       <c r="AX6" t="n">
-        <v>-20439166</v>
+        <v>-33822918</v>
       </c>
       <c r="AY6" t="n">
         <v>-1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-21950485</v>
+        <v>-31053164</v>
       </c>
       <c r="BA6" t="n">
         <v>-1</v>
       </c>
       <c r="BB6" t="n">
-        <v>4027637</v>
+        <v>-2912415</v>
       </c>
       <c r="BC6" t="n">
-        <v>-25978122</v>
+        <v>-33965579</v>
       </c>
       <c r="BD6" t="n">
         <v>-1</v>
       </c>
       <c r="BE6" t="n">
-        <v>-456794</v>
+        <v>62050</v>
       </c>
       <c r="BF6" t="n">
-        <v>-25521328</v>
+        <v>-33903529</v>
       </c>
       <c r="BG6" t="n">
         <v>-1</v>
       </c>
       <c r="BH6" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="BI6" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="BJ6" t="n">
-        <v>20104547</v>
+        <v>26701546</v>
       </c>
       <c r="BK6" t="n">
-        <v>20104547</v>
+        <v>26701546</v>
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>https://www.sec.gov/Archives/edgar/data/1092662/000114036121008210/0001140361-21-008210-index.htm</t>
+          <t>https://www.sec.gov/Archives/edgar/data/1092662/000114036122007735/0001140361-22-007735-index.htm</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>https://www.sec.gov/Archives/edgar/data/1092662/000114036121008210/brhc10021388_10k.htm</t>
+          <t>https://www.sec.gov/Archives/edgar/data/1092662/000114036122007735/brhc10034606_10k.htm</t>
         </is>
       </c>
       <c r="BN6" t="n">
+        <v>28772892</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>28772892</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>11441107</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>12920451</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>1710194</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>54844644</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>8748643</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>3022787</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>3022787</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>-57867431</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>-46096001</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>8748643</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>1840764</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>13441699</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>15282463</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>29680983</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>-5976151</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>23704832</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>38987295</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>301050</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>-131009860</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>-592372</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>165566082</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>34264900</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>-64503552</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>-30238652</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>73252195</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>8748643</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>31521747</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>2748855</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>-69941</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>2431982</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>12174532</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>-8009969</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>3085205</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>39562181</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>-14449736</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>-30885716</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>-1857683</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>-1857683</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>-61867</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>38811958</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>-59670</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>38690421</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>-240431</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>5706591</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>28772892</v>
+      </c>
+      <c r="EC6" t="n">
         <v>23066301</v>
       </c>
-      <c r="BO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>23066301</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>3377387</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>12516402</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>778683</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>39738773</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>15034169</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>5963744</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>3645986</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>9609730</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>509342</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>25153241</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>64892014</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>5727781</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>701337</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>1606997</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>4315009</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>12351124</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>18182158</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>69941</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>6512382</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>24764481</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>7213719</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>37115605</v>
-      </c>
-      <c r="CS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>202235</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>-97106331</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>-90916</v>
-      </c>
-      <c r="CW6" t="n">
-        <v>124771421</v>
-      </c>
-      <c r="CX6" t="n">
-        <v>27776409</v>
-      </c>
-      <c r="CY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ6" t="n">
-        <v>27776409</v>
-      </c>
-      <c r="DA6" t="n">
-        <v>64892014</v>
-      </c>
-      <c r="DB6" t="n">
-        <v>64892014</v>
-      </c>
-      <c r="DC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD6" t="n">
-        <v>18883495</v>
-      </c>
-      <c r="DE6" t="n">
-        <v>-4182806</v>
-      </c>
-      <c r="DF6" t="n">
-        <v>-396385</v>
-      </c>
-      <c r="DG6" t="n">
-        <v>1223171</v>
-      </c>
-      <c r="DH6" t="n">
-        <v>1605609</v>
-      </c>
-      <c r="DI6" t="n">
-        <v>283939</v>
-      </c>
-      <c r="DJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK6" t="n">
-        <v>27387649</v>
-      </c>
-      <c r="DL6" t="n">
-        <v>1504569</v>
-      </c>
-      <c r="DM6" t="n">
-        <v>-18887238</v>
-      </c>
-      <c r="DN6" t="n">
-        <v>-3961369</v>
-      </c>
-      <c r="DO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR6" t="n">
-        <v>-205493</v>
-      </c>
-      <c r="DS6" t="n">
-        <v>-4166862</v>
-      </c>
-      <c r="DT6" t="n">
-        <v>-3209730</v>
-      </c>
-      <c r="DU6" t="n">
-        <v>28436740</v>
-      </c>
-      <c r="DV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX6" t="n">
-        <v>2536592</v>
-      </c>
-      <c r="DY6" t="n">
-        <v>27763602</v>
-      </c>
-      <c r="DZ6" t="n">
-        <v>85447</v>
-      </c>
-      <c r="EA6" t="n">
-        <v>4794949</v>
-      </c>
-      <c r="EB6" t="n">
-        <v>23066301</v>
-      </c>
-      <c r="EC6" t="n">
-        <v>18271352</v>
-      </c>
       <c r="ED6" t="n">
-        <v>-18887238</v>
+        <v>-30885716</v>
       </c>
       <c r="EE6" t="n">
-        <v>-4166862</v>
+        <v>0</v>
       </c>
       <c r="EF6" t="n">
-        <v>-23054100</v>
+        <v>-30885716</v>
       </c>
       <c r="EG6" t="n">
-        <v>28041765</v>
+        <v>34031687</v>
       </c>
       <c r="EH6" t="n">
-        <v>18006942</v>
+        <v>23022601</v>
       </c>
       <c r="EI6" t="n">
-        <v>6940261</v>
+        <v>8348125</v>
       </c>
       <c r="EJ6" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="EK6" t="n">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
         <v>1</v>
@@ -5584,10 +5584,10 @@
         <v>2</v>
       </c>
       <c r="EQ6" t="n">
-        <v>210639</v>
+        <v>576805</v>
       </c>
       <c r="ER6" t="n">
-        <v>766696</v>
+        <v>719496</v>
       </c>
       <c r="ES6" t="inlineStr">
         <is>
@@ -5604,175 +5604,175 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>30045100</v>
+        <v>30056899</v>
       </c>
       <c r="EX6" t="n">
-        <v>1646156185</v>
+        <v>1646747094</v>
       </c>
       <c r="EY6" t="n">
+        <v>30451273</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>28527271</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>23066301</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>39738773</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>1606997</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>12351124</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>37115605</v>
+      </c>
+      <c r="FF6" t="n">
+        <v>27776409</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>-4182806</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>-18887238</v>
+      </c>
+      <c r="FI6" t="n">
         <v>34464032</v>
       </c>
-      <c r="EZ6" t="n">
+      <c r="FJ6" t="n">
         <v>24676840</v>
       </c>
-      <c r="FA6" t="n">
+      <c r="FK6" t="n">
         <v>18271352</v>
       </c>
-      <c r="FB6" t="n">
+      <c r="FL6" t="n">
         <v>32223720</v>
       </c>
-      <c r="FC6" t="n">
+      <c r="FM6" t="n">
         <v>125000</v>
       </c>
-      <c r="FD6" t="n">
+      <c r="FN6" t="n">
         <v>6441680</v>
       </c>
-      <c r="FE6" t="n">
+      <c r="FO6" t="n">
         <v>31693711</v>
       </c>
-      <c r="FF6" t="n">
+      <c r="FP6" t="n">
         <v>24035253</v>
       </c>
-      <c r="FG6" t="n">
-        <v>163234</v>
-      </c>
-      <c r="FH6" t="n">
+      <c r="FQ6" t="n">
         <v>-9055506</v>
       </c>
-      <c r="FI6" t="n">
-        <v>33409251</v>
-      </c>
-      <c r="FJ6" t="n">
-        <v>19627031</v>
-      </c>
-      <c r="FK6" t="n">
-        <v>12524551</v>
-      </c>
-      <c r="FL6" t="n">
-        <v>28451754</v>
-      </c>
-      <c r="FM6" t="n">
-        <v>422905</v>
-      </c>
-      <c r="FN6" t="n">
-        <v>6519280</v>
-      </c>
-      <c r="FO6" t="n">
-        <v>7583409</v>
-      </c>
-      <c r="FP6" t="n">
-        <v>33327774</v>
-      </c>
-      <c r="FQ6" t="n">
-        <v>-11781441</v>
-      </c>
       <c r="FR6" t="n">
+        <v>20573539</v>
+      </c>
+      <c r="FS6" t="n">
+        <v>10191924</v>
+      </c>
+      <c r="FT6" t="n">
+        <v>28772892</v>
+      </c>
+      <c r="FU6" t="n">
+        <v>54844644</v>
+      </c>
+      <c r="FV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW6" t="n">
+        <v>15282463</v>
+      </c>
+      <c r="FX6" t="n">
+        <v>38987295</v>
+      </c>
+      <c r="FY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ6" t="n">
+        <v>34264900</v>
+      </c>
+      <c r="GA6" t="n">
+        <v>-64503552</v>
+      </c>
+      <c r="GB6" t="n">
+        <v>31521747</v>
+      </c>
+      <c r="GC6" t="n">
+        <v>2748855</v>
+      </c>
+      <c r="GD6" t="n">
+        <v>-6735232</v>
+      </c>
+      <c r="GE6" t="n">
         <v>9658444</v>
       </c>
-      <c r="FS6" t="n">
+      <c r="GF6" t="n">
         <v>6989371</v>
       </c>
-      <c r="FT6" t="n">
+      <c r="GG6" t="n">
         <v>36004000</v>
       </c>
-      <c r="FU6" t="n">
+      <c r="GH6" t="n">
         <v>60784145</v>
       </c>
-      <c r="FV6" t="n">
+      <c r="GI6" t="n">
         <v>20195</v>
       </c>
-      <c r="FW6" t="n">
+      <c r="GJ6" t="n">
         <v>11426390</v>
       </c>
-      <c r="FX6" t="n">
+      <c r="GK6" t="n">
         <v>36124606</v>
       </c>
-      <c r="FY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ6" t="n">
+      <c r="GL6" t="n">
         <v>47918529</v>
       </c>
-      <c r="GA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB6" t="n">
+      <c r="GM6" t="n">
         <v>25921923</v>
       </c>
-      <c r="GC6" t="n">
+      <c r="GN6" t="n">
         <v>-10082077</v>
       </c>
-      <c r="GD6" t="n">
+      <c r="GO6" t="n">
         <v>-8241824</v>
       </c>
-      <c r="GE6" t="n">
+      <c r="GP6" t="n">
         <v>4182110</v>
       </c>
-      <c r="GF6" t="n">
+      <c r="GQ6" t="n">
         <v>6518334</v>
       </c>
-      <c r="GG6" t="n">
-        <v>5564349</v>
-      </c>
-      <c r="GH6" t="n">
+      <c r="GR6" t="n">
         <v>25326231</v>
-      </c>
-      <c r="GI6" t="n">
-        <v>404486</v>
-      </c>
-      <c r="GJ6" t="n">
-        <v>9428443</v>
-      </c>
-      <c r="GK6" t="n">
-        <v>34473364</v>
-      </c>
-      <c r="GL6" t="n">
-        <v>15103253</v>
-      </c>
-      <c r="GM6" t="n">
-        <v>25977510</v>
-      </c>
-      <c r="GN6" t="n">
-        <v>20413161</v>
-      </c>
-      <c r="GO6" t="n">
-        <v>-8647400</v>
-      </c>
-      <c r="GP6" t="n">
-        <v>5374359</v>
-      </c>
-      <c r="GQ6" t="n">
-        <v>5598405</v>
-      </c>
-      <c r="GR6" t="n">
-        <v>32267770</v>
       </c>
       <c r="GS6" t="n">
         <v>404486</v>
       </c>
       <c r="GT6" t="n">
-        <v>9434022</v>
+        <v>9428443</v>
       </c>
       <c r="GU6" t="n">
-        <v>34128351</v>
+        <v>34473364</v>
       </c>
       <c r="GV6" t="n">
-        <v>23285146</v>
+        <v>15103253</v>
       </c>
       <c r="GW6" t="n">
-        <v>10975918</v>
+        <v>20413161</v>
       </c>
       <c r="GX6" t="n">
-        <v>-7261260</v>
+        <v>-8647400</v>
       </c>
       <c r="GY6" t="n">
-        <v>27422952</v>
+        <v>39788452</v>
       </c>
       <c r="GZ6" t="n">
-        <v>-28890835</v>
+        <v>-30885716</v>
       </c>
       <c r="HA6" t="n">
-        <v>-2404931</v>
+        <v>-1420249</v>
       </c>
       <c r="HB6" t="n">
         <v>1</v>
@@ -5781,21 +5781,21 @@
         <v>2</v>
       </c>
       <c r="HD6" t="n">
-        <v>1389222</v>
+        <v>719496</v>
       </c>
       <c r="HE6" t="n">
-        <v>27434180</v>
+        <v>23143812</v>
       </c>
       <c r="HF6" t="n">
         <v>0</v>
       </c>
       <c r="HG6" t="inlineStr">
         <is>
-          <t>0.84-8.36</t>
+          <t>0.75-7.34</t>
         </is>
       </c>
       <c r="HH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="HI6" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         </is>
       </c>
       <c r="HQ6" t="n">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="HR6" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="HY6" t="inlineStr">
         <is>
-          <t>https://fmpcloud.io/image-stock/CEMI.png</t>
+          <t>https://financialmodelingprep.com/image-stock/CEMI.png</t>
         </is>
       </c>
       <c r="HZ6" t="inlineStr">
@@ -5902,67 +5902,67 @@
         </is>
       </c>
       <c r="IE6" t="n">
+        <v>-1606997</v>
+      </c>
+      <c r="IF6" t="n">
         <v>1481997</v>
       </c>
-      <c r="IF6" t="n">
-        <v>-297905</v>
-      </c>
       <c r="IG6" t="n">
+        <v>46211455</v>
+      </c>
+      <c r="IH6" t="n">
         <v>31933270</v>
       </c>
-      <c r="IH6" t="n">
-        <v>34166127</v>
-      </c>
       <c r="II6" t="n">
+        <v>-20195</v>
+      </c>
+      <c r="IJ6" t="n">
         <v>-384291</v>
       </c>
-      <c r="IJ6" t="n">
-        <v>0</v>
-      </c>
       <c r="IK6" t="n">
+        <v>20553344</v>
+      </c>
+      <c r="IL6" t="n">
         <v>9274153</v>
       </c>
-      <c r="IL6" t="n">
-        <v>4182110</v>
-      </c>
       <c r="IM6" t="n">
-        <v>-3028321</v>
+        <v>-8030000</v>
       </c>
       <c r="IN6" t="n">
         <v>0</v>
       </c>
       <c r="IO6" t="n">
-        <v>-749501</v>
+        <v>-1969795</v>
       </c>
       <c r="IP6" t="n">
-        <v>-1655430</v>
+        <v>549546</v>
       </c>
       <c r="IQ6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IR6" t="n">
-        <v>-30546265</v>
+        <v>-30336170</v>
       </c>
       <c r="IS6" t="n">
         <v>-1</v>
       </c>
       <c r="IT6" t="n">
-        <v>49357755</v>
+        <v>39562181</v>
       </c>
       <c r="IU6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IV6" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="IW6" t="n">
-        <v>24659539</v>
+        <v>15857349</v>
       </c>
       <c r="IX6" t="n">
-        <v>20563925</v>
+        <v>-38610885</v>
       </c>
       <c r="IY6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -6061,7 +6061,7 @@
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>3249</v>
+        <v>3268</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>-3</v>
       </c>
       <c r="BB7" t="n">
-        <v>-15442000</v>
+        <v>15442000</v>
       </c>
       <c r="BC7" t="n">
         <v>-6150000</v>
@@ -6625,20 +6625,20 @@
         <v>1</v>
       </c>
       <c r="HC7" t="n">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="HD7" t="n">
-        <v>1028514</v>
+        <v>1161296</v>
       </c>
       <c r="HE7" t="n">
-        <v>19522096</v>
+        <v>28173934</v>
       </c>
       <c r="HF7" t="n">
         <v>0</v>
       </c>
       <c r="HG7" t="inlineStr">
         <is>
-          <t>0.78-6.4</t>
+          <t>0.74-3.47</t>
         </is>
       </c>
       <c r="HH7" t="n">
@@ -6720,7 +6720,7 @@
       </c>
       <c r="HY7" t="inlineStr">
         <is>
-          <t>https://fmpcloud.io/image-stock/RKDA.png</t>
+          <t>https://financialmodelingprep.com/image-stock/RKDA.png</t>
         </is>
       </c>
       <c r="HZ7" t="inlineStr">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="F8" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
         <v>1.04</v>
       </c>
       <c r="H8" t="n">
-        <v>-69</v>
+        <v>-70</v>
       </c>
       <c r="I8" t="n">
         <v>4.09</v>
@@ -6879,16 +6879,16 @@
         <v>-79.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="V8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="W8" t="n">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
         <v>-1</v>
@@ -6900,7 +6900,7 @@
         <v>846913</v>
       </c>
       <c r="AA8" t="n">
-        <v>38740692</v>
+        <v>37224476</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>8793</v>
+        <v>8827</v>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>-0</v>
       </c>
       <c r="BB8" t="n">
-        <v>82000</v>
+        <v>-82000</v>
       </c>
       <c r="BC8" t="n">
         <v>-4221000</v>
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="EK8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EL8" t="n">
         <v>0</v>
@@ -7278,10 +7278,10 @@
         <v>2</v>
       </c>
       <c r="EQ8" t="n">
-        <v>229289</v>
+        <v>553826</v>
       </c>
       <c r="ER8" t="n">
-        <v>239968</v>
+        <v>231985</v>
       </c>
       <c r="ES8" t="inlineStr">
         <is>
@@ -7298,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>30263801</v>
+        <v>30263802</v>
       </c>
       <c r="EX8" t="n">
-        <v>1646156195</v>
+        <v>1646747102</v>
       </c>
       <c r="EY8" t="n">
         <v>30467000</v>
@@ -7475,21 +7475,21 @@
         <v>6</v>
       </c>
       <c r="HD8" t="n">
-        <v>585075</v>
+        <v>231985</v>
       </c>
       <c r="HE8" t="n">
-        <v>34198092</v>
+        <v>37224476</v>
       </c>
       <c r="HF8" t="n">
         <v>0</v>
       </c>
       <c r="HG8" t="inlineStr">
         <is>
-          <t>1.04-6.1</t>
+          <t>1.04-4.09</t>
         </is>
       </c>
       <c r="HH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="HI8" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
       </c>
       <c r="HY8" t="inlineStr">
         <is>
-          <t>https://fmpcloud.io/image-stock/FTEK.png</t>
+          <t>https://financialmodelingprep.com/image-stock/FTEK.png</t>
         </is>
       </c>
       <c r="HZ8" t="inlineStr">
@@ -7647,16 +7647,16 @@
         <v>1</v>
       </c>
       <c r="IV8" t="n">
-        <v>0.99</v>
+        <v>1.03</v>
       </c>
       <c r="IW8" t="n">
         <v>37711000</v>
       </c>
       <c r="IX8" t="n">
-        <v>3854692</v>
+        <v>2338476</v>
       </c>
       <c r="IY8" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -7755,7 +7755,7 @@
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>12582</v>
+        <v>12621</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>1612</v>
+        <v>1624</v>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>-17</v>
       </c>
       <c r="BB10" t="n">
-        <v>558000</v>
+        <v>-558000</v>
       </c>
       <c r="BC10" t="n">
         <v>-3545000</v>
@@ -9169,21 +9169,21 @@
         <v>3</v>
       </c>
       <c r="HD10" t="n">
-        <v>5196625</v>
+        <v>4105508</v>
       </c>
       <c r="HE10" t="n">
-        <v>2893880</v>
+        <v>1386016</v>
       </c>
       <c r="HF10" t="n">
         <v>0</v>
       </c>
       <c r="HG10" t="inlineStr">
         <is>
-          <t>0.0085-0.09</t>
+          <t>0.0041-0.07</t>
         </is>
       </c>
       <c r="HH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="HI10" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
       </c>
       <c r="HL10" t="inlineStr">
         <is>
-          <t>MUTUAL_FUND</t>
+          <t>OTC</t>
         </is>
       </c>
       <c r="HM10" t="inlineStr">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="HY10" t="inlineStr">
         <is>
-          <t>https://fmpcloud.io/image-stock/TGHI.png</t>
+          <t>https://financialmodelingprep.com/image-stock/TGHI.png</t>
         </is>
       </c>
       <c r="HZ10" t="inlineStr">
@@ -9449,7 +9449,7 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>8387</v>
+        <v>8421</v>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>38720601</v>
       </c>
       <c r="EX11" t="n">
-        <v>1646156197</v>
+        <v>1646747104</v>
       </c>
       <c r="EY11" t="n">
         <v>1376900000</v>
@@ -10022,7 +10022,7 @@
         <v>969176640</v>
       </c>
       <c r="HF11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HG11" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
       </c>
       <c r="HY11" t="inlineStr">
         <is>
-          <t>https://fmpcloud.io/image-stock/GMTA.png</t>
+          <t>https://financialmodelingprep.com/image-stock/GMTA.png</t>
         </is>
       </c>
       <c r="HZ11" t="inlineStr">
@@ -10222,16 +10222,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3.37</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>3.34</v>
       </c>
       <c r="H12" t="n">
-        <v>-77</v>
+        <v>-81</v>
       </c>
       <c r="I12" t="n">
         <v>17.5</v>
@@ -10243,7 +10243,7 @@
         <v>-12</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.08</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -10267,16 +10267,16 @@
         <v>-121.2</v>
       </c>
       <c r="T12" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="U12" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="V12" t="n">
         <v>-0.06</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.06</v>
+        <v>-0.08</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -10288,7 +10288,7 @@
         <v>1673481</v>
       </c>
       <c r="AA12" t="n">
-        <v>201522000</v>
+        <v>169782272</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>6154</v>
+        <v>6184</v>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
@@ -10378,10 +10378,10 @@
         <v>-3710852</v>
       </c>
       <c r="BA12" t="n">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>2101011</v>
+        <v>-2101011</v>
       </c>
       <c r="BC12" t="n">
         <v>-5811863</v>
@@ -10648,13 +10648,13 @@
         </is>
       </c>
       <c r="EK12" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="EL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="EN12" t="n">
         <v>4</v>
@@ -10666,10 +10666,10 @@
         <v>10</v>
       </c>
       <c r="EQ12" t="n">
-        <v>70488</v>
+        <v>175125</v>
       </c>
       <c r="ER12" t="n">
-        <v>483841</v>
+        <v>444796</v>
       </c>
       <c r="ES12" t="inlineStr">
         <is>
@@ -10683,13 +10683,13 @@
         <v>4</v>
       </c>
       <c r="EV12" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="EW12" t="n">
-        <v>50380500</v>
+        <v>50380496</v>
       </c>
       <c r="EX12" t="n">
-        <v>1646156202</v>
+        <v>1646747109</v>
       </c>
       <c r="EY12" t="n">
         <v>1887386</v>
@@ -10857,27 +10857,27 @@
         <v>0</v>
       </c>
       <c r="HB12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="HC12" t="n">
         <v>0</v>
       </c>
       <c r="HD12" t="n">
-        <v>899124</v>
+        <v>444796</v>
       </c>
       <c r="HE12" t="n">
-        <v>225704640</v>
+        <v>169782272</v>
       </c>
       <c r="HF12" t="n">
         <v>0</v>
       </c>
       <c r="HG12" t="inlineStr">
         <is>
-          <t>3.59-17.5</t>
+          <t>3.34-17.5</t>
         </is>
       </c>
       <c r="HH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="HI12" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
       </c>
       <c r="HP12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="HQ12" t="n">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="HY12" t="inlineStr">
         <is>
-          <t>https://fmpcloud.io/image-stock/LTRY.png</t>
+          <t>https://financialmodelingprep.com/image-stock/LTRY.png</t>
         </is>
       </c>
       <c r="HZ12" t="inlineStr">
@@ -11035,16 +11035,16 @@
         <v>0</v>
       </c>
       <c r="IV12" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="IW12" t="n">
         <v>-12866142</v>
       </c>
       <c r="IX12" t="n">
-        <v>247545302</v>
+        <v>215805574</v>
       </c>
       <c r="IY12" t="n">
-        <v>-18</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="13">
@@ -11143,7 +11143,7 @@
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>12368</v>
+        <v>12407</v>
       </c>
       <c r="AD13" t="inlineStr">
         <is>

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="EK2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
         <v>0</v>
@@ -2196,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="EQ2" t="n">
-        <v>640</v>
+        <v>1</v>
       </c>
       <c r="ER2" t="n">
-        <v>2656</v>
+        <v>2698</v>
       </c>
       <c r="ES2" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>2725010</v>
       </c>
       <c r="EX2" t="n">
-        <v>1646747102</v>
+        <v>1646842756</v>
       </c>
       <c r="EY2" t="n">
         <v>11768000</v>
@@ -2599,16 +2599,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G3" t="n">
         <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>-80</v>
+        <v>-79</v>
       </c>
       <c r="I3" t="n">
         <v>9.75</v>
@@ -2620,7 +2620,7 @@
         <v>-206</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.32</v>
+        <v>-0.31</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>-87.22</v>
       </c>
       <c r="T3" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="U3" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.86</v>
+        <v>-0.78</v>
       </c>
       <c r="W3" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="X3" t="n">
         <v>-1</v>
@@ -2665,7 +2665,7 @@
         <v>788611</v>
       </c>
       <c r="AA3" t="n">
-        <v>20682636</v>
+        <v>21406002</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -3025,10 +3025,10 @@
         </is>
       </c>
       <c r="EK3" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM3" t="n">
         <v>2</v>
@@ -3043,10 +3043,10 @@
         <v>3</v>
       </c>
       <c r="EQ3" t="n">
-        <v>24803</v>
+        <v>4948</v>
       </c>
       <c r="ER3" t="n">
-        <v>88671</v>
+        <v>85567</v>
       </c>
       <c r="ES3" t="inlineStr">
         <is>
@@ -3063,10 +3063,10 @@
         <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>10498800</v>
+        <v>10498799</v>
       </c>
       <c r="EX3" t="n">
-        <v>1646747105</v>
+        <v>1646842759</v>
       </c>
       <c r="EY3" t="n">
         <v>402446</v>
@@ -3412,13 +3412,13 @@
         <v>1</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="IW3" t="n">
         <v>13845851</v>
       </c>
       <c r="IX3" t="n">
-        <v>7618243</v>
+        <v>8341609</v>
       </c>
       <c r="IY3" t="n">
         <v>-1</v>
@@ -4293,16 +4293,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24.51</v>
+        <v>24.75</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>23.29</v>
       </c>
       <c r="H5" t="n">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="I5" t="n">
         <v>29.2</v>
@@ -4314,7 +4314,7 @@
         <v>-21</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.37</v>
+        <v>-0.36</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -4338,13 +4338,13 @@
         <v>-96.51000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="U5" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.43</v>
+        <v>-0.42</v>
       </c>
       <c r="W5" t="n">
         <v>-0.48</v>
@@ -4359,7 +4359,7 @@
         <v>1679063</v>
       </c>
       <c r="AA5" t="n">
-        <v>86036472</v>
+        <v>86878936</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -4719,10 +4719,10 @@
         </is>
       </c>
       <c r="EK5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM5" t="n">
         <v>25</v>
@@ -4737,10 +4737,10 @@
         <v>27</v>
       </c>
       <c r="EQ5" t="n">
-        <v>4919</v>
+        <v>940</v>
       </c>
       <c r="ER5" t="n">
-        <v>5903</v>
+        <v>5947</v>
       </c>
       <c r="ES5" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>3510260</v>
       </c>
       <c r="EX5" t="n">
-        <v>1646747087</v>
+        <v>1646842739</v>
       </c>
       <c r="EY5" t="n">
         <v>55363906</v>
@@ -5112,7 +5112,7 @@
         <v>-41463906</v>
       </c>
       <c r="IX5" t="n">
-        <v>74419337</v>
+        <v>75261801</v>
       </c>
       <c r="IY5" t="n">
         <v>-2</v>
@@ -5143,13 +5143,13 @@
         <v>0.77</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="H6" t="n">
-        <v>-90</v>
+        <v>-89</v>
       </c>
       <c r="I6" t="n">
         <v>7.34</v>
@@ -5188,13 +5188,13 @@
         <v>1.48</v>
       </c>
       <c r="U6" t="n">
-        <v>-1.67</v>
+        <v>-1.66</v>
       </c>
       <c r="V6" t="n">
         <v>0.79</v>
       </c>
       <c r="W6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="X6" t="n">
         <v>14</v>
@@ -5206,7 +5206,7 @@
         <v>1092662</v>
       </c>
       <c r="AA6" t="n">
-        <v>23143812</v>
+        <v>23200922</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="EK6" t="n">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="EL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM6" t="n">
         <v>1</v>
@@ -5584,10 +5584,10 @@
         <v>2</v>
       </c>
       <c r="EQ6" t="n">
-        <v>576805</v>
+        <v>275711</v>
       </c>
       <c r="ER6" t="n">
-        <v>719496</v>
+        <v>718964</v>
       </c>
       <c r="ES6" t="inlineStr">
         <is>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>30056899</v>
+        <v>30056901</v>
       </c>
       <c r="EX6" t="n">
-        <v>1646747094</v>
+        <v>1646842746</v>
       </c>
       <c r="EY6" t="n">
         <v>30451273</v>
@@ -5959,7 +5959,7 @@
         <v>15857349</v>
       </c>
       <c r="IX6" t="n">
-        <v>-38610885</v>
+        <v>-38553775</v>
       </c>
       <c r="IY6" t="n">
         <v>1</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G8" t="n">
         <v>1.04</v>
       </c>
       <c r="H8" t="n">
-        <v>-70</v>
+        <v>-67</v>
       </c>
       <c r="I8" t="n">
         <v>4.09</v>
@@ -6879,16 +6879,16 @@
         <v>-79.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="V8" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>0.92</v>
       </c>
       <c r="X8" t="n">
         <v>-1</v>
@@ -6900,7 +6900,7 @@
         <v>846913</v>
       </c>
       <c r="AA8" t="n">
-        <v>37224476</v>
+        <v>41158768</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -7260,10 +7260,10 @@
         </is>
       </c>
       <c r="EK8" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="EL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
         <v>1</v>
@@ -7278,10 +7278,10 @@
         <v>2</v>
       </c>
       <c r="EQ8" t="n">
-        <v>553826</v>
+        <v>211207</v>
       </c>
       <c r="ER8" t="n">
-        <v>231985</v>
+        <v>232923</v>
       </c>
       <c r="ES8" t="inlineStr">
         <is>
@@ -7298,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>30263802</v>
+        <v>30263800</v>
       </c>
       <c r="EX8" t="n">
-        <v>1646747102</v>
+        <v>1646842756</v>
       </c>
       <c r="EY8" t="n">
         <v>30467000</v>
@@ -7647,16 +7647,16 @@
         <v>1</v>
       </c>
       <c r="IV8" t="n">
-        <v>1.03</v>
+        <v>0.93</v>
       </c>
       <c r="IW8" t="n">
         <v>37711000</v>
       </c>
       <c r="IX8" t="n">
-        <v>2338476</v>
+        <v>6272768</v>
       </c>
       <c r="IY8" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -9842,7 +9842,7 @@
         <v>38720601</v>
       </c>
       <c r="EX11" t="n">
-        <v>1646747104</v>
+        <v>1646842758</v>
       </c>
       <c r="EY11" t="n">
         <v>1376900000</v>
@@ -10222,16 +10222,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.37</v>
+        <v>3.65</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G12" t="n">
         <v>3.34</v>
       </c>
       <c r="H12" t="n">
-        <v>-81</v>
+        <v>-79</v>
       </c>
       <c r="I12" t="n">
         <v>17.5</v>
@@ -10243,7 +10243,7 @@
         <v>-12</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.08</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -10267,16 +10267,16 @@
         <v>-121.2</v>
       </c>
       <c r="T12" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="U12" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="V12" t="n">
         <v>-0.06</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.08</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -10288,7 +10288,7 @@
         <v>1673481</v>
       </c>
       <c r="AA12" t="n">
-        <v>169782272</v>
+        <v>184100432</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -10648,10 +10648,10 @@
         </is>
       </c>
       <c r="EK12" t="n">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="EL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM12" t="n">
         <v>3</v>
@@ -10666,10 +10666,10 @@
         <v>10</v>
       </c>
       <c r="EQ12" t="n">
-        <v>175125</v>
+        <v>25206</v>
       </c>
       <c r="ER12" t="n">
-        <v>444796</v>
+        <v>443250</v>
       </c>
       <c r="ES12" t="inlineStr">
         <is>
@@ -10680,16 +10680,16 @@
         <v>4</v>
       </c>
       <c r="EU12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="EV12" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="EW12" t="n">
-        <v>50380496</v>
+        <v>50380502</v>
       </c>
       <c r="EX12" t="n">
-        <v>1646747109</v>
+        <v>1646842765</v>
       </c>
       <c r="EY12" t="n">
         <v>1887386</v>
@@ -11035,16 +11035,16 @@
         <v>0</v>
       </c>
       <c r="IV12" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="IW12" t="n">
         <v>-12866142</v>
       </c>
       <c r="IX12" t="n">
-        <v>215805574</v>
+        <v>230123734</v>
       </c>
       <c r="IY12" t="n">
-        <v>-16</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="13">

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -1752,16 +1752,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
         <v>2.6</v>
       </c>
       <c r="H2" t="n">
-        <v>-47</v>
+        <v>-46</v>
       </c>
       <c r="I2" t="n">
         <v>5</v>
@@ -1797,16 +1797,16 @@
         <v>15.22</v>
       </c>
       <c r="T2" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="U2" t="n">
         <v>0.96</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.35</v>
+        <v>-0.34</v>
       </c>
       <c r="W2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="X2" t="n">
         <v>-12</v>
@@ -1818,7 +1818,7 @@
         <v>719274</v>
       </c>
       <c r="AA2" t="n">
-        <v>7194026</v>
+        <v>7303027</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="EK2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EL2" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>3</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="ER2" t="n">
         <v>2698</v>
@@ -2219,7 +2219,7 @@
         <v>2725010</v>
       </c>
       <c r="EX2" t="n">
-        <v>1646842756</v>
+        <v>1646908549</v>
       </c>
       <c r="EY2" t="n">
         <v>11768000</v>
@@ -2565,13 +2565,13 @@
         <v>1</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="IW2" t="n">
         <v>3374000</v>
       </c>
       <c r="IX2" t="n">
-        <v>6878026</v>
+        <v>6987027</v>
       </c>
       <c r="IY2" t="n">
         <v>-3</v>
@@ -2599,16 +2599,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G3" t="n">
         <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>-79</v>
+        <v>-80</v>
       </c>
       <c r="I3" t="n">
         <v>9.75</v>
@@ -2644,16 +2644,16 @@
         <v>-87.22</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="U3" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.78</v>
+        <v>-0.84</v>
       </c>
       <c r="W3" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="X3" t="n">
         <v>-1</v>
@@ -2665,7 +2665,7 @@
         <v>788611</v>
       </c>
       <c r="AA3" t="n">
-        <v>21406002</v>
+        <v>20892612</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="EK3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EL3" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>3</v>
       </c>
       <c r="EQ3" t="n">
-        <v>4948</v>
+        <v>27490</v>
       </c>
       <c r="ER3" t="n">
-        <v>85567</v>
+        <v>84593</v>
       </c>
       <c r="ES3" t="inlineStr">
         <is>
@@ -3063,10 +3063,10 @@
         <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>10498799</v>
+        <v>10498800</v>
       </c>
       <c r="EX3" t="n">
-        <v>1646842759</v>
+        <v>1646908552</v>
       </c>
       <c r="EY3" t="n">
         <v>402446</v>
@@ -3412,13 +3412,13 @@
         <v>1</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="IW3" t="n">
         <v>13845851</v>
       </c>
       <c r="IX3" t="n">
-        <v>8341609</v>
+        <v>7828219</v>
       </c>
       <c r="IY3" t="n">
         <v>-1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24.75</v>
+        <v>24.7</v>
       </c>
       <c r="F5" t="n">
         <v>6</v>
@@ -4359,7 +4359,7 @@
         <v>1679063</v>
       </c>
       <c r="AA5" t="n">
-        <v>86878936</v>
+        <v>86703424</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -4719,10 +4719,10 @@
         </is>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
         <v>25</v>
@@ -4737,10 +4737,10 @@
         <v>27</v>
       </c>
       <c r="EQ5" t="n">
-        <v>940</v>
+        <v>4136</v>
       </c>
       <c r="ER5" t="n">
-        <v>5947</v>
+        <v>5954</v>
       </c>
       <c r="ES5" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>3510260</v>
       </c>
       <c r="EX5" t="n">
-        <v>1646842739</v>
+        <v>1646908534</v>
       </c>
       <c r="EY5" t="n">
         <v>55363906</v>
@@ -5112,7 +5112,7 @@
         <v>-41463906</v>
       </c>
       <c r="IX5" t="n">
-        <v>75261801</v>
+        <v>75086289</v>
       </c>
       <c r="IY5" t="n">
         <v>-2</v>
@@ -5140,16 +5140,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="H6" t="n">
-        <v>-89</v>
+        <v>-90</v>
       </c>
       <c r="I6" t="n">
         <v>7.34</v>
@@ -5161,7 +5161,7 @@
         <v>-26</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.31</v>
+        <v>-1.34</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
@@ -5185,16 +5185,16 @@
         <v>-163.53</v>
       </c>
       <c r="T6" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="U6" t="n">
-        <v>-1.66</v>
+        <v>-1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="W6" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="X6" t="n">
         <v>14</v>
@@ -5206,7 +5206,7 @@
         <v>1092662</v>
       </c>
       <c r="AA6" t="n">
-        <v>23200922</v>
+        <v>22659896</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="EK6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="EL6" t="n">
         <v>0</v>
@@ -5584,10 +5584,10 @@
         <v>2</v>
       </c>
       <c r="EQ6" t="n">
-        <v>275711</v>
+        <v>601021</v>
       </c>
       <c r="ER6" t="n">
-        <v>718964</v>
+        <v>722871</v>
       </c>
       <c r="ES6" t="inlineStr">
         <is>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>30056901</v>
+        <v>30056899</v>
       </c>
       <c r="EX6" t="n">
-        <v>1646842746</v>
+        <v>1646908541</v>
       </c>
       <c r="EY6" t="n">
         <v>30451273</v>
@@ -5953,13 +5953,13 @@
         <v>1</v>
       </c>
       <c r="IV6" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="IW6" t="n">
         <v>15857349</v>
       </c>
       <c r="IX6" t="n">
-        <v>-38553775</v>
+        <v>-39094801</v>
       </c>
       <c r="IY6" t="n">
         <v>1</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="F8" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G8" t="n">
         <v>1.04</v>
       </c>
       <c r="H8" t="n">
-        <v>-67</v>
+        <v>-68</v>
       </c>
       <c r="I8" t="n">
         <v>4.09</v>
@@ -6879,16 +6879,16 @@
         <v>-79.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="U8" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="V8" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="W8" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="X8" t="n">
         <v>-1</v>
@@ -6900,7 +6900,7 @@
         <v>846913</v>
       </c>
       <c r="AA8" t="n">
-        <v>41158768</v>
+        <v>39342940</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="EK8" t="n">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="EL8" t="n">
         <v>-0</v>
@@ -7278,10 +7278,10 @@
         <v>2</v>
       </c>
       <c r="EQ8" t="n">
-        <v>211207</v>
+        <v>374952</v>
       </c>
       <c r="ER8" t="n">
-        <v>232923</v>
+        <v>259267</v>
       </c>
       <c r="ES8" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>30263800</v>
       </c>
       <c r="EX8" t="n">
-        <v>1646842756</v>
+        <v>1646908549</v>
       </c>
       <c r="EY8" t="n">
         <v>30467000</v>
@@ -7647,16 +7647,16 @@
         <v>1</v>
       </c>
       <c r="IV8" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="IW8" t="n">
         <v>37711000</v>
       </c>
       <c r="IX8" t="n">
-        <v>6272768</v>
+        <v>4456940</v>
       </c>
       <c r="IY8" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -9842,7 +9842,7 @@
         <v>38720601</v>
       </c>
       <c r="EX11" t="n">
-        <v>1646842758</v>
+        <v>1646908551</v>
       </c>
       <c r="EY11" t="n">
         <v>1376900000</v>
@@ -10222,13 +10222,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="F12" t="n">
         <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>3.34</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
         <v>-79</v>
@@ -10243,7 +10243,7 @@
         <v>-12</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.08</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>-121.2</v>
       </c>
       <c r="T12" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="U12" t="n">
         <v>1.25</v>
@@ -10288,7 +10288,7 @@
         <v>1673481</v>
       </c>
       <c r="AA12" t="n">
-        <v>184100432</v>
+        <v>181369792</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="EK12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="EL12" t="n">
         <v>0</v>
@@ -10663,13 +10663,13 @@
         <v>5</v>
       </c>
       <c r="EP12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="EQ12" t="n">
-        <v>25206</v>
+        <v>72055</v>
       </c>
       <c r="ER12" t="n">
-        <v>443250</v>
+        <v>437430</v>
       </c>
       <c r="ES12" t="inlineStr">
         <is>
@@ -10683,13 +10683,13 @@
         <v>3</v>
       </c>
       <c r="EV12" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="EW12" t="n">
-        <v>50380502</v>
+        <v>50380498</v>
       </c>
       <c r="EX12" t="n">
-        <v>1646842765</v>
+        <v>1646908556</v>
       </c>
       <c r="EY12" t="n">
         <v>1887386</v>
@@ -11041,7 +11041,7 @@
         <v>-12866142</v>
       </c>
       <c r="IX12" t="n">
-        <v>230123734</v>
+        <v>227393094</v>
       </c>
       <c r="IY12" t="n">
         <v>-17</v>

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="EK2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
         <v>0</v>
@@ -2196,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="EQ2" t="n">
-        <v>201</v>
+        <v>8</v>
       </c>
       <c r="ER2" t="n">
-        <v>2698</v>
+        <v>2656</v>
       </c>
       <c r="ES2" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>2725010</v>
       </c>
       <c r="EX2" t="n">
-        <v>1646908549</v>
+        <v>1646998995</v>
       </c>
       <c r="EY2" t="n">
         <v>11768000</v>
@@ -3043,10 +3043,10 @@
         <v>3</v>
       </c>
       <c r="EQ3" t="n">
-        <v>27490</v>
+        <v>20814</v>
       </c>
       <c r="ER3" t="n">
-        <v>84593</v>
+        <v>83641</v>
       </c>
       <c r="ES3" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>10498800</v>
       </c>
       <c r="EX3" t="n">
-        <v>1646908552</v>
+        <v>1646998999</v>
       </c>
       <c r="EY3" t="n">
         <v>402446</v>
@@ -4293,10 +4293,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24.7</v>
+        <v>24.93</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
         <v>23.29</v>
@@ -4338,7 +4338,7 @@
         <v>-96.51000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="U5" t="n">
         <v>0.87</v>
@@ -4347,7 +4347,7 @@
         <v>-0.42</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.48</v>
+        <v>-0.47</v>
       </c>
       <c r="X5" t="n">
         <v>-5</v>
@@ -4359,7 +4359,7 @@
         <v>1679063</v>
       </c>
       <c r="AA5" t="n">
-        <v>86703424</v>
+        <v>87522712</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -4719,10 +4719,10 @@
         </is>
       </c>
       <c r="EK5" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="EL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM5" t="n">
         <v>25</v>
@@ -4737,10 +4737,10 @@
         <v>27</v>
       </c>
       <c r="EQ5" t="n">
-        <v>4136</v>
+        <v>5921</v>
       </c>
       <c r="ER5" t="n">
-        <v>5954</v>
+        <v>5923</v>
       </c>
       <c r="ES5" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>3510260</v>
       </c>
       <c r="EX5" t="n">
-        <v>1646908534</v>
+        <v>1646998976</v>
       </c>
       <c r="EY5" t="n">
         <v>55363906</v>
@@ -5106,13 +5106,13 @@
         <v>16</v>
       </c>
       <c r="IV5" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="IW5" t="n">
         <v>-41463906</v>
       </c>
       <c r="IX5" t="n">
-        <v>75086289</v>
+        <v>75905577</v>
       </c>
       <c r="IY5" t="n">
         <v>-2</v>
@@ -5140,13 +5140,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>-90</v>
@@ -5161,7 +5161,7 @@
         <v>-26</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.34</v>
+        <v>-1.36</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
@@ -5185,16 +5185,16 @@
         <v>-163.53</v>
       </c>
       <c r="T6" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="U6" t="n">
-        <v>-1.73</v>
+        <v>-1.78</v>
       </c>
       <c r="V6" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="W6" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="X6" t="n">
         <v>14</v>
@@ -5206,7 +5206,7 @@
         <v>1092662</v>
       </c>
       <c r="AA6" t="n">
-        <v>22659896</v>
+        <v>22239100</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="EK6" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
         <v>1</v>
@@ -5584,10 +5584,10 @@
         <v>2</v>
       </c>
       <c r="EQ6" t="n">
-        <v>601021</v>
+        <v>412131</v>
       </c>
       <c r="ER6" t="n">
-        <v>722871</v>
+        <v>720843</v>
       </c>
       <c r="ES6" t="inlineStr">
         <is>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>30056899</v>
+        <v>30056900</v>
       </c>
       <c r="EX6" t="n">
-        <v>1646908541</v>
+        <v>1646998983</v>
       </c>
       <c r="EY6" t="n">
         <v>30451273</v>
@@ -5953,13 +5953,13 @@
         <v>1</v>
       </c>
       <c r="IV6" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="IW6" t="n">
         <v>15857349</v>
       </c>
       <c r="IX6" t="n">
-        <v>-39094801</v>
+        <v>-39515597</v>
       </c>
       <c r="IY6" t="n">
         <v>1</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G8" t="n">
         <v>1.04</v>
       </c>
       <c r="H8" t="n">
-        <v>-68</v>
+        <v>-67</v>
       </c>
       <c r="I8" t="n">
         <v>4.09</v>
@@ -6879,16 +6879,16 @@
         <v>-79.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="U8" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="V8" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="W8" t="n">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="X8" t="n">
         <v>-1</v>
@@ -6900,7 +6900,7 @@
         <v>846913</v>
       </c>
       <c r="AA8" t="n">
-        <v>39342940</v>
+        <v>41461408</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -7260,10 +7260,10 @@
         </is>
       </c>
       <c r="EK8" t="n">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="EL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM8" t="n">
         <v>1</v>
@@ -7278,10 +7278,10 @@
         <v>2</v>
       </c>
       <c r="EQ8" t="n">
-        <v>374952</v>
+        <v>245295</v>
       </c>
       <c r="ER8" t="n">
-        <v>259267</v>
+        <v>263160</v>
       </c>
       <c r="ES8" t="inlineStr">
         <is>
@@ -7298,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>30263800</v>
+        <v>30263801</v>
       </c>
       <c r="EX8" t="n">
-        <v>1646908549</v>
+        <v>1646998995</v>
       </c>
       <c r="EY8" t="n">
         <v>30467000</v>
@@ -7647,16 +7647,16 @@
         <v>1</v>
       </c>
       <c r="IV8" t="n">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="IW8" t="n">
         <v>37711000</v>
       </c>
       <c r="IX8" t="n">
-        <v>4456940</v>
+        <v>6575408</v>
       </c>
       <c r="IY8" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -9842,7 +9842,7 @@
         <v>38720601</v>
       </c>
       <c r="EX11" t="n">
-        <v>1646908551</v>
+        <v>1646998997</v>
       </c>
       <c r="EY11" t="n">
         <v>1376900000</v>
@@ -10222,16 +10222,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.6</v>
+        <v>3.41</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
         <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>-79</v>
+        <v>-81</v>
       </c>
       <c r="I12" t="n">
         <v>17.5</v>
@@ -10267,10 +10267,10 @@
         <v>-121.2</v>
       </c>
       <c r="T12" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="U12" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="V12" t="n">
         <v>-0.06</v>
@@ -10288,7 +10288,7 @@
         <v>1673481</v>
       </c>
       <c r="AA12" t="n">
-        <v>181369792</v>
+        <v>171797504</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -10648,10 +10648,10 @@
         </is>
       </c>
       <c r="EK12" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="EL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM12" t="n">
         <v>3</v>
@@ -10666,10 +10666,10 @@
         <v>9</v>
       </c>
       <c r="EQ12" t="n">
-        <v>72055</v>
+        <v>79806</v>
       </c>
       <c r="ER12" t="n">
-        <v>437430</v>
+        <v>431341</v>
       </c>
       <c r="ES12" t="inlineStr">
         <is>
@@ -10680,16 +10680,16 @@
         <v>4</v>
       </c>
       <c r="EU12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="EV12" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="EW12" t="n">
-        <v>50380498</v>
+        <v>50380500</v>
       </c>
       <c r="EX12" t="n">
-        <v>1646908556</v>
+        <v>1646999003</v>
       </c>
       <c r="EY12" t="n">
         <v>1887386</v>
@@ -11035,16 +11035,16 @@
         <v>0</v>
       </c>
       <c r="IV12" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="IW12" t="n">
         <v>-12866142</v>
       </c>
       <c r="IX12" t="n">
-        <v>227393094</v>
+        <v>217820806</v>
       </c>
       <c r="IY12" t="n">
-        <v>-17</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="13">

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -2196,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="EQ2" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="ER2" t="n">
-        <v>2656</v>
+        <v>2613</v>
       </c>
       <c r="ES2" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>2725010</v>
       </c>
       <c r="EX2" t="n">
-        <v>1646998995</v>
+        <v>1647176107</v>
       </c>
       <c r="EY2" t="n">
         <v>11768000</v>
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
         <v>1.57</v>
@@ -2620,7 +2620,7 @@
         <v>-206</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.31</v>
+        <v>-0.32</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>-87.22</v>
       </c>
       <c r="T3" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="U3" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.84</v>
+        <v>-0.9</v>
       </c>
       <c r="W3" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="X3" t="n">
         <v>-1</v>
@@ -2665,7 +2665,7 @@
         <v>788611</v>
       </c>
       <c r="AA3" t="n">
-        <v>20892612</v>
+        <v>20367672</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -3025,10 +3025,10 @@
         </is>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM3" t="n">
         <v>2</v>
@@ -3043,10 +3043,10 @@
         <v>3</v>
       </c>
       <c r="EQ3" t="n">
-        <v>20814</v>
+        <v>27478</v>
       </c>
       <c r="ER3" t="n">
-        <v>83641</v>
+        <v>79800</v>
       </c>
       <c r="ES3" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>10498800</v>
       </c>
       <c r="EX3" t="n">
-        <v>1646998999</v>
+        <v>1647176112</v>
       </c>
       <c r="EY3" t="n">
         <v>402446</v>
@@ -3412,13 +3412,13 @@
         <v>1</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="IW3" t="n">
         <v>13845851</v>
       </c>
       <c r="IX3" t="n">
-        <v>7828219</v>
+        <v>7303279</v>
       </c>
       <c r="IY3" t="n">
         <v>-1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24.93</v>
+        <v>24.97</v>
       </c>
       <c r="F5" t="n">
         <v>7</v>
@@ -4302,7 +4302,7 @@
         <v>23.29</v>
       </c>
       <c r="H5" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="I5" t="n">
         <v>29.2</v>
@@ -4338,7 +4338,7 @@
         <v>-96.51000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="U5" t="n">
         <v>0.87</v>
@@ -4359,7 +4359,7 @@
         <v>1679063</v>
       </c>
       <c r="AA5" t="n">
-        <v>87522712</v>
+        <v>87651192</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         </is>
       </c>
       <c r="EK5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL5" t="n">
         <v>0</v>
@@ -4737,10 +4737,10 @@
         <v>27</v>
       </c>
       <c r="EQ5" t="n">
-        <v>5921</v>
+        <v>1149</v>
       </c>
       <c r="ER5" t="n">
-        <v>5923</v>
+        <v>5918</v>
       </c>
       <c r="ES5" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>3510260</v>
       </c>
       <c r="EX5" t="n">
-        <v>1646998976</v>
+        <v>1647176085</v>
       </c>
       <c r="EY5" t="n">
         <v>55363906</v>
@@ -5112,7 +5112,7 @@
         <v>-41463906</v>
       </c>
       <c r="IX5" t="n">
-        <v>75905577</v>
+        <v>76034057</v>
       </c>
       <c r="IY5" t="n">
         <v>-2</v>
@@ -5140,10 +5140,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0.6899999999999999</v>
@@ -5161,7 +5161,7 @@
         <v>-26</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.36</v>
+        <v>-1.44</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
@@ -5185,16 +5185,16 @@
         <v>-163.53</v>
       </c>
       <c r="T6" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="U6" t="n">
-        <v>-1.78</v>
+        <v>-1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="W6" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="X6" t="n">
         <v>14</v>
@@ -5206,7 +5206,7 @@
         <v>1092662</v>
       </c>
       <c r="AA6" t="n">
-        <v>22239100</v>
+        <v>21006766</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="EK6" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="EL6" t="n">
         <v>-0</v>
@@ -5584,10 +5584,10 @@
         <v>2</v>
       </c>
       <c r="EQ6" t="n">
-        <v>412131</v>
+        <v>266099</v>
       </c>
       <c r="ER6" t="n">
-        <v>720843</v>
+        <v>710621</v>
       </c>
       <c r="ES6" t="inlineStr">
         <is>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>30056900</v>
+        <v>30056898</v>
       </c>
       <c r="EX6" t="n">
-        <v>1646998983</v>
+        <v>1647176094</v>
       </c>
       <c r="EY6" t="n">
         <v>30451273</v>
@@ -5953,13 +5953,13 @@
         <v>1</v>
       </c>
       <c r="IV6" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="IW6" t="n">
         <v>15857349</v>
       </c>
       <c r="IX6" t="n">
-        <v>-39515597</v>
+        <v>-40747931</v>
       </c>
       <c r="IY6" t="n">
         <v>1</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="F8" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
         <v>1.04</v>
@@ -6879,16 +6879,16 @@
         <v>-79.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="U8" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="V8" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="W8" t="n">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="X8" t="n">
         <v>-1</v>
@@ -6900,7 +6900,7 @@
         <v>846913</v>
       </c>
       <c r="AA8" t="n">
-        <v>41461408</v>
+        <v>40553492</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -7260,10 +7260,10 @@
         </is>
       </c>
       <c r="EK8" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="EL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
         <v>1</v>
@@ -7278,10 +7278,10 @@
         <v>2</v>
       </c>
       <c r="EQ8" t="n">
-        <v>245295</v>
+        <v>97281</v>
       </c>
       <c r="ER8" t="n">
-        <v>263160</v>
+        <v>260173</v>
       </c>
       <c r="ES8" t="inlineStr">
         <is>
@@ -7295,13 +7295,13 @@
         <v>1</v>
       </c>
       <c r="EV8" t="n">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="EW8" t="n">
-        <v>30263801</v>
+        <v>30263800</v>
       </c>
       <c r="EX8" t="n">
-        <v>1646998995</v>
+        <v>1647176107</v>
       </c>
       <c r="EY8" t="n">
         <v>30467000</v>
@@ -7647,16 +7647,16 @@
         <v>1</v>
       </c>
       <c r="IV8" t="n">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="IW8" t="n">
         <v>37711000</v>
       </c>
       <c r="IX8" t="n">
-        <v>6575408</v>
+        <v>5667492</v>
       </c>
       <c r="IY8" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -9842,7 +9842,7 @@
         <v>38720601</v>
       </c>
       <c r="EX11" t="n">
-        <v>1646998997</v>
+        <v>1647176110</v>
       </c>
       <c r="EY11" t="n">
         <v>1376900000</v>
@@ -10222,16 +10222,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.41</v>
+        <v>3.21</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>3.13</v>
       </c>
       <c r="H12" t="n">
-        <v>-81</v>
+        <v>-82</v>
       </c>
       <c r="I12" t="n">
         <v>17.5</v>
@@ -10243,7 +10243,7 @@
         <v>-12</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -10267,16 +10267,16 @@
         <v>-121.2</v>
       </c>
       <c r="T12" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.08</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -10288,7 +10288,7 @@
         <v>1673481</v>
       </c>
       <c r="AA12" t="n">
-        <v>171797504</v>
+        <v>161721408</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="EK12" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="EL12" t="n">
         <v>-0</v>
@@ -10657,19 +10657,19 @@
         <v>3</v>
       </c>
       <c r="EN12" t="n">
+        <v>3</v>
+      </c>
+      <c r="EO12" t="n">
         <v>4</v>
-      </c>
-      <c r="EO12" t="n">
-        <v>5</v>
       </c>
       <c r="EP12" t="n">
         <v>9</v>
       </c>
       <c r="EQ12" t="n">
-        <v>79806</v>
+        <v>126207</v>
       </c>
       <c r="ER12" t="n">
-        <v>431341</v>
+        <v>419588</v>
       </c>
       <c r="ES12" t="inlineStr">
         <is>
@@ -10677,19 +10677,19 @@
         </is>
       </c>
       <c r="ET12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="EU12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="EV12" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="EW12" t="n">
-        <v>50380500</v>
+        <v>50380501</v>
       </c>
       <c r="EX12" t="n">
-        <v>1646999003</v>
+        <v>1647176119</v>
       </c>
       <c r="EY12" t="n">
         <v>1887386</v>
@@ -11035,16 +11035,16 @@
         <v>0</v>
       </c>
       <c r="IV12" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="IW12" t="n">
         <v>-12866142</v>
       </c>
       <c r="IX12" t="n">
-        <v>217820806</v>
+        <v>207744710</v>
       </c>
       <c r="IY12" t="n">
-        <v>-16</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="13">

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>8540</v>
+        <v>8542</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>25</v>
       </c>
       <c r="ER2" t="n">
-        <v>2613</v>
+        <v>2648</v>
       </c>
       <c r="ES2" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>2725010</v>
       </c>
       <c r="EX2" t="n">
-        <v>1647176107</v>
+        <v>1647272720</v>
       </c>
       <c r="EY2" t="n">
         <v>11768000</v>
@@ -2393,10 +2393,10 @@
         <v>1</v>
       </c>
       <c r="HD2" t="n">
-        <v>2656</v>
+        <v>2648</v>
       </c>
       <c r="HE2" t="n">
-        <v>7194026</v>
+        <v>7303027</v>
       </c>
       <c r="HF2" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
         <v>1.57</v>
@@ -2620,7 +2620,7 @@
         <v>-206</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.32</v>
+        <v>-0.33</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>-87.22</v>
       </c>
       <c r="T3" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="U3" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.9</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="W3" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X3" t="n">
         <v>-1</v>
@@ -2665,7 +2665,7 @@
         <v>788611</v>
       </c>
       <c r="AA3" t="n">
-        <v>20367672</v>
+        <v>20052708</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="EK3" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="EL3" t="n">
         <v>-0</v>
@@ -3043,10 +3043,10 @@
         <v>3</v>
       </c>
       <c r="EQ3" t="n">
-        <v>27478</v>
+        <v>12127</v>
       </c>
       <c r="ER3" t="n">
-        <v>79800</v>
+        <v>78196</v>
       </c>
       <c r="ES3" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>10498800</v>
       </c>
       <c r="EX3" t="n">
-        <v>1647176112</v>
+        <v>1647272723</v>
       </c>
       <c r="EY3" t="n">
         <v>402446</v>
@@ -3240,10 +3240,10 @@
         <v>1</v>
       </c>
       <c r="HD3" t="n">
-        <v>88671</v>
+        <v>78196</v>
       </c>
       <c r="HE3" t="n">
-        <v>20682636</v>
+        <v>20052708</v>
       </c>
       <c r="HF3" t="n">
         <v>0</v>
@@ -3412,13 +3412,13 @@
         <v>1</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="IW3" t="n">
         <v>13845851</v>
       </c>
       <c r="IX3" t="n">
-        <v>7303279</v>
+        <v>6988315</v>
       </c>
       <c r="IY3" t="n">
         <v>-1</v>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>12006</v>
+        <v>12021</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
@@ -3534,12 +3534,12 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>2021-12-20</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>2021-12-20 16:44:31</t>
         </is>
       </c>
       <c r="AH4" t="n">
@@ -3602,10 +3602,10 @@
         <v>-24093000</v>
       </c>
       <c r="BA4" t="n">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="BB4" t="n">
-        <v>19602000</v>
+        <v>-19602000</v>
       </c>
       <c r="BC4" t="n">
         <v>-43695000</v>
@@ -3629,19 +3629,19 @@
         <v>-1</v>
       </c>
       <c r="BJ4" t="n">
-        <v>69213195</v>
+        <v>70096401</v>
       </c>
       <c r="BK4" t="n">
-        <v>69213195</v>
+        <v>70096401</v>
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>https://www.sec.gov/Archives/edgar/data/1779128/000177912821000025/0001779128-21-000025-index.htm</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>https://www.sec.gov/Archives/edgar/data/1779128/000177912821000025/blde-20210930.htm</t>
         </is>
       </c>
       <c r="BN4" t="n">
@@ -3750,7 +3750,7 @@
         <v>-297000</v>
       </c>
       <c r="CW4" t="n">
-        <v>0</v>
+        <v>368709000</v>
       </c>
       <c r="CX4" t="n">
         <v>291229000</v>
@@ -4081,27 +4081,27 @@
         <v>-224297</v>
       </c>
       <c r="HB4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="HC4" t="n">
         <v>-0</v>
       </c>
       <c r="HD4" t="n">
-        <v>1126143</v>
+        <v>983900</v>
       </c>
       <c r="HE4" t="n">
-        <v>448772896</v>
+        <v>480417440</v>
       </c>
       <c r="HF4" t="n">
         <v>0</v>
       </c>
       <c r="HG4" t="inlineStr">
         <is>
-          <t>5.4-19.88</t>
+          <t>5.34-13.73</t>
         </is>
       </c>
       <c r="HH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="HI4" t="inlineStr">
         <is>
@@ -4179,12 +4179,12 @@
       </c>
       <c r="HY4" t="inlineStr">
         <is>
-          <t>https://fmpcloud.io/image-stock/BLDE.png</t>
+          <t>https://financialmodelingprep.com/image-stock/BLDE.png</t>
         </is>
       </c>
       <c r="HZ4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="IA4" t="inlineStr">
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24.97</v>
+        <v>24.85</v>
       </c>
       <c r="F5" t="n">
         <v>7</v>
@@ -4302,7 +4302,7 @@
         <v>23.29</v>
       </c>
       <c r="H5" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="I5" t="n">
         <v>29.2</v>
@@ -4338,7 +4338,7 @@
         <v>-96.51000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="U5" t="n">
         <v>0.87</v>
@@ -4347,7 +4347,7 @@
         <v>-0.42</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.47</v>
+        <v>-0.48</v>
       </c>
       <c r="X5" t="n">
         <v>-5</v>
@@ -4359,7 +4359,7 @@
         <v>1679063</v>
       </c>
       <c r="AA5" t="n">
-        <v>87651192</v>
+        <v>87229960</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>10601</v>
+        <v>10613</v>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
@@ -4719,10 +4719,10 @@
         </is>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
         <v>25</v>
@@ -4737,10 +4737,10 @@
         <v>27</v>
       </c>
       <c r="EQ5" t="n">
-        <v>1149</v>
+        <v>402</v>
       </c>
       <c r="ER5" t="n">
-        <v>5918</v>
+        <v>5985</v>
       </c>
       <c r="ES5" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>3510260</v>
       </c>
       <c r="EX5" t="n">
-        <v>1647176085</v>
+        <v>1647272705</v>
       </c>
       <c r="EY5" t="n">
         <v>55363906</v>
@@ -5112,7 +5112,7 @@
         <v>-41463906</v>
       </c>
       <c r="IX5" t="n">
-        <v>76034057</v>
+        <v>75612825</v>
       </c>
       <c r="IY5" t="n">
         <v>-2</v>
@@ -5140,16 +5140,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="H6" t="n">
-        <v>-90</v>
+        <v>-91</v>
       </c>
       <c r="I6" t="n">
         <v>7.34</v>
@@ -5161,7 +5161,7 @@
         <v>-26</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.44</v>
+        <v>-1.5</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
@@ -5185,16 +5185,16 @@
         <v>-163.53</v>
       </c>
       <c r="T6" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="U6" t="n">
-        <v>-1.94</v>
+        <v>-2.06</v>
       </c>
       <c r="V6" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="W6" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="X6" t="n">
         <v>14</v>
@@ -5206,7 +5206,7 @@
         <v>1092662</v>
       </c>
       <c r="AA6" t="n">
-        <v>21006766</v>
+        <v>20168180</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>11312</v>
+        <v>11325</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="EK6" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="EL6" t="n">
         <v>-0</v>
@@ -5584,10 +5584,10 @@
         <v>2</v>
       </c>
       <c r="EQ6" t="n">
-        <v>266099</v>
+        <v>148615</v>
       </c>
       <c r="ER6" t="n">
-        <v>710621</v>
+        <v>714061</v>
       </c>
       <c r="ES6" t="inlineStr">
         <is>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>30056898</v>
+        <v>30056900</v>
       </c>
       <c r="EX6" t="n">
-        <v>1647176094</v>
+        <v>1647272712</v>
       </c>
       <c r="EY6" t="n">
         <v>30451273</v>
@@ -5781,17 +5781,17 @@
         <v>2</v>
       </c>
       <c r="HD6" t="n">
-        <v>719496</v>
+        <v>714061</v>
       </c>
       <c r="HE6" t="n">
-        <v>23143812</v>
+        <v>20709204</v>
       </c>
       <c r="HF6" t="n">
         <v>0</v>
       </c>
       <c r="HG6" t="inlineStr">
         <is>
-          <t>0.75-7.34</t>
+          <t>0.6603-7.34</t>
         </is>
       </c>
       <c r="HH6" t="n">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="HN6" t="inlineStr">
         <is>
-          <t>Chembio Diagnostics, Inc., together with its subsidiaries, develops, manufactures, and commercializes point-of-care (POC) diagnostic tests that are used to detect or diagnose diseases. The company offers tests for COVID-19, HIV and Syphilis, and Zika virus. It also develops tests for malaria, dengue, Hepatitis C, chikungunya, Chagas, ebola, leishmaniasis, lassa, marburg, leptospirosis, Rickettsia, and Burkholderia diseases. The company sells its products under the STAT-PAK, SURE CHECK, STAT VIEW, and DPP trademarks, as well as under the private labels of its marketing partners to medical laboratories and hospitals, governmental and public health entities, non-governmental organizations, medical professionals, and retail establishments in the United States and internationally. It has collaboration agreements with Bill &amp; Melinda Gates Foundation, The Paul G. Allen Family Foundation, The Oswaldo Cruz Foundation, and the Foundation for Innovative New Diagnostics, as well as U.S. government agencies, such as Centers for Disease Control and Prevention, the Biomedical Advanced Research and Development Authority of the U.S. Department of Health and Human Services, and the U.S. Department of Agriculture. Chembio Diagnostics, Inc. was founded in 1985 and is headquartered in Hauppauge, New York.</t>
+          <t>Chembio Diagnostics, Inc., together with its subsidiaries, develops, manufactures, and commercializes point-of-care (POC) diagnostic tests that are used to detect or diagnose diseases. The company offers tests for COVID-19, HIV and Syphilis, and Zika virus. It also develops tests for malaria, dengue, chikungunya, Chagas, ebola, leishmaniasis, lassa, marburg, leptospirosis, rickettsia, and Burkholderia diseases. The company sells its products under the STAT-PAK, SURE CHECK, STAT VIEW, and DPP trademarks, as well as sells its products directly through distributors to medical laboratories and hospitals, governmental and public health entities, non-governmental organizations, medical professionals, and retail establishments in the United States and internationally. It has collaboration agreements with Bill &amp; Melinda Gates Foundation, The Paul G. Allen Family Foundation, The Oswaldo Cruz Foundation, and the Foundation for Innovative New Diagnostics, as well as U.S. government agencies, such as Centers for Disease Control and Prevention, the Biomedical Advanced Research and Development Authority of the U.S. Department of Health and Human Services, and the U.S. Department of Agriculture. Chembio Diagnostics, Inc. was founded in 1985 and is headquartered in Hauppauge, New York.</t>
         </is>
       </c>
       <c r="HO6" t="inlineStr">
@@ -5953,13 +5953,13 @@
         <v>1</v>
       </c>
       <c r="IV6" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="IW6" t="n">
         <v>15857349</v>
       </c>
       <c r="IX6" t="n">
-        <v>-40747931</v>
+        <v>-41586517</v>
       </c>
       <c r="IY6" t="n">
         <v>1</v>
@@ -6061,7 +6061,7 @@
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
@@ -6622,16 +6622,16 @@
         <v>-1010000</v>
       </c>
       <c r="HB7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="HC7" t="n">
         <v>-0</v>
       </c>
       <c r="HD7" t="n">
-        <v>1161296</v>
+        <v>2100998</v>
       </c>
       <c r="HE7" t="n">
-        <v>28173934</v>
+        <v>36158028</v>
       </c>
       <c r="HF7" t="n">
         <v>0</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="F8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" t="n">
         <v>1.04</v>
@@ -6849,58 +6849,58 @@
         <v>4.09</v>
       </c>
       <c r="J8" t="n">
-        <v>-63</v>
+        <v>-59</v>
       </c>
       <c r="K8" t="n">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>-55.14</v>
+        <v>-114.66</v>
       </c>
       <c r="O8" t="n">
-        <v>-41.74</v>
+        <v>-135.83</v>
       </c>
       <c r="P8" t="n">
-        <v>-124.45</v>
+        <v>-200</v>
       </c>
       <c r="Q8" t="n">
-        <v>-125.99</v>
+        <v>-100</v>
       </c>
       <c r="R8" t="n">
-        <v>-125.99</v>
+        <v>-100</v>
       </c>
       <c r="S8" t="n">
-        <v>-79.92</v>
+        <v>-100</v>
       </c>
       <c r="T8" t="n">
         <v>1.15</v>
       </c>
       <c r="U8" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="V8" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="X8" t="n">
         <v>-1</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.02</v>
+        <v>4.34</v>
       </c>
       <c r="Z8" t="n">
         <v>846913</v>
       </c>
       <c r="AA8" t="n">
-        <v>40553492</v>
+        <v>40250856</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -6908,11 +6908,11 @@
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>8827</v>
+        <v>8835</v>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
@@ -6922,16 +6922,16 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>2021-03-15 16:37:50</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="AH8" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
@@ -6939,254 +6939,254 @@
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>22550000</v>
+        <v>24261000</v>
       </c>
       <c r="AK8" t="n">
-        <v>11912000</v>
+        <v>12363000</v>
       </c>
       <c r="AL8" t="n">
-        <v>10638000</v>
+        <v>11898000</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>1177000</v>
+        <v>1332000</v>
       </c>
       <c r="AO8" t="n">
-        <v>13600000</v>
+        <v>0</v>
       </c>
       <c r="AP8" t="n">
         <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13600000</v>
+        <v>12055000</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>14777000</v>
+        <v>13387000</v>
       </c>
       <c r="AT8" t="n">
-        <v>26689000</v>
+        <v>25750000</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>4000</v>
+        <v>-13000</v>
       </c>
       <c r="AW8" t="n">
-        <v>848000</v>
+        <v>584000</v>
       </c>
       <c r="AX8" t="n">
-        <v>-3369000</v>
+        <v>639000</v>
       </c>
       <c r="AY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>-4139000</v>
+        <v>-1489000</v>
       </c>
       <c r="BA8" t="n">
         <v>-0</v>
       </c>
       <c r="BB8" t="n">
-        <v>-82000</v>
+        <v>1557000</v>
       </c>
       <c r="BC8" t="n">
-        <v>-4221000</v>
+        <v>68000</v>
       </c>
       <c r="BD8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BE8" t="n">
-        <v>57000</v>
+        <v>-14000</v>
       </c>
       <c r="BF8" t="n">
-        <v>-4278000</v>
+        <v>82000</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>24691000</v>
+        <v>30264000</v>
       </c>
       <c r="BK8" t="n">
-        <v>24691000</v>
+        <v>30335000</v>
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>https://www.sec.gov/Archives/edgar/data/846913/000143774921006048/0001437749-21-006048-index.htm</t>
+          <t>https://www.sec.gov/Archives/edgar/data/846913/000143774922005551/0001437749-22-005551-index.htm</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>https://www.sec.gov/Archives/edgar/data/846913/000143774921006048/ftek20201231_10k.htm</t>
+          <t>https://www.sec.gov/Archives/edgar/data/846913/000143774922005551/ftek20211231_10k.htm</t>
         </is>
       </c>
       <c r="BN8" t="n">
-        <v>10640000</v>
+        <v>35893000</v>
       </c>
       <c r="BO8" t="n">
         <v>0</v>
       </c>
       <c r="BP8" t="n">
-        <v>10640000</v>
+        <v>35893000</v>
       </c>
       <c r="BQ8" t="n">
-        <v>6548000</v>
+        <v>3259000</v>
       </c>
       <c r="BR8" t="n">
-        <v>97000</v>
+        <v>348000</v>
       </c>
       <c r="BS8" t="n">
-        <v>3788000</v>
+        <v>1965000</v>
       </c>
       <c r="BT8" t="n">
-        <v>21073000</v>
+        <v>41465000</v>
       </c>
       <c r="BU8" t="n">
-        <v>5614000</v>
+        <v>4851000</v>
       </c>
       <c r="BV8" t="n">
         <v>2116000</v>
       </c>
       <c r="BW8" t="n">
-        <v>553000</v>
+        <v>448000</v>
       </c>
       <c r="BX8" t="n">
-        <v>2669000</v>
+        <v>2564000</v>
       </c>
       <c r="BY8" t="n">
         <v>0</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0</v>
+        <v>139000</v>
       </c>
       <c r="CA8" t="n">
-        <v>732000</v>
+        <v>955000</v>
       </c>
       <c r="CB8" t="n">
-        <v>9015000</v>
+        <v>8509000</v>
       </c>
       <c r="CC8" t="n">
         <v>0</v>
       </c>
       <c r="CD8" t="n">
-        <v>30088000</v>
+        <v>49974000</v>
       </c>
       <c r="CE8" t="n">
-        <v>2353000</v>
+        <v>1561000</v>
       </c>
       <c r="CF8" t="n">
-        <v>149000</v>
+        <v>226000</v>
       </c>
       <c r="CG8" t="n">
         <v>0</v>
       </c>
       <c r="CH8" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="CI8" t="n">
-        <v>3028866</v>
+        <v>1436000</v>
       </c>
       <c r="CJ8" t="n">
-        <v>5531000</v>
+        <v>3223000</v>
       </c>
       <c r="CK8" t="n">
-        <v>1556000</v>
+        <v>122000</v>
       </c>
       <c r="CL8" t="n">
-        <v>0</v>
+        <v>139000</v>
       </c>
       <c r="CM8" t="n">
-        <v>134000</v>
+        <v>139000</v>
       </c>
       <c r="CN8" t="n">
-        <v>546000</v>
+        <v>151000</v>
       </c>
       <c r="CO8" t="n">
-        <v>2236000</v>
+        <v>551000</v>
       </c>
       <c r="CP8" t="n">
         <v>0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>386000</v>
+        <v>0</v>
       </c>
       <c r="CR8" t="n">
-        <v>7767000</v>
+        <v>3774000</v>
       </c>
       <c r="CS8" t="n">
         <v>0</v>
       </c>
       <c r="CT8" t="n">
-        <v>262000</v>
+        <v>312000</v>
       </c>
       <c r="CU8" t="n">
-        <v>-114603000</v>
+        <v>-114549000</v>
       </c>
       <c r="CV8" t="n">
-        <v>-1370000</v>
+        <v>-1604000</v>
       </c>
       <c r="CW8" t="n">
-        <v>138032000</v>
+        <v>162041000</v>
       </c>
       <c r="CX8" t="n">
-        <v>22321000</v>
+        <v>46200000</v>
       </c>
       <c r="CY8" t="n">
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>22321000</v>
+        <v>46200000</v>
       </c>
       <c r="DA8" t="n">
-        <v>30088000</v>
+        <v>49974000</v>
       </c>
       <c r="DB8" t="n">
-        <v>30088000</v>
+        <v>49974000</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
       </c>
       <c r="DD8" t="n">
-        <v>1705000</v>
+        <v>348000</v>
       </c>
       <c r="DE8" t="n">
-        <v>-8935000</v>
+        <v>-35545000</v>
       </c>
       <c r="DF8" t="n">
-        <v>-38000</v>
+        <v>5000</v>
       </c>
       <c r="DG8" t="n">
-        <v>290000</v>
+        <v>82000</v>
       </c>
       <c r="DH8" t="n">
-        <v>22752000</v>
+        <v>-52000</v>
       </c>
       <c r="DI8" t="n">
-        <v>1095000</v>
+        <v>3794000</v>
       </c>
       <c r="DJ8" t="n">
-        <v>198000</v>
+        <v>-772000</v>
       </c>
       <c r="DK8" t="n">
-        <v>38294000</v>
+        <v>38242000</v>
       </c>
       <c r="DL8" t="n">
-        <v>-22281000</v>
+        <v>60000</v>
       </c>
       <c r="DM8" t="n">
-        <v>-2707000</v>
+        <v>761000</v>
       </c>
       <c r="DN8" t="n">
         <v>0</v>
@@ -7201,16 +7201,16 @@
         <v>0</v>
       </c>
       <c r="DR8" t="n">
-        <v>-247000</v>
+        <v>-84000</v>
       </c>
       <c r="DS8" t="n">
-        <v>-247000</v>
+        <v>-84000</v>
       </c>
       <c r="DT8" t="n">
-        <v>-570</v>
+        <v>-52000</v>
       </c>
       <c r="DU8" t="n">
-        <v>0</v>
+        <v>25812000</v>
       </c>
       <c r="DV8" t="n">
         <v>0</v>
@@ -7219,40 +7219,40 @@
         <v>0</v>
       </c>
       <c r="DX8" t="n">
-        <v>1282570</v>
+        <v>-1783000</v>
       </c>
       <c r="DY8" t="n">
-        <v>1282000</v>
+        <v>23977000</v>
       </c>
       <c r="DZ8" t="n">
-        <v>777000</v>
+        <v>-206000</v>
       </c>
       <c r="EA8" t="n">
-        <v>-895000</v>
+        <v>24448000</v>
       </c>
       <c r="EB8" t="n">
+        <v>37054000</v>
+      </c>
+      <c r="EC8" t="n">
         <v>12606000</v>
       </c>
-      <c r="EC8" t="n">
-        <v>13501000</v>
-      </c>
       <c r="ED8" t="n">
-        <v>-2707000</v>
+        <v>761000</v>
       </c>
       <c r="EE8" t="n">
-        <v>-247000</v>
+        <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-2954000</v>
+        <v>761000</v>
       </c>
       <c r="EG8" t="n">
-        <v>41975800</v>
+        <v>31614800</v>
       </c>
       <c r="EH8" t="n">
-        <v>26306200</v>
+        <v>18549200</v>
       </c>
       <c r="EI8" t="n">
-        <v>7084800</v>
+        <v>5731800</v>
       </c>
       <c r="EJ8" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="EK8" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="EL8" t="n">
         <v>-0</v>
@@ -7278,10 +7278,10 @@
         <v>2</v>
       </c>
       <c r="EQ8" t="n">
-        <v>97281</v>
+        <v>113353</v>
       </c>
       <c r="ER8" t="n">
-        <v>260173</v>
+        <v>260016</v>
       </c>
       <c r="ES8" t="inlineStr">
         <is>
@@ -7295,178 +7295,178 @@
         <v>1</v>
       </c>
       <c r="EV8" t="n">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="EW8" t="n">
-        <v>30263800</v>
+        <v>30263802</v>
       </c>
       <c r="EX8" t="n">
-        <v>1647176107</v>
+        <v>1647272720</v>
       </c>
       <c r="EY8" t="n">
-        <v>30467000</v>
+        <v>24261000</v>
       </c>
       <c r="EZ8" t="n">
-        <v>18318000</v>
+        <v>13387000</v>
       </c>
       <c r="FA8" t="n">
-        <v>10914000</v>
+        <v>35161000</v>
       </c>
       <c r="FB8" t="n">
-        <v>21610000</v>
+        <v>42306000</v>
       </c>
       <c r="FC8" t="n">
         <v>0</v>
       </c>
       <c r="FD8" t="n">
-        <v>4912000</v>
+        <v>4012000</v>
       </c>
       <c r="FE8" t="n">
-        <v>6049000</v>
+        <v>4595000</v>
       </c>
       <c r="FF8" t="n">
-        <v>26175000</v>
+        <v>46444000</v>
       </c>
       <c r="FG8" t="n">
-        <v>-9934000</v>
+        <v>-34758000</v>
       </c>
       <c r="FH8" t="n">
-        <v>-3387000</v>
+        <v>761000</v>
       </c>
       <c r="FI8" t="n">
-        <v>56535000</v>
+        <v>22550000</v>
       </c>
       <c r="FJ8" t="n">
-        <v>19637000</v>
+        <v>14777000</v>
       </c>
       <c r="FK8" t="n">
-        <v>12039000</v>
+        <v>10640000</v>
       </c>
       <c r="FL8" t="n">
-        <v>40717000</v>
+        <v>21073000</v>
       </c>
       <c r="FM8" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="FN8" t="n">
-        <v>17161000</v>
+        <v>5531000</v>
       </c>
       <c r="FO8" t="n">
-        <v>17667000</v>
+        <v>7767000</v>
       </c>
       <c r="FP8" t="n">
-        <v>34052000</v>
+        <v>22321000</v>
       </c>
       <c r="FQ8" t="n">
-        <v>4927000</v>
+        <v>-2707000</v>
       </c>
       <c r="FR8" t="n">
+        <v>6451000</v>
+      </c>
+      <c r="FS8" t="n">
+        <v>3459000</v>
+      </c>
+      <c r="FT8" t="n">
+        <v>35893000</v>
+      </c>
+      <c r="FU8" t="n">
+        <v>41465000</v>
+      </c>
+      <c r="FV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW8" t="n">
+        <v>3223000</v>
+      </c>
+      <c r="FX8" t="n">
+        <v>3774000</v>
+      </c>
+      <c r="FY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ8" t="n">
+        <v>46200000</v>
+      </c>
+      <c r="GA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB8" t="n">
+        <v>348000</v>
+      </c>
+      <c r="GC8" t="n">
+        <v>-35545000</v>
+      </c>
+      <c r="GD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE8" t="n">
         <v>7559000</v>
       </c>
-      <c r="FS8" t="n">
+      <c r="GF8" t="n">
         <v>3141000</v>
       </c>
-      <c r="FT8" t="n">
+      <c r="GG8" t="n">
         <v>35161000</v>
       </c>
-      <c r="FU8" t="n">
+      <c r="GH8" t="n">
         <v>42306000</v>
       </c>
-      <c r="FV8" t="n">
+      <c r="GI8" t="n">
         <v>1246000</v>
       </c>
-      <c r="FW8" t="n">
+      <c r="GJ8" t="n">
         <v>4012000</v>
       </c>
-      <c r="FX8" t="n">
+      <c r="GK8" t="n">
         <v>4595000</v>
       </c>
-      <c r="FY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ8" t="n">
+      <c r="GL8" t="n">
         <v>46444000</v>
       </c>
-      <c r="GA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB8" t="n">
+      <c r="GM8" t="n">
         <v>275000</v>
       </c>
-      <c r="GC8" t="n">
+      <c r="GN8" t="n">
         <v>-34886000</v>
       </c>
-      <c r="GD8" t="n">
+      <c r="GO8" t="n">
         <v>343000</v>
       </c>
-      <c r="GE8" t="n">
+      <c r="GP8" t="n">
         <v>5218000</v>
       </c>
-      <c r="GF8" t="n">
+      <c r="GQ8" t="n">
         <v>3272000</v>
       </c>
-      <c r="GG8" t="n">
-        <v>36194000</v>
-      </c>
-      <c r="GH8" t="n">
+      <c r="GR8" t="n">
         <v>41444000</v>
       </c>
-      <c r="GI8" t="n">
+      <c r="GS8" t="n">
         <v>694000</v>
       </c>
-      <c r="GJ8" t="n">
+      <c r="GT8" t="n">
         <v>3552000</v>
       </c>
-      <c r="GK8" t="n">
+      <c r="GU8" t="n">
         <v>4163000</v>
       </c>
-      <c r="GL8" t="n">
+      <c r="GV8" t="n">
         <v>45898000</v>
       </c>
-      <c r="GM8" t="n">
-        <v>303000</v>
-      </c>
-      <c r="GN8" t="n">
+      <c r="GW8" t="n">
         <v>-35891000</v>
       </c>
-      <c r="GO8" t="n">
+      <c r="GX8" t="n">
         <v>454000</v>
       </c>
-      <c r="GP8" t="n">
-        <v>5033000</v>
-      </c>
-      <c r="GQ8" t="n">
-        <v>3515000</v>
-      </c>
-      <c r="GR8" t="n">
-        <v>42389000</v>
-      </c>
-      <c r="GS8" t="n">
-        <v>787000</v>
-      </c>
-      <c r="GT8" t="n">
-        <v>3893000</v>
-      </c>
-      <c r="GU8" t="n">
-        <v>4520000</v>
-      </c>
-      <c r="GV8" t="n">
-        <v>46523000</v>
-      </c>
-      <c r="GW8" t="n">
-        <v>-35369000</v>
-      </c>
-      <c r="GX8" t="n">
-        <v>-225000</v>
-      </c>
       <c r="GY8" t="n">
-        <v>24026000</v>
+        <v>24261000</v>
       </c>
       <c r="GZ8" t="n">
-        <v>1156000</v>
+        <v>572000</v>
       </c>
       <c r="HA8" t="n">
-        <v>-625000</v>
+        <v>-584000</v>
       </c>
       <c r="HB8" t="n">
         <v>1</v>
@@ -7475,10 +7475,10 @@
         <v>6</v>
       </c>
       <c r="HD8" t="n">
-        <v>231985</v>
+        <v>260016</v>
       </c>
       <c r="HE8" t="n">
-        <v>37224476</v>
+        <v>39745448</v>
       </c>
       <c r="HF8" t="n">
         <v>0</v>
@@ -7489,7 +7489,7 @@
         </is>
       </c>
       <c r="HH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="HI8" t="inlineStr">
         <is>
@@ -7596,67 +7596,67 @@
         </is>
       </c>
       <c r="IE8" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="IF8" t="n">
-        <v>0</v>
+        <v>-134</v>
       </c>
       <c r="IG8" t="n">
-        <v>22550134</v>
+        <v>24261000</v>
       </c>
       <c r="IH8" t="n">
-        <v>30467000</v>
+        <v>24260866</v>
       </c>
       <c r="II8" t="n">
+        <v>-1246000</v>
+      </c>
+      <c r="IJ8" t="n">
         <v>552000</v>
       </c>
-      <c r="IJ8" t="n">
-        <v>-93000</v>
-      </c>
       <c r="IK8" t="n">
+        <v>5205000</v>
+      </c>
+      <c r="IL8" t="n">
         <v>8111000</v>
       </c>
-      <c r="IL8" t="n">
-        <v>5125000</v>
-      </c>
       <c r="IM8" t="n">
-        <v>1476000</v>
+        <v>0</v>
       </c>
       <c r="IN8" t="n">
         <v>0</v>
       </c>
       <c r="IO8" t="n">
-        <v>249124</v>
+        <v>0</v>
       </c>
       <c r="IP8" t="n">
-        <v>-874124</v>
+        <v>-584000</v>
       </c>
       <c r="IQ8" t="n">
         <v>2</v>
       </c>
       <c r="IR8" t="n">
-        <v>281876</v>
+        <v>-12000</v>
       </c>
       <c r="IS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="IT8" t="n">
-        <v>38294000</v>
+        <v>38242000</v>
       </c>
       <c r="IU8" t="n">
         <v>1</v>
       </c>
       <c r="IV8" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="IW8" t="n">
-        <v>37711000</v>
+        <v>37691000</v>
       </c>
       <c r="IX8" t="n">
-        <v>5667492</v>
+        <v>4705856</v>
       </c>
       <c r="IY8" t="n">
-        <v>20</v>
+        <v>-392</v>
       </c>
     </row>
     <row r="9">
@@ -7755,7 +7755,7 @@
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>12621</v>
+        <v>12637</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
@@ -7807,10 +7807,10 @@
         <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>420267000</v>
       </c>
       <c r="AR9" t="n">
-        <v>420267000</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
         <v>420267000</v>
@@ -7834,13 +7834,13 @@
         <v>0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>202880000</v>
+        <v>161483000</v>
       </c>
       <c r="BA9" t="n">
         <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>76030000</v>
+        <v>-34633000</v>
       </c>
       <c r="BC9" t="n">
         <v>126850000</v>
@@ -8316,27 +8316,27 @@
         <v>-46585000</v>
       </c>
       <c r="HB9" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="HC9" t="n">
         <v>1</v>
       </c>
       <c r="HD9" t="n">
-        <v>399032</v>
+        <v>440076</v>
       </c>
       <c r="HE9" t="n">
-        <v>1526532096</v>
+        <v>1274068224</v>
       </c>
       <c r="HF9" t="n">
         <v>0</v>
       </c>
       <c r="HG9" t="inlineStr">
         <is>
-          <t>26.66-43.85</t>
+          <t>19.14-41.74</t>
         </is>
       </c>
       <c r="HH9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HI9" t="inlineStr">
         <is>
@@ -8410,11 +8410,11 @@
         <v>0</v>
       </c>
       <c r="HX9" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="HY9" t="inlineStr">
         <is>
-          <t>https://fmpcloud.io/image-stock/ATGE.png</t>
+          <t>https://financialmodelingprep.com/image-stock/ATGE.png</t>
         </is>
       </c>
       <c r="HZ9" t="inlineStr">
@@ -9169,10 +9169,10 @@
         <v>3</v>
       </c>
       <c r="HD10" t="n">
-        <v>4105508</v>
+        <v>4021261</v>
       </c>
       <c r="HE10" t="n">
-        <v>1386016</v>
+        <v>1401247</v>
       </c>
       <c r="HF10" t="n">
         <v>0</v>
@@ -9449,7 +9449,7 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>8421</v>
+        <v>8422</v>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>38720601</v>
       </c>
       <c r="EX11" t="n">
-        <v>1647176110</v>
+        <v>1647272722</v>
       </c>
       <c r="EY11" t="n">
         <v>1376900000</v>
@@ -10123,7 +10123,7 @@
       </c>
       <c r="IB11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="IC11" t="inlineStr">
@@ -10222,10 +10222,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.21</v>
+        <v>3.13</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>3.13</v>
@@ -10270,7 +10270,7 @@
         <v>0.2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="V12" t="n">
         <v>-0.07000000000000001</v>
@@ -10288,7 +10288,7 @@
         <v>1673481</v>
       </c>
       <c r="AA12" t="n">
-        <v>161721408</v>
+        <v>157690976</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>6184</v>
+        <v>6185</v>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="EK12" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="EL12" t="n">
         <v>-0</v>
@@ -10666,10 +10666,10 @@
         <v>9</v>
       </c>
       <c r="EQ12" t="n">
-        <v>126207</v>
+        <v>13208</v>
       </c>
       <c r="ER12" t="n">
-        <v>419588</v>
+        <v>420595</v>
       </c>
       <c r="ES12" t="inlineStr">
         <is>
@@ -10683,13 +10683,13 @@
         <v>3</v>
       </c>
       <c r="EV12" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="EW12" t="n">
-        <v>50380501</v>
+        <v>50380504</v>
       </c>
       <c r="EX12" t="n">
-        <v>1647176119</v>
+        <v>1647272727</v>
       </c>
       <c r="EY12" t="n">
         <v>1887386</v>
@@ -10863,17 +10863,17 @@
         <v>0</v>
       </c>
       <c r="HD12" t="n">
-        <v>444796</v>
+        <v>420595</v>
       </c>
       <c r="HE12" t="n">
-        <v>169782272</v>
+        <v>161217600</v>
       </c>
       <c r="HF12" t="n">
         <v>0</v>
       </c>
       <c r="HG12" t="inlineStr">
         <is>
-          <t>3.34-17.5</t>
+          <t>3.13-17.5</t>
         </is>
       </c>
       <c r="HH12" t="n">
@@ -11041,7 +11041,7 @@
         <v>-12866142</v>
       </c>
       <c r="IX12" t="n">
-        <v>207744710</v>
+        <v>203714278</v>
       </c>
       <c r="IY12" t="n">
         <v>-15</v>
@@ -11143,7 +11143,7 @@
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>12407</v>
+        <v>12423</v>
       </c>
       <c r="AD13" t="inlineStr">
         <is>

--- a/z_notes.xlsx
+++ b/z_notes.xlsx
@@ -2199,7 +2199,7 @@
         <v>25</v>
       </c>
       <c r="ER2" t="n">
-        <v>2648</v>
+        <v>2693</v>
       </c>
       <c r="ES2" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>2725010</v>
       </c>
       <c r="EX2" t="n">
-        <v>1647272720</v>
+        <v>1647335546</v>
       </c>
       <c r="EY2" t="n">
         <v>11768000</v>
@@ -2599,19 +2599,19 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="F3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
         <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>-80</v>
+        <v>-72</v>
       </c>
       <c r="I3" t="n">
-        <v>9.75</v>
+        <v>6.74</v>
       </c>
       <c r="J3" t="n">
         <v>-60</v>
@@ -2644,16 +2644,16 @@
         <v>-87.22</v>
       </c>
       <c r="T3" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="U3" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.96</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X3" t="n">
         <v>-1</v>
@@ -2665,7 +2665,7 @@
         <v>788611</v>
       </c>
       <c r="AA3" t="n">
-        <v>20052708</v>
+        <v>19842732</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="EK3" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="EL3" t="n">
         <v>-0</v>
@@ -3043,10 +3043,10 @@
         <v>3</v>
       </c>
       <c r="EQ3" t="n">
-        <v>12127</v>
+        <v>39331</v>
       </c>
       <c r="ER3" t="n">
-        <v>78196</v>
+        <v>71993</v>
       </c>
       <c r="ES3" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>10498800</v>
       </c>
       <c r="EX3" t="n">
-        <v>1647272723</v>
+        <v>1647335549</v>
       </c>
       <c r="EY3" t="n">
         <v>402446</v>
@@ -3418,7 +3418,7 @@
         <v>13845851</v>
       </c>
       <c r="IX3" t="n">
-        <v>6988315</v>
+        <v>6778339</v>
       </c>
       <c r="IY3" t="n">
         <v>-1</v>
@@ -4081,16 +4081,16 @@
         <v>-224297</v>
       </c>
       <c r="HB4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HC4" t="n">
         <v>-0</v>
       </c>
       <c r="HD4" t="n">
-        <v>983900</v>
+        <v>978032</v>
       </c>
       <c r="HE4" t="n">
-        <v>480417440</v>
+        <v>452890208</v>
       </c>
       <c r="HF4" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="HH4" t="n">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="HI4" t="inlineStr">
         <is>
@@ -4737,10 +4737,10 @@
         <v>27</v>
       </c>
       <c r="EQ5" t="n">
-        <v>402</v>
+        <v>2581</v>
       </c>
       <c r="ER5" t="n">
-        <v>5985</v>
+        <v>6044</v>
       </c>
       <c r="ES5" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>3510260</v>
       </c>
       <c r="EX5" t="n">
-        <v>1647272705</v>
+        <v>1647335532</v>
       </c>
       <c r="EY5" t="n">
         <v>55363906</v>
@@ -5140,13 +5140,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="H6" t="n">
         <v>-91</v>
@@ -5161,7 +5161,7 @@
         <v>-26</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.5</v>
+        <v>-1.54</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
@@ -5185,16 +5185,16 @@
         <v>-163.53</v>
       </c>
       <c r="T6" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="U6" t="n">
-        <v>-2.06</v>
+        <v>-2.13</v>
       </c>
       <c r="V6" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="W6" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="X6" t="n">
         <v>14</v>
@@ -5206,7 +5206,7 @@
         <v>1092662</v>
       </c>
       <c r="AA6" t="n">
-        <v>20168180</v>
+        <v>19735360</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="EK6" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="EL6" t="n">
         <v>-0</v>
@@ -5584,10 +5584,10 @@
         <v>2</v>
       </c>
       <c r="EQ6" t="n">
-        <v>148615</v>
+        <v>414293</v>
       </c>
       <c r="ER6" t="n">
-        <v>714061</v>
+        <v>714391</v>
       </c>
       <c r="ES6" t="inlineStr">
         <is>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>30056900</v>
+        <v>30056899</v>
       </c>
       <c r="EX6" t="n">
-        <v>1647272712</v>
+        <v>1647335538</v>
       </c>
       <c r="EY6" t="n">
         <v>30451273</v>
@@ -5784,7 +5784,7 @@
         <v>714061</v>
       </c>
       <c r="HE6" t="n">
-        <v>20709204</v>
+        <v>20438692</v>
       </c>
       <c r="HF6" t="n">
         <v>0</v>
@@ -5953,13 +5953,13 @@
         <v>1</v>
       </c>
       <c r="IV6" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="IW6" t="n">
         <v>15857349</v>
       </c>
       <c r="IX6" t="n">
-        <v>-41586517</v>
+        <v>-42019337</v>
       </c>
       <c r="IY6" t="n">
         <v>1</v>
@@ -6628,10 +6628,10 @@
         <v>-0</v>
       </c>
       <c r="HD7" t="n">
-        <v>2100998</v>
+        <v>2126459</v>
       </c>
       <c r="HE7" t="n">
-        <v>36158028</v>
+        <v>34163668</v>
       </c>
       <c r="HF7" t="n">
         <v>0</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="F8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" t="n">
         <v>1.04</v>
       </c>
       <c r="H8" t="n">
-        <v>-67</v>
+        <v>-65</v>
       </c>
       <c r="I8" t="n">
-        <v>4.09</v>
+        <v>3.77</v>
       </c>
       <c r="J8" t="n">
         <v>-59</v>
@@ -6879,10 +6879,10 @@
         <v>-100</v>
       </c>
       <c r="T8" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="U8" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>846913</v>
       </c>
       <c r="AA8" t="n">
-        <v>40250856</v>
+        <v>39948216</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -7278,10 +7278,10 @@
         <v>2</v>
       </c>
       <c r="EQ8" t="n">
-        <v>113353</v>
+        <v>232124</v>
       </c>
       <c r="ER8" t="n">
-        <v>260016</v>
+        <v>257252</v>
       </c>
       <c r="ES8" t="inlineStr">
         <is>
@@ -7295,13 +7295,13 @@
         <v>1</v>
       </c>
       <c r="EV8" t="n">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="EW8" t="n">
-        <v>30263802</v>
+        <v>30263800</v>
       </c>
       <c r="EX8" t="n">
-        <v>1647272720</v>
+        <v>1647335546</v>
       </c>
       <c r="EY8" t="n">
         <v>24261000</v>
@@ -7647,16 +7647,16 @@
         <v>1</v>
       </c>
       <c r="IV8" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="IW8" t="n">
         <v>37691000</v>
       </c>
       <c r="IX8" t="n">
-        <v>4705856</v>
+        <v>4403216</v>
       </c>
       <c r="IY8" t="n">
-        <v>-392</v>
+        <v>-367</v>
       </c>
     </row>
     <row r="9">
@@ -8316,16 +8316,16 @@
         <v>-46585000</v>
       </c>
       <c r="HB9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HC9" t="n">
         <v>1</v>
       </c>
       <c r="HD9" t="n">
-        <v>440076</v>
+        <v>439938</v>
       </c>
       <c r="HE9" t="n">
-        <v>1274068224</v>
+        <v>1269087488</v>
       </c>
       <c r="HF9" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="HX9" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="HY9" t="inlineStr">
         <is>
@@ -9169,10 +9169,10 @@
         <v>3</v>
       </c>
       <c r="HD10" t="n">
-        <v>4021261</v>
+        <v>3991478</v>
       </c>
       <c r="HE10" t="n">
-        <v>1401247</v>
+        <v>1431709</v>
       </c>
       <c r="HF10" t="n">
         <v>0</v>
@@ -9183,7 +9183,7 @@
         </is>
       </c>
       <c r="HH10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="HI10" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>38720601</v>
       </c>
       <c r="EX11" t="n">
-        <v>1647272722</v>
+        <v>1647335548</v>
       </c>
       <c r="EY11" t="n">
         <v>1376900000</v>
@@ -10222,13 +10222,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.13</v>
+        <v>3.08</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>3.13</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
         <v>-82</v>
@@ -10270,7 +10270,7 @@
         <v>0.2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="V12" t="n">
         <v>-0.07000000000000001</v>
@@ -10288,7 +10288,7 @@
         <v>1673481</v>
       </c>
       <c r="AA12" t="n">
-        <v>157690976</v>
+        <v>161721248</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="EK12" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="EL12" t="n">
         <v>-0</v>
@@ -10666,10 +10666,10 @@
         <v>9</v>
       </c>
       <c r="EQ12" t="n">
-        <v>13208</v>
+        <v>82376</v>
       </c>
       <c r="ER12" t="n">
-        <v>420595</v>
+        <v>421961</v>
       </c>
       <c r="ES12" t="inlineStr">
         <is>
@@ -10683,13 +10683,13 @@
         <v>3</v>
       </c>
       <c r="EV12" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="EW12" t="n">
-        <v>50380504</v>
+        <v>52506899</v>
       </c>
       <c r="EX12" t="n">
-        <v>1647272727</v>
+        <v>1647335554</v>
       </c>
       <c r="EY12" t="n">
         <v>1887386</v>
@@ -11041,7 +11041,7 @@
         <v>-12866142</v>
       </c>
       <c r="IX12" t="n">
-        <v>203714278</v>
+        <v>207744550</v>
       </c>
       <c r="IY12" t="n">
         <v>-15</v>
